--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1421.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1421.xlsx
@@ -9276,29 +9276,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.04042665172709933</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0007358166072550822</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.03386906184061704</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0006164601100953839</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.059253</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0005378200999061654</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.08925300000000003</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0005023036782142489</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.04042665172709933</v>
+        <v>0.07276797310877878</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007358166072550822</v>
+        <v>0.002207449821765246</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.05850600000000002</v>
+        <v>0.05648707586632047</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001064883797814208</v>
+        <v>0.001598275677943181</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.09541168937047539</v>
+        <v>0.1199859414180337</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006925707308156377</v>
+        <v>0.001613460299718496</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.08248999999999995</v>
+        <v>0.1647073009680295</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0004970676620534834</v>
+        <v>0.001506911034642747</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05447311339727137</v>
+        <v>0.07863867401742991</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001390289718259575</v>
+        <v>0.003186629732050409</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.06679462474028001</v>
+        <v>0.0752645818680379</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001501218519883549</v>
+        <v>0.003194651393442624</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1185060000000001</v>
+        <v>0.1345643673455575</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00109781834826207</v>
+        <v>0.003180659988110241</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1647073009680295</v>
+        <v>0.1869030241686463</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00165415349366222</v>
+        <v>0.003179589141225057</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.07276797310877878</v>
+        <v>0.0871977542754252</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002207449821765246</v>
+        <v>0.004779944598075614</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.07526458186803787</v>
+        <v>0.08330416942113751</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002283185592945867</v>
+        <v>0.004794827033829544</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1199859414180337</v>
+        <v>0.1491508562298722</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.001852547100599902</v>
+        <v>0.004770989982165361</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1708237383485146</v>
+        <v>0.207043082550794</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002133049272327814</v>
+        <v>0.004769383711837586</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07662370613555217</v>
+        <v>0.08461624096864634</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002780579436519151</v>
+        <v>0.006373259464100819</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.07910677154217953</v>
+        <v>0.09184127616241015</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003002437039767099</v>
+        <v>0.006393102711772724</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1220894866893433</v>
+        <v>0.1609040841810568</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002770282923262551</v>
+        <v>0.006361319976220481</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.181791369173844</v>
+        <v>0.2234863459411248</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002844065696437085</v>
+        <v>0.006359178282450115</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.04042665172709933</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.07512654800543983</v>
+        <v>0.08799776256237582</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003475724295648938</v>
+        <v>0.007966574330126024</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.08358989976185642</v>
+        <v>0.09816155100468051</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003753046299708873</v>
+        <v>0.007991378389715906</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1230789351186817</v>
+        <v>0.1709411173449163</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003462853654078189</v>
+        <v>0.007951649970275601</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.190942717806286</v>
+        <v>0.2351290134236521</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003555082120546356</v>
+        <v>0.007948972853062643</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.07344174256307345</v>
+        <v>0.09344594752189622</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004170869154778726</v>
+        <v>0.009559889196151227</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0879171759777619</v>
+        <v>0.1039395284110044</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004503655559650648</v>
+        <v>0.009589654067659088</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1277041979277804</v>
+        <v>0.1804790218672555</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004155424384893826</v>
+        <v>0.009541979964330722</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2008891598517682</v>
+        <v>0.2463672840823894</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004266098544655628</v>
+        <v>0.009538767423675171</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.08557228276764384</v>
+        <v>0.1100644243124899</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004866014013908513</v>
+        <v>0.01115320406217643</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0913887398325874</v>
+        <v>0.1092497428444376</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005254264819592423</v>
+        <v>0.01118792974560227</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1304386749550228</v>
+        <v>0.1876348638938791</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004847995115709464</v>
+        <v>0.01113230995838584</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2121420709162184</v>
+        <v>0.2572973570013503</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004977114968764899</v>
+        <v>0.0111285619942877</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08652116157834161</v>
+        <v>0.1059568213994395</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005561158873038301</v>
+        <v>0.01274651892820164</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.09560473096902423</v>
+        <v>0.114866728768036</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006004874079534197</v>
+        <v>0.01278620542354545</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1337557660387922</v>
+        <v>0.1924257095705922</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005540565846525102</v>
+        <v>0.01272263995244096</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2189128266055648</v>
+        <v>0.2657154312645477</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00568813139287417</v>
+        <v>0.01271835656490023</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.09229137195435758</v>
+        <v>0.1152267672480275</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006256303732168089</v>
+        <v>0.01433983379422684</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.09976528902976385</v>
+        <v>0.1187650206448554</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006755483339475971</v>
+        <v>0.01438448110148863</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1357288710174719</v>
+        <v>0.1971686250431996</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00623313657734074</v>
+        <v>0.01431296994649608</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2293128025257348</v>
+        <v>0.2723177059559955</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006399147816983441</v>
+        <v>0.01430815113551276</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08888590685488246</v>
+        <v>0.1079778903235362</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006951448591297877</v>
+        <v>0.01593314866025205</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1035705536574975</v>
+        <v>0.1214191529379516</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007506092599417746</v>
+        <v>0.01598275677943181</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1413313897294453</v>
+        <v>0.201380676457506</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006925707308156378</v>
+        <v>0.0159032999405512</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2347533742826563</v>
+        <v>0.2761003801597065</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007110164241092712</v>
+        <v>0.01589794570612529</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.09430775923910695</v>
+        <v>0.1203138190912484</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007646593450427664</v>
+        <v>0.01752646352627725</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1075206644949167</v>
+        <v>0.1243036601103805</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008256701859359521</v>
+        <v>0.017581032457375</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1431367220130955</v>
+        <v>0.2045789299593164</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007618278038972015</v>
+        <v>0.01749362993460632</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2422459174822572</v>
+        <v>0.2807596529596946</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007821180665201983</v>
+        <v>0.01748774027673782</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0995599220662218</v>
+        <v>0.1253381820164464</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008341738309557452</v>
+        <v>0.01911977839230245</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1108157611847126</v>
+        <v>0.1277930766251979</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009007311119301295</v>
+        <v>0.01917930813531818</v>
       </c>
       <c r="L77" t="n">
-        <v>0.149518267706806</v>
+        <v>0.2066804516944356</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008310848769787653</v>
+        <v>0.01908395992866144</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2499018077304653</v>
+        <v>0.2829917234399729</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008532197089311256</v>
+        <v>0.01907753484735034</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1016453882954177</v>
+        <v>0.1241546075644128</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00903688316868724</v>
+        <v>0.02071309325832766</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1138559833695768</v>
+        <v>0.1292619369454596</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009757920379243071</v>
+        <v>0.02077758381326136</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1539494266489601</v>
+        <v>0.2085023078086686</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00900341950060329</v>
+        <v>0.02067428992271656</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2576324206332087</v>
+        <v>0.2883927906845548</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009243213513420527</v>
+        <v>0.02066732941796287</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1095671508858854</v>
+        <v>0.1198667242004301</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009732028027817027</v>
+        <v>0.02230640812435286</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1168414706922005</v>
+        <v>0.1311847755342214</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01050852963918485</v>
+        <v>0.02237585949120454</v>
       </c>
       <c r="L79" t="n">
-        <v>0.157103598677941</v>
+        <v>0.2122615644478201</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009695990231418927</v>
+        <v>0.02226461991677169</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2644491317964144</v>
+        <v>0.2927590537774537</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009954229937529799</v>
+        <v>0.0222571239885754</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1143282027968157</v>
+        <v>0.1265685099582094</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01042717288694681</v>
+        <v>0.02389972299037807</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1200723627952752</v>
+        <v>0.1325361268545393</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01125913889912662</v>
+        <v>0.02397413516914772</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1622541836321322</v>
+        <v>0.2140520662187644</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01038856096223457</v>
+        <v>0.02385494991082681</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2692633168260111</v>
+        <v>0.2955889865547051</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01066524636163907</v>
+        <v>0.02384691855918793</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1169315369873993</v>
+        <v>0.1212421963525251</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0111223177460766</v>
+        <v>0.02549303785640327</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1231487993214922</v>
+        <v>0.134698782337243</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01200974815906839</v>
+        <v>0.0255724108470909</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1662745813499169</v>
+        <v>0.2188795425718514</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0110811316930502</v>
+        <v>0.02544527990488192</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2754863513279262</v>
+        <v>0.3004248325796314</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01137626278574834</v>
+        <v>0.02543671312980046</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1133801464168268</v>
+        <v>0.1288645900891506</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01181746260520639</v>
+        <v>0.02708635272242848</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1244709199135429</v>
+        <v>0.1370136360499644</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01276035741901017</v>
+        <v>0.02717068652503408</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1708381916696785</v>
+        <v>0.2210168483980177</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01177370242386584</v>
+        <v>0.02703560989893704</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2798296109080876</v>
+        <v>0.3044355282547755</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01208727920985761</v>
+        <v>0.02702650770041299</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.117677024044289</v>
+        <v>0.131425194311571</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01251260746433618</v>
+        <v>0.02867966758845368</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1269388642141185</v>
+        <v>0.1391703723099668</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01351096667895194</v>
+        <v>0.02876896220297727</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1769184144298002</v>
+        <v>0.2239467726906688</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01246627315468148</v>
+        <v>0.02862593989299217</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2844044711724231</v>
+        <v>0.3055974715132518</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01279829563396688</v>
+        <v>0.02861630227102552</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1138251628289768</v>
+        <v>0.1269135121632718</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01320775232346597</v>
+        <v>0.03027298245447889</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1300527718659107</v>
+        <v>0.1401580323959363</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01426157593889372</v>
+        <v>0.03036723788092045</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1795886494686653</v>
+        <v>0.2243521044432105</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01315884388549712</v>
+        <v>0.03021626988704729</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2880223077268603</v>
+        <v>0.3086870602881742</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01350931205807615</v>
+        <v>0.03020609684163804</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1138275557300806</v>
+        <v>0.1373190467877384</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01390289718259575</v>
+        <v>0.0318662973205041</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1317127825116106</v>
+        <v>0.1412656575865588</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01501218519883549</v>
+        <v>0.03196551355886362</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1852222966246573</v>
+        <v>0.2274156326490482</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01385141461631276</v>
+        <v>0.0318065998811024</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2928944961773274</v>
+        <v>0.3127806925126566</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01422032848218542</v>
+        <v>0.03179589141225057</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1206871957067914</v>
+        <v>0.131631301328456</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01459804204172554</v>
+        <v>0.0334596121865293</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1342190357939096</v>
+        <v>0.1433822891605204</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01576279445877727</v>
+        <v>0.03356378923680681</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1900927557361595</v>
+        <v>0.2295201463015877</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01454398534712839</v>
+        <v>0.03339692987515753</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2957324121297521</v>
+        <v>0.3160547661198134</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0149313449062947</v>
+        <v>0.0333856859828631</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1184070757182998</v>
+        <v>0.12683977892891</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01529318690085533</v>
+        <v>0.0350529270525545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1366716713554992</v>
+        <v>0.1444969683965071</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01651340371871904</v>
+        <v>0.03516206491474999</v>
       </c>
       <c r="L87" t="n">
-        <v>0.192973426641555</v>
+        <v>0.2307484343942345</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01523655607794403</v>
+        <v>0.03498725986921265</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2998474311900622</v>
+        <v>0.3172856790427586</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01564236133040397</v>
+        <v>0.03497548055347564</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1329901887237966</v>
+        <v>0.1309339827325857</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01598833175998512</v>
+        <v>0.03664624191857971</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1372708288390707</v>
+        <v>0.1450987365732049</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01726401297866082</v>
+        <v>0.03676034059269317</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1991377091792272</v>
+        <v>0.2344832859203944</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01592912680875967</v>
+        <v>0.03657758986326777</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3021509289641854</v>
+        <v>0.3204498292146061</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01635337775451324</v>
+        <v>0.03656527512408816</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1254395276824724</v>
+        <v>0.1409034158829687</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0166834766191149</v>
+        <v>0.03823955678460491</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1396166478873154</v>
+        <v>0.1465766349692997</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01801462223860259</v>
+        <v>0.03835861627063635</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2034590031875596</v>
+        <v>0.2342074898734728</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01662169753957531</v>
+        <v>0.03816791985732289</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3042542810580496</v>
+        <v>0.3225236145684703</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01706439417862251</v>
+        <v>0.03815506969470069</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1327580855535181</v>
+        <v>0.142737581523544</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01737862147824469</v>
+        <v>0.03983287165063012</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1408092681429247</v>
+        <v>0.1479197048634777</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01876523149854437</v>
+        <v>0.03995689194857953</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2065107085049353</v>
+        <v>0.2363038352468755</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01731426827039094</v>
+        <v>0.03975824985137801</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3069688630775825</v>
+        <v>0.3237834330374653</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01777541060273178</v>
+        <v>0.03974486426531322</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1249488552961243</v>
+        <v>0.1364259827977971</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01807376633737448</v>
+        <v>0.04142618651665533</v>
       </c>
       <c r="J91" t="n">
-        <v>0.14224882924859</v>
+        <v>0.1486169875344247</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01951584075848614</v>
+        <v>0.04155516762652271</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2108662249697377</v>
+        <v>0.2377551110340081</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01800683900120658</v>
+        <v>0.04134857984543313</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3086060506287124</v>
+        <v>0.3266056825547047</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01848642702684105</v>
+        <v>0.04133465883592574</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1370148298694818</v>
+        <v>0.1309581228492135</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01876891119650427</v>
+        <v>0.04301950138268053</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1436354708470027</v>
+        <v>0.1486575242608269</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02026645001842791</v>
+        <v>0.04315344330446589</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2140989524203502</v>
+        <v>0.2369441062282761</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01869940973202222</v>
+        <v>0.04293890983948825</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3132772193173664</v>
+        <v>0.3262667610533031</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01919744345095032</v>
+        <v>0.04292445340653828</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1299590022327813</v>
+        <v>0.1353235048212783</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01946405605563405</v>
+        <v>0.04461281624870573</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1431693325808541</v>
+        <v>0.1500303563213702</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02101705927836969</v>
+        <v>0.04475171898240907</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2171822906951559</v>
+        <v>0.2399718828360674</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01939198046283785</v>
+        <v>0.04452923983354337</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3132937447494729</v>
+        <v>0.329414601936059</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0199084598750596</v>
+        <v>0.0445142479771508</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1267843653452135</v>
+        <v>0.1455359462175576</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02015920091476384</v>
+        <v>0.04620613111473094</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1447505540928357</v>
+        <v>0.1505291637360758</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02176766853831147</v>
+        <v>0.04634999466035226</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2209896396325383</v>
+        <v>0.2398664108118412</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0200845511936535</v>
+        <v>0.04611956982759849</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3150670025309593</v>
+        <v>0.3262109967270328</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02061947629916887</v>
+        <v>0.04610404254776333</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1384939121659693</v>
+        <v>0.1425244297493241</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02085434577389363</v>
+        <v>0.04779944598075614</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1456792750256386</v>
+        <v>0.1502290715596242</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02251827779825324</v>
+        <v>0.04794827033829543</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2237943990708809</v>
+        <v>0.2394212154486606</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02077712192446913</v>
+        <v>0.04770989982165361</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3162083682677537</v>
+        <v>0.3276350750467496</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02133049272327814</v>
+        <v>0.04769383711837586</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1310906356542391</v>
+        <v>0.1384331841193844</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02154949063302342</v>
+        <v>0.04939276084678135</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1454556350219544</v>
+        <v>0.1499837430519699</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02326888705819501</v>
+        <v>0.04954654601623862</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2248699688485665</v>
+        <v>0.2378252026972658</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02146969265528477</v>
+        <v>0.04930022981570873</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3166292175657838</v>
+        <v>0.3271549423652593</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02204150914738741</v>
+        <v>0.0492836316889884</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1275775287692139</v>
+        <v>0.1322555961170962</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02224463549215321</v>
+        <v>0.05098607571280655</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1454797737244745</v>
+        <v>0.1492454942708557</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02401949631813679</v>
+        <v>0.0511448216941818</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2279897488039788</v>
+        <v>0.2370902144618908</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02216226338610041</v>
+        <v>0.05089055980976385</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3170409260309774</v>
+        <v>0.3279848672639507</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02275252557149668</v>
+        <v>0.05087342625960092</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1309575844700843</v>
+        <v>0.1309971978885555</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02293978035128299</v>
+        <v>0.05257939057883175</v>
       </c>
       <c r="J98" t="n">
-        <v>0.14635183077589</v>
+        <v>0.1495201477245617</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02477010557807856</v>
+        <v>0.05274309737212498</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2298271387755011</v>
+        <v>0.238925321439349</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02285483411691604</v>
+        <v>0.05248088980381897</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3180548692692623</v>
+        <v>0.325437288712719</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02346354199560595</v>
+        <v>0.05246322083021344</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1282337957160412</v>
+        <v>0.130663521579858</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02363492521041278</v>
+        <v>0.05417270544485695</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1458736532227978</v>
+        <v>0.1484134789752524</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02552071483802034</v>
+        <v>0.05434137305006816</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2305555386015165</v>
+        <v>0.2368395943264536</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02354740484773168</v>
+        <v>0.05407121979787409</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3189824228865665</v>
+        <v>0.3249246456814585</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02417455841971522</v>
+        <v>0.05405301540082597</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.140409155466275</v>
+        <v>0.1392600993370995</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02433007006954257</v>
+        <v>0.05576602031088216</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1465669627016677</v>
+        <v>0.1490312635850922</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02627132409796211</v>
+        <v>0.05593964872801134</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2310483481204086</v>
+        <v>0.2368421038200175</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02423997557854732</v>
+        <v>0.05566154979192922</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3175349624888177</v>
+        <v>0.3237593771400643</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02488557484382449</v>
+        <v>0.05564280997143851</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1394866566799768</v>
+        <v>0.1367924633063757</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02502521492867235</v>
+        <v>0.05735933517690737</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1459461464434464</v>
+        <v>0.1489792771162456</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02702193335790389</v>
+        <v>0.05753792440595453</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2323789671705604</v>
+        <v>0.2352419206168541</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02493254630936296</v>
+        <v>0.05725187978598433</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3194186142686382</v>
+        <v>0.3246539220584308</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02559659126793376</v>
+        <v>0.05723260454205104</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1284702299404688</v>
+        <v>0.1342661456337825</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02572035978780214</v>
+        <v>0.05895265004293257</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1456211943153741</v>
+        <v>0.1477632951308771</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02777254261784566</v>
+        <v>0.0591362000838977</v>
       </c>
       <c r="L102" t="n">
-        <v>0.23255698701552</v>
+        <v>0.2341481154137764</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0256251170401786</v>
+        <v>0.05884220978003945</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3184046634238745</v>
+        <v>0.3221207194064529</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02630760769204303</v>
+        <v>0.05882239911266356</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1413673519676795</v>
+        <v>0.1316866784654155</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02641550464693193</v>
+        <v>0.06054596490895778</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1454020961846911</v>
+        <v>0.1477890931911512</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02852315187778743</v>
+        <v>0.06073447576184089</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2321217168701294</v>
+        <v>0.2335697589075977</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02631768777099423</v>
+        <v>0.06043253977409457</v>
       </c>
       <c r="N103" t="n">
-        <v>0.315033532769049</v>
+        <v>0.3199722081540256</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02701862411615231</v>
+        <v>0.06041219368327608</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1401846134966981</v>
+        <v>0.1340595939473707</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02711064950606172</v>
+        <v>0.06213927977498299</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1442988419186378</v>
+        <v>0.1472624468592323</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02927376113772921</v>
+        <v>0.06233275143978406</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2310156719551803</v>
+        <v>0.2324159217951309</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02701025850180987</v>
+        <v>0.0620228697681497</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3139067962831176</v>
+        <v>0.3201208272710432</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02772964054026158</v>
+        <v>0.06200198825388863</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1409284667591773</v>
+        <v>0.1333904242257437</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02780579436519151</v>
+        <v>0.06373259464100819</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1446214213844544</v>
+        <v>0.1454891316972849</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03002437039767098</v>
+        <v>0.06393102711772725</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2306684592108152</v>
+        <v>0.2322956747731894</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02770282923262551</v>
+        <v>0.06361319976220481</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3135260279450365</v>
+        <v>0.3173790157274007</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02844065696437085</v>
+        <v>0.06359178282450115</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1326053639867699</v>
+        <v>0.1346847014466304</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02850093922432129</v>
+        <v>0.06532590950703339</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1439798244493812</v>
+        <v>0.1455749232674735</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03077497965761276</v>
+        <v>0.06552930279567043</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2294096855771765</v>
+        <v>0.2316180885385862</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02839539996344114</v>
+        <v>0.06520352975625993</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3089928017337618</v>
+        <v>0.3170592124929928</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02915167338848012</v>
+        <v>0.06518157739511368</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1372217574111284</v>
+        <v>0.1259479577561265</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02919608408345108</v>
+        <v>0.0669192243730586</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1426840409806586</v>
+        <v>0.1444255971319626</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03152558891755454</v>
+        <v>0.06712757847361361</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2289689579944068</v>
+        <v>0.2282922337881345</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02908797069425679</v>
+        <v>0.06679385975031506</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3052086916282496</v>
+        <v>0.3157738565377144</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02986268981258939</v>
+        <v>0.0667713719657262</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1277840992639056</v>
+        <v>0.1331857253003279</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02989122894258087</v>
+        <v>0.06851253923908381</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1422440608455269</v>
+        <v>0.1438469288529166</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03227619817749631</v>
+        <v>0.06872585415155678</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2278758834026485</v>
+        <v>0.2269271812186474</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02978054142507243</v>
+        <v>0.06838418974437017</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3037752716074559</v>
+        <v>0.31313538683146</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03057370623669866</v>
+        <v>0.06836116653633872</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1282988417767541</v>
+        <v>0.1284035362253302</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03058637380171066</v>
+        <v>0.070105854105109</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1418698739112263</v>
+        <v>0.1435446939925</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03302680743743808</v>
+        <v>0.07032412982949998</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2253600687420442</v>
+        <v>0.226232001526938</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03047311215588806</v>
+        <v>0.06997451973842529</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3005941156503371</v>
+        <v>0.3114562423441244</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03128472266080793</v>
+        <v>0.06995096110695127</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1357724371813266</v>
+        <v>0.1286069226772293</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03128151866084045</v>
+        <v>0.07169916897113421</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1407714700449971</v>
+        <v>0.1425246681128773</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03377741669737986</v>
+        <v>0.07192240550744315</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2247511209527363</v>
+        <v>0.2262157654098196</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0311656828867037</v>
+        <v>0.07156484973248041</v>
       </c>
       <c r="N110" t="n">
-        <v>0.297266797735849</v>
+        <v>0.3099488620456025</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03199573908491721</v>
+        <v>0.07154075567756379</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1252113377092758</v>
+        <v>0.131801416802121</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03197666351997024</v>
+        <v>0.07329248383715942</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1390588391140797</v>
+        <v>0.140992626776213</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03452802595732164</v>
+        <v>0.07352068118538634</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2233786469748673</v>
+        <v>0.2251875435641053</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03185825361751934</v>
+        <v>0.07315517972653554</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2936948918429478</v>
+        <v>0.3058256849057888</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03270675550902648</v>
+        <v>0.07313055024817632</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1326219955922543</v>
+        <v>0.1319925507461009</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03267180837910002</v>
+        <v>0.07488579870318461</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1381419709857143</v>
+        <v>0.1404543455446716</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0352786352172634</v>
+        <v>0.07511895686332952</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2194722537485796</v>
+        <v>0.2216564066866081</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03255082434833497</v>
+        <v>0.07474550972059066</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2905799719505895</v>
+        <v>0.3042991498945783</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03341777193313575</v>
+        <v>0.07472034481878885</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1260108630619147</v>
+        <v>0.126185856655265</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03336695323822981</v>
+        <v>0.07647911356920982</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1380308555271413</v>
+        <v>0.1389155999804174</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03602924447720518</v>
+        <v>0.0767172325412727</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2188615482140158</v>
+        <v>0.2212314254741413</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03324339507915061</v>
+        <v>0.07633583971464578</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2889236120377303</v>
+        <v>0.3030816959818655</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03412878835724503</v>
+        <v>0.07631013938940137</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1323843923499098</v>
+        <v>0.120386866675709</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03406209809735959</v>
+        <v>0.07807242843523503</v>
       </c>
       <c r="J114" t="n">
-        <v>0.137435482605601</v>
+        <v>0.1384821656456149</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03677985373714696</v>
+        <v>0.07831550821921587</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2168761373113183</v>
+        <v>0.2206215960534652</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03393596580996625</v>
+        <v>0.07792616970870089</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2863273860833265</v>
+        <v>0.3035848267638585</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0348398047813543</v>
+        <v>0.07789993396001391</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1327490356878923</v>
+        <v>0.1315615506388383</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03475724295648938</v>
+        <v>0.07966574330126024</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1360658420883336</v>
+        <v>0.1373539435299064</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03753046299708873</v>
+        <v>0.07991378389715906</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2166456279806296</v>
+        <v>0.2194138410482556</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03462853654078189</v>
+        <v>0.07951649970275602</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2860928680663339</v>
+        <v>0.2987392308156984</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03555082120546357</v>
+        <v>0.07948972853062644</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1341112453075146</v>
+        <v>0.1286230365144156</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03545238781561917</v>
+        <v>0.08125905816728544</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1364319238425795</v>
+        <v>0.1371345052649679</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03828107225703051</v>
+        <v>0.08151205957510224</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2144996271620922</v>
+        <v>0.2174204709902436</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03532110727159752</v>
+        <v>0.08110682969681114</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2822216319657088</v>
+        <v>0.2966410423362543</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03626183762957284</v>
+        <v>0.08107952310123896</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1214774734404297</v>
+        <v>0.1195845225155364</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03614753267474896</v>
+        <v>0.08285237303331065</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1349437177355789</v>
+        <v>0.136002346958125</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03903168151697228</v>
+        <v>0.08311033525304543</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2115677417958485</v>
+        <v>0.2151710392939142</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03601367800241316</v>
+        <v>0.08269715969086626</v>
       </c>
       <c r="N117" t="n">
-        <v>0.284038244546241</v>
+        <v>0.2943307889763381</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03697285405368211</v>
+        <v>0.08266931767185148</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1278541723182901</v>
+        <v>0.1304640330354669</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03684267753387874</v>
+        <v>0.08444568789933585</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1344112136345721</v>
+        <v>0.1347762860812927</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03978229077691406</v>
+        <v>0.0847086109309886</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2114795788220412</v>
+        <v>0.2129950993737523</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03670624873322879</v>
+        <v>0.08428748968492138</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2847163382043421</v>
+        <v>0.2930489983867623</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03768387047779138</v>
+        <v>0.08425911224246403</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1322477941727485</v>
+        <v>0.1212795924674735</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03753782239300853</v>
+        <v>0.08603900276536106</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1330444014067996</v>
+        <v>0.132875140106386</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04053290003685583</v>
+        <v>0.08630688660893178</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2100647451808125</v>
+        <v>0.2119222046442428</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03739881946404443</v>
+        <v>0.08587781967897649</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2831656377263905</v>
+        <v>0.2914361982183388</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03839488690190065</v>
+        <v>0.08584890681307655</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1326647912354575</v>
+        <v>0.1230492252048226</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03823296725213832</v>
+        <v>0.08763231763138626</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1337532709195015</v>
+        <v>0.1323177265053199</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0412835092967976</v>
+        <v>0.08790516228687496</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2102528478123051</v>
+        <v>0.209981908519871</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03809139019486008</v>
+        <v>0.08746814967303163</v>
       </c>
       <c r="N120" t="n">
-        <v>0.2837764366323942</v>
+        <v>0.2886329161218797</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03910590332600992</v>
+        <v>0.08743870138368907</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1231116157380698</v>
+        <v>0.1267909556407806</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03892811211126811</v>
+        <v>0.08922563249741146</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1332478120399181</v>
+        <v>0.1313228627500092</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04203411855673939</v>
+        <v>0.08950343796481815</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2078734936566614</v>
+        <v>0.2083037644151217</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03878396092567571</v>
+        <v>0.08905847966708674</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2845390284423606</v>
+        <v>0.285179679748197</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0398169197501192</v>
+        <v>0.08902849595430161</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1265947199122381</v>
+        <v>0.1185228081686139</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0396232569703979</v>
+        <v>0.09081894736343667</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1329380146352899</v>
+        <v>0.1304093663123692</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04278472781668115</v>
+        <v>0.09110171364276132</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2086562896540238</v>
+        <v>0.2052173257444799</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03947653165649135</v>
+        <v>0.09064880966114186</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2876437066762974</v>
+        <v>0.2831170167481034</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04052793617422847</v>
+        <v>0.09061829052491413</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1271205559896151</v>
+        <v>0.1102628071815887</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04031840182952768</v>
+        <v>0.09241226222946188</v>
       </c>
       <c r="J123" t="n">
-        <v>0.132533868572857</v>
+        <v>0.1288960546643147</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04353533707662293</v>
+        <v>0.09269998932070452</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2071300829734535</v>
+        <v>0.2034521459224307</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04016910238730699</v>
+        <v>0.09223913965519698</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2878807648542124</v>
+        <v>0.2789854547724104</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04123895259833774</v>
+        <v>0.09220808509552667</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1266955762018534</v>
+        <v>0.1140289770729715</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04101354668865748</v>
+        <v>0.09400557709548708</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1318453637198598</v>
+        <v>0.1278017452777606</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04428594633656471</v>
+        <v>0.09429826499864769</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2074176677323967</v>
+        <v>0.2016377783634591</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04086167311812263</v>
+        <v>0.09382946964925211</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2865404964961134</v>
+        <v>0.2776255214719305</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04194996902244701</v>
+        <v>0.0937978796661392</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1263262327806057</v>
+        <v>0.1178393422360288</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04170869154778726</v>
+        <v>0.09559889196151228</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1329946035187811</v>
+        <v>0.126345255624622</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04503655559650648</v>
+        <v>0.09589654067659087</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2071465012802178</v>
+        <v>0.1983037764820501</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04155424384893826</v>
+        <v>0.09541979964330723</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2892131951220077</v>
+        <v>0.2727777444974757</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04266098544655628</v>
+        <v>0.09538767423675172</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1210189779575246</v>
+        <v>0.113697399537999</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04240383640691705</v>
+        <v>0.09719220682753749</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1324052693401142</v>
+        <v>0.1253454031768139</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04578716485644825</v>
+        <v>0.09749481635453405</v>
       </c>
       <c r="L126" t="n">
-        <v>0.209108297224176</v>
+        <v>0.1966119844656113</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0422468145797539</v>
+        <v>0.09701012963736233</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2918891542519035</v>
+        <v>0.271275731270997</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04337200187066555</v>
+        <v>0.09697746880736424</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1277802639642629</v>
+        <v>0.1114741098657242</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04309898126604684</v>
+        <v>0.09878552169356269</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1321645523033179</v>
+        <v>0.1241264863118681</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04653777411639003</v>
+        <v>0.09909309203247724</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2082947691715308</v>
+        <v>0.194254189328389</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04293938531056954</v>
+        <v>0.09860045963141746</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2932586674058081</v>
+        <v>0.2682413547051831</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04408301829477482</v>
+        <v>0.09856726337797679</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1216165430324731</v>
+        <v>0.1131554191631139</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04379412612517662</v>
+        <v>0.1003788365595879</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1334585396518357</v>
+        <v>0.1223971083629184</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0472883833763318</v>
+        <v>0.1006913677104204</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2106976307295417</v>
+        <v>0.1920505560232102</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04363195604138517</v>
+        <v>0.1001907896254726</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2921120281037292</v>
+        <v>0.2653095945294998</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04479403471888409</v>
+        <v>0.1001570579485893</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.121534267393808</v>
+        <v>0.1037671293544094</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04448927098430641</v>
+        <v>0.1019721514256131</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1344733186291113</v>
+        <v>0.1199839236132118</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04803899263627358</v>
+        <v>0.1022896433883636</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2096085955054678</v>
+        <v>0.1915433902715682</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04432452677220081</v>
+        <v>0.1017811196195277</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2948395298656746</v>
+        <v>0.2615384660879576</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04550505114299336</v>
+        <v>0.1017468525192018</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1195444180735453</v>
+        <v>0.1133350423638516</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04518441584343619</v>
+        <v>0.1035654662916383</v>
       </c>
       <c r="J130" t="n">
-        <v>0.134994976478588</v>
+        <v>0.1190138692793073</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04878960189621535</v>
+        <v>0.1038879190663068</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2106193771065685</v>
+        <v>0.1889749977949558</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04501709750301645</v>
+        <v>0.1033714496135828</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2971314662116519</v>
+        <v>0.2593859847245671</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04621606756710264</v>
+        <v>0.1033366470898144</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1246689322133439</v>
+        <v>0.1018849601156817</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04587956070256598</v>
+        <v>0.1051587811576635</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1348096004437094</v>
+        <v>0.1184138825777638</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04954021115615712</v>
+        <v>0.10548619474425</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2119216891401033</v>
+        <v>0.1853876843148661</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04570966823383209</v>
+        <v>0.1049617796076379</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2968781306616689</v>
+        <v>0.2550101657833378</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04692708399121191</v>
+        <v>0.1049264416604269</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.119902356937729</v>
+        <v>0.1094426845341406</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04657470556169577</v>
+        <v>0.1067520960236887</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1359032777679192</v>
+        <v>0.1167109007251401</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05029082041609891</v>
+        <v>0.1070844704221931</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2143072452133314</v>
+        <v>0.1829237555527921</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04640223896464773</v>
+        <v>0.1065521096016931</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3004698167357331</v>
+        <v>0.2504690246082806</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04763810041532118</v>
+        <v>0.1065162362310394</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1222359240802604</v>
+        <v>0.1040340175434696</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04726985042082556</v>
+        <v>0.1083454108897139</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1368620956946607</v>
+        <v>0.114731860937995</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05104142967604067</v>
+        <v>0.1086827461001363</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2141677589335124</v>
+        <v>0.1805255172302269</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04709480969546337</v>
+        <v>0.1081424395957482</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3011968179538522</v>
+        <v>0.2475205765434051</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04834911683943045</v>
+        <v>0.1081060308016519</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1236608654744975</v>
+        <v>0.1096847610679097</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04796499527995535</v>
+        <v>0.1099387257557391</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1382721414673776</v>
+        <v>0.1138037004328877</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05179203893598245</v>
+        <v>0.1102810217780795</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2163949439079054</v>
+        <v>0.1800352750686632</v>
       </c>
       <c r="M134" t="n">
-        <v>0.047787380426279</v>
+        <v>0.1097327695898033</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3021494278360342</v>
+        <v>0.2463228369327218</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04906013326353972</v>
+        <v>0.1096958253722645</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.127168412954</v>
+        <v>0.100420717031702</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04866014013908514</v>
+        <v>0.1115320406217643</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1390195023295133</v>
+        <v>0.1113533564263769</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05254264819592423</v>
+        <v>0.1118792974560227</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2159805137437699</v>
+        <v>0.1772953347895942</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04847995115709464</v>
+        <v>0.1113230995838584</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3044179399022864</v>
+        <v>0.2444338211202409</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04977114968764899</v>
+        <v>0.111285619942877</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1217497983523274</v>
+        <v>0.09926768735908748</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04935528499821493</v>
+        <v>0.1131253554877895</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1398902655245115</v>
+        <v>0.1102077661350214</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05329325745586599</v>
+        <v>0.1134775731339659</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2185161820483651</v>
+        <v>0.176048002114513</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04917252188791028</v>
+        <v>0.1129134295779135</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3053926476726166</v>
+        <v>0.2412115444499726</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05048216611175826</v>
+        <v>0.1128754145134895</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1203962535030392</v>
+        <v>0.09625147397430733</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05005042985734471</v>
+        <v>0.1147186703538147</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1418705182958157</v>
+        <v>0.1097938667753803</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05404386671580777</v>
+        <v>0.1150758488119091</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2181936624289507</v>
+        <v>0.1748355827649125</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04986509261872592</v>
+        <v>0.1145037595719687</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3100638446670326</v>
+        <v>0.238414022265927</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05119318253586753</v>
+        <v>0.1144652090841021</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1290990102396951</v>
+        <v>0.09239787880160266</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0507455747164745</v>
+        <v>0.1163119852198399</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1429463478868694</v>
+        <v>0.1084385955640123</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05479447597574955</v>
+        <v>0.1166741244898522</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2196046684927856</v>
+        <v>0.1712003824622856</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05055766334954155</v>
+        <v>0.1160940895660238</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3100218244055419</v>
+        <v>0.2367992699121144</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0519041989599768</v>
+        <v>0.1160550036547146</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1258493003958545</v>
+        <v>0.0907327037652145</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05144071957560428</v>
+        <v>0.1179053000858651</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1436038415411161</v>
+        <v>0.1074688897174765</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05554508523569133</v>
+        <v>0.1182724001677954</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2222409138471296</v>
+        <v>0.1701847069281255</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05125023408035719</v>
+        <v>0.1176844195600789</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3123568804081522</v>
+        <v>0.2345253027325451</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05261521538408607</v>
+        <v>0.1176447982253271</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1226383558050771</v>
+        <v>0.09828175078938395</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05213586443473408</v>
+        <v>0.1194986149518904</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1450290865019992</v>
+        <v>0.1065116864523317</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0562956944956331</v>
+        <v>0.1198706758457386</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2229941120992419</v>
+        <v>0.1703308618839251</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05194280481117283</v>
+        <v>0.119274749554134</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3153593061948713</v>
+        <v>0.233350136071229</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05332623180819535</v>
+        <v>0.1192345927959396</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1264574083009224</v>
+        <v>0.09507082179835208</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05283100929386387</v>
+        <v>0.1210919298179156</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1454081700129626</v>
+        <v>0.1074939229851366</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05704630375557487</v>
+        <v>0.1214689515236818</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2233559768563816</v>
+        <v>0.1697811530511774</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05263537554198847</v>
+        <v>0.1208650795481891</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3167193952857069</v>
+        <v>0.2350317852721766</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05403724823230462</v>
+        <v>0.1208243873665522</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.13429768971695</v>
+        <v>0.09506773047058723</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05352615415299365</v>
+        <v>0.1226852446839408</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1461271793174496</v>
+        <v>0.1062303899517763</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05779691301551665</v>
+        <v>0.123067227201625</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2261182217258084</v>
+        <v>0.1705075426469464</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0533279462728041</v>
+        <v>0.1224554095422443</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3184274412006665</v>
+        <v>0.233772808631156</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05474826465641389</v>
+        <v>0.1224141819371647</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1381504318867193</v>
+        <v>0.09011398559377579</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05422129901212344</v>
+        <v>0.124278559549966</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1472722016589038</v>
+        <v>0.1072634643623057</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05854752227545842</v>
+        <v>0.1246655028795681</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2282725603147816</v>
+        <v>0.1707976909580958</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05402051700361974</v>
+        <v>0.1240457395362994</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3173737374597578</v>
+        <v>0.2327999435879902</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05545928108052316</v>
+        <v>0.1240039765077773</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1360068666437901</v>
+        <v>0.09319693807193422</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05491644387125322</v>
+        <v>0.1258718744159912</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1489293242807686</v>
+        <v>0.1071354752792792</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0592981315354002</v>
+        <v>0.1262637785575113</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2283107062305605</v>
+        <v>0.1705474164701573</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05471308773443537</v>
+        <v>0.1256360695303545</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3207485775829887</v>
+        <v>0.2334086326792241</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05617029750463243</v>
+        <v>0.1255937710783898</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1388582258217218</v>
+        <v>0.09931469198906809</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05561158873038301</v>
+        <v>0.1274651892820164</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1486846344264877</v>
+        <v>0.1063444433658364</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06004874079534197</v>
+        <v>0.1278620542354545</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2288243730804045</v>
+        <v>0.170653610574126</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05540565846525102</v>
+        <v>0.1272263995244096</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3222422550903667</v>
+        <v>0.2351946129585128</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0568813139287417</v>
+        <v>0.1271835656490023</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1406957412540741</v>
+        <v>0.1024653514291829</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0563067335895128</v>
+        <v>0.1290585041480416</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1489242193395046</v>
+        <v>0.1069883892851169</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06079935005528374</v>
+        <v>0.1294603299133977</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2315052744715728</v>
+        <v>0.1708131646609974</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05609822919606666</v>
+        <v>0.1288167295184647</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3218450635018996</v>
+        <v>0.2358536214795119</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05759233035285097</v>
+        <v>0.1287733602196148</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1275106447744064</v>
+        <v>0.09164702047628442</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05700187844864259</v>
+        <v>0.1306518190140668</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1505291637360758</v>
+        <v>0.1075653337002605</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06154995931522552</v>
+        <v>0.1310586055913409</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2319451240113249</v>
+        <v>0.1723229701217666</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05679079992688229</v>
+        <v>0.1304070595125199</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3235472963375948</v>
+        <v>0.2347813952958765</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05830334677696024</v>
+        <v>0.1303631547902274</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1332941682162784</v>
+        <v>0.1048578032143781</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05769702330777237</v>
+        <v>0.132245133880092</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1495211966245861</v>
+        <v>0.1076732972744065</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0623005685751673</v>
+        <v>0.132656881269284</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2323356353069203</v>
+        <v>0.1709799183474291</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05748337065769794</v>
+        <v>0.131997389506575</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3248392471174604</v>
+        <v>0.2370736714612619</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05901436320106952</v>
+        <v>0.1319529493608399</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1340375434132496</v>
+        <v>0.1030958037274695</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05839216816690216</v>
+        <v>0.1338384487461172</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1500001302251296</v>
+        <v>0.1085103006706949</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06305117783510908</v>
+        <v>0.1342551569472272</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2349685219656181</v>
+        <v>0.1714809007289803</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05817594138851357</v>
+        <v>0.1335877195006301</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3274112093615038</v>
+        <v>0.2374261870293232</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05972537962517879</v>
+        <v>0.1335427439314524</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1317320021988795</v>
+        <v>0.1013591260995642</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05908731302603196</v>
+        <v>0.1354317636121424</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1514752010786505</v>
+        <v>0.108674364552265</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06380178709505084</v>
+        <v>0.1358534326251704</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2348354975946778</v>
+        <v>0.1719228086574153</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0588685121193292</v>
+        <v>0.1351780494946852</v>
       </c>
       <c r="N150" t="n">
-        <v>0.3282534765897327</v>
+        <v>0.2381346790537159</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06043639604928806</v>
+        <v>0.1351325385020649</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1323687764067278</v>
+        <v>0.0916458744146679</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05978245788516174</v>
+        <v>0.1370250784781676</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1506446944783261</v>
+        <v>0.1091635095822566</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06455239635499262</v>
+        <v>0.1374517083031136</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2355282758013587</v>
+        <v>0.1727025335237296</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05956108285014485</v>
+        <v>0.1367683794887403</v>
       </c>
       <c r="N151" t="n">
-        <v>0.329414601936059</v>
+        <v>0.236294884588095</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06114741247339733</v>
+        <v>0.1367223330726774</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1329390978703539</v>
+        <v>0.09495415275678606</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06047760274429153</v>
+        <v>0.1386183933441928</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1522068957173333</v>
+        <v>0.1089757564238093</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06530300561493439</v>
+        <v>0.1390499839810568</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2364385701929201</v>
+        <v>0.1730169667189182</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06025365358096049</v>
+        <v>0.1383587094827955</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3297518702642112</v>
+        <v>0.2370025406861161</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0618584288975066</v>
+        <v>0.13831212764329</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1455359462175576</v>
+        <v>0.09228206520992432</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06117274760342131</v>
+        <v>0.140211708210218</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1523600900888497</v>
+        <v>0.1087091257400627</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06605361487487617</v>
+        <v>0.140648259659</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2372580943766216</v>
+        <v>0.1750629996339768</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06094622431177612</v>
+        <v>0.1399490394768506</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3288401610645941</v>
+        <v>0.2384533844014343</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06256944532161586</v>
+        <v>0.1399019222139025</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1448744143245906</v>
+        <v>0.09664915831375837</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0618678924625511</v>
+        <v>0.1418050230762432</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1520025628860521</v>
+        <v>0.1086616649404704</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06680422413481794</v>
+        <v>0.1422465353369431</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2399718828360674</v>
+        <v>0.1738249114526431</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06163879504259176</v>
+        <v>0.1415393694709057</v>
       </c>
       <c r="N154" t="n">
-        <v>0.329525339112844</v>
+        <v>0.2407791725890451</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06328046174572514</v>
+        <v>0.1414917167845151</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1353205406146071</v>
+        <v>0.1072850735116708</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06256303732168089</v>
+        <v>0.1433983379422684</v>
       </c>
       <c r="J155" t="n">
-        <v>0.152932599402118</v>
+        <v>0.1092065483187768</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06755483339475972</v>
+        <v>0.1438448110148863</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2399206509092354</v>
+        <v>0.1768758843735564</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06233136577340739</v>
+        <v>0.1431296994649608</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3302065121209631</v>
+        <v>0.24158372607652</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06399147816983441</v>
+        <v>0.1430815113551276</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1327727746250425</v>
+        <v>0.09920739356592692</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06325818218081067</v>
+        <v>0.1449916528082936</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1529484849302242</v>
+        <v>0.1111697254688814</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0683054426547015</v>
+        <v>0.1454430866928295</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2402638910061687</v>
+        <v>0.1786781397697039</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06302393650422303</v>
+        <v>0.144720029459016</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3315827878009538</v>
+        <v>0.2423026236118997</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06470249459394369</v>
+        <v>0.1446713059257401</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1462288110335419</v>
+        <v>0.0993588853486117</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06395332703994047</v>
+        <v>0.1465849676743188</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1526485047635482</v>
+        <v>0.1126914449882693</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06905605191464327</v>
+        <v>0.1470413623707727</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2402171633894859</v>
+        <v>0.179337836238129</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06371650723503867</v>
+        <v>0.1463103594530711</v>
       </c>
       <c r="N157" t="n">
-        <v>0.331853273864819</v>
+        <v>0.2478071771340246</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06541351101805296</v>
+        <v>0.1462611004963526</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1436863445177508</v>
+        <v>0.1026823157318101</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06464847189907026</v>
+        <v>0.148178282540344</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1536309441952671</v>
+        <v>0.1131119554744254</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06980666117458505</v>
+        <v>0.1486396380487159</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2419773497835869</v>
+        <v>0.1809611323758762</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06440907796585431</v>
+        <v>0.1479006894471262</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3327170780245607</v>
+        <v>0.2511686985817347</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06612452744216223</v>
+        <v>0.1478508950669652</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1431430697553144</v>
+        <v>0.1121204515876069</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06534361675820004</v>
+        <v>0.1497715974063692</v>
       </c>
       <c r="J159" t="n">
-        <v>0.154194088518558</v>
+        <v>0.1154715055248347</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07055727043452681</v>
+        <v>0.150237913726659</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2437413319128713</v>
+        <v>0.1853541867799892</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06510164869666994</v>
+        <v>0.1494910194411813</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3325733079921815</v>
+        <v>0.254558499893871</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0668355438662715</v>
+        <v>0.1494406896375777</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.143596681423878</v>
+        <v>0.1006160597880872</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06603876161732983</v>
+        <v>0.1513649122723945</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1539362230265982</v>
+        <v>0.1155103437369821</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07130787969446858</v>
+        <v>0.1518361894046022</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2439059915017393</v>
+        <v>0.186023158047512</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06579421942748559</v>
+        <v>0.1510813494352364</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3322210714796838</v>
+        <v>0.2578478930092735</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06754656029038077</v>
+        <v>0.1510304842081902</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1420448742010871</v>
+        <v>0.1051119072053359</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06673390647645962</v>
+        <v>0.1529582271384196</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1539556330125647</v>
+        <v>0.1174687187083529</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07205848895441036</v>
+        <v>0.1534344650825454</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2444682102745904</v>
+        <v>0.1890742047754887</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06648679015830122</v>
+        <v>0.1526716794292916</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3333594761990701</v>
+        <v>0.2582081898667827</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06825757671449005</v>
+        <v>0.1526202787788027</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1394853427645868</v>
+        <v>0.115550760711438</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06742905133558941</v>
+        <v>0.1545515420044448</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1539506037696349</v>
+        <v>0.1187868790364317</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07280909821435215</v>
+        <v>0.1550327407604886</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2463248699558245</v>
+        <v>0.1922134855609632</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06717936088911686</v>
+        <v>0.1542620094233467</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3325876298623429</v>
+        <v>0.2618107024052391</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06896859313859931</v>
+        <v>0.1542100733494153</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1469157817920227</v>
+        <v>0.1158753871784784</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06812419619471918</v>
+        <v>0.1561448568704701</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1549194205909859</v>
+        <v>0.1212050733187037</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07355970747429393</v>
+        <v>0.1566310164384317</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2454728522698414</v>
+        <v>0.1924471590009796</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0678719316199325</v>
+        <v>0.1558523394174018</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3346046401815046</v>
+        <v>0.2659267425634829</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06967960956270859</v>
+        <v>0.1557998679200278</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1363338859610399</v>
+        <v>0.1130291506282752</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06881934105384897</v>
+        <v>0.1577381717364953</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1555603687697948</v>
+        <v>0.1213635501526539</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07431031673423569</v>
+        <v>0.158229292116375</v>
       </c>
       <c r="L164" t="n">
-        <v>0.247109038941041</v>
+        <v>0.1954930766291876</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06856450235074814</v>
+        <v>0.1574426694114569</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3349096148685574</v>
+        <v>0.2672480703919503</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07039062598681785</v>
+        <v>0.1573896624906403</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1437373499492838</v>
+        <v>0.1100796385383803</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06951448591297876</v>
+        <v>0.1593314866025205</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1546717335992389</v>
+        <v>0.1225674535565742</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07506092599417746</v>
+        <v>0.1598275677943181</v>
       </c>
       <c r="L165" t="n">
-        <v>0.248330311693823</v>
+        <v>0.1982139345026284</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06925707308156377</v>
+        <v>0.159032999405512</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3339016616355044</v>
+        <v>0.2699075724516177</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07110164241092713</v>
+        <v>0.1589794570612529</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1421238684343998</v>
+        <v>0.1151046917518124</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07020963077210855</v>
+        <v>0.1609248014685457</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1555518003724953</v>
+        <v>0.1246388698249943</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07581153525411924</v>
+        <v>0.1614258434722613</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2479335522525872</v>
+        <v>0.1999935636500114</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06994964381237941</v>
+        <v>0.1606233293995671</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3342798881943473</v>
+        <v>0.2729106531624996</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0718126588350364</v>
+        <v>0.1605692516318654</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1424911360940331</v>
+        <v>0.1211061258756482</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07090477563123834</v>
+        <v>0.1625181163345709</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1552988543827412</v>
+        <v>0.1255851277259047</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07656214451406101</v>
+        <v>0.1630241191502045</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2483156423417337</v>
+        <v>0.1997349410030808</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07064221454319504</v>
+        <v>0.1622136593936223</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3354434022570889</v>
+        <v>0.2758613948972194</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07252367525914567</v>
+        <v>0.1621590462024779</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1518368476058292</v>
+        <v>0.1190857565169644</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07159992049036813</v>
+        <v>0.1641114312005961</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1552111758454946</v>
+        <v>0.1267081227536322</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07731275377400278</v>
+        <v>0.1646223948281477</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2493734636856619</v>
+        <v>0.2024410434935807</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07133478527401067</v>
+        <v>0.1638039893876774</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3368913115357318</v>
+        <v>0.2785638800284003</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07323469168325494</v>
+        <v>0.1637488407730905</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1511586976474332</v>
+        <v>0.119045399282838</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07229506534949792</v>
+        <v>0.1657047460666213</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1549874404580079</v>
+        <v>0.1277097504025032</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07806336303394457</v>
+        <v>0.1662206705060909</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2491038980087719</v>
+        <v>0.2045148480532553</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07202735600482632</v>
+        <v>0.1653943193817325</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3378227237422781</v>
+        <v>0.2805221909286653</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07394570810736421</v>
+        <v>0.165338635343703</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1484543808964906</v>
+        <v>0.1169868697803457</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0729902102086277</v>
+        <v>0.1672980609326465</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1549283937527658</v>
+        <v>0.1287919061668442</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07881397229388634</v>
+        <v>0.167818946184034</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2503038270354634</v>
+        <v>0.2052593316138485</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07271992673564195</v>
+        <v>0.1669846493757876</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3389367465887304</v>
+        <v>0.283040409970638</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07465672453147348</v>
+        <v>0.1669284299143155</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1407215920306467</v>
+        <v>0.1189119836165643</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07368535506775749</v>
+        <v>0.1688913757986717</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1542352867791311</v>
+        <v>0.1288564855409819</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07956458155382812</v>
+        <v>0.1694172218619772</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2508701324901362</v>
+        <v>0.2073774711071045</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07341249746645759</v>
+        <v>0.1685749793698428</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3379324877870913</v>
+        <v>0.2834226195269411</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07536774095558275</v>
+        <v>0.1685182244849281</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1419580257275468</v>
+        <v>0.1188225563985706</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07438049992688728</v>
+        <v>0.1704846906646969</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1551093705864662</v>
+        <v>0.1299053840192428</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08031519081376989</v>
+        <v>0.1710154975399204</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2521996960971904</v>
+        <v>0.2079722434647672</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07410506819727324</v>
+        <v>0.1701653093638979</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3392090550493628</v>
+        <v>0.2851729019701982</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07607875737969202</v>
+        <v>0.1701080190555406</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1391613766648363</v>
+        <v>0.1137204037334414</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07507564478601707</v>
+        <v>0.1720780055307221</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1548518962241339</v>
+        <v>0.1315404970959536</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08106580007371166</v>
+        <v>0.1726137732178636</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2522893995810254</v>
+        <v>0.2091466256185809</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07479763892808887</v>
+        <v>0.171755639357953</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3403655560875479</v>
+        <v>0.2866953396730323</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0767897738038013</v>
+        <v>0.1716978136261531</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1393293395201604</v>
+        <v>0.1276073412282536</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07577078964514686</v>
+        <v>0.1736713203967473</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1543641147414966</v>
+        <v>0.1313637202654406</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08181640933365343</v>
+        <v>0.1742120488958067</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2534361246660412</v>
+        <v>0.2113035945002896</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0754902096589045</v>
+        <v>0.1733459693520081</v>
       </c>
       <c r="N174" t="n">
-        <v>0.338601098613649</v>
+        <v>0.2887940150080667</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07750079022791057</v>
+        <v>0.1732876081967656</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1454596089711645</v>
+        <v>0.1184851844900838</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07646593450427665</v>
+        <v>0.1752646352627725</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1538472771879171</v>
+        <v>0.1335769490220307</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08256701859359521</v>
+        <v>0.1758103245737499</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2522367530766376</v>
+        <v>0.2115461270416375</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07618278038972015</v>
+        <v>0.1749362993460633</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3393147903396679</v>
+        <v>0.2932730103479247</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07821180665201984</v>
+        <v>0.1748774027673781</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1455498796954939</v>
+        <v>0.1203655338288232</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07716107936340644</v>
+        <v>0.1768579501287977</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1546026346127579</v>
+        <v>0.1332842426286044</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08331762785353698</v>
+        <v>0.1774086002516931</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2542881665372145</v>
+        <v>0.2143050201550474</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07687535112053578</v>
+        <v>0.1765266293401184</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3385057389776077</v>
+        <v>0.2950778834648569</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07892282307612911</v>
+        <v>0.1764671973379907</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.141597846370794</v>
+        <v>0.1312961555317511</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07785622422253621</v>
+        <v>0.1784512649948229</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1540314380653816</v>
+        <v>0.1347356602850603</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08406823711347877</v>
+        <v>0.1790068759296363</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2541872467721717</v>
+        <v>0.216048282932749</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07756792185135142</v>
+        <v>0.1781169593341735</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3411730522394709</v>
+        <v>0.2967983080382394</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07963383950023839</v>
+        <v>0.1780569919086032</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1466018683785316</v>
+        <v>0.1322568938747891</v>
       </c>
       <c r="G178" t="n">
-        <v>0.078551369081666</v>
+        <v>0.1800445798608481</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1530349385951509</v>
+        <v>0.1359272148144334</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08481884637342053</v>
+        <v>0.1806051516075795</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2538308755059088</v>
+        <v>0.2165326683103668</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07826049258216707</v>
+        <v>0.1797072893282286</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3392158378372592</v>
+        <v>0.2971730897041305</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08034485592434765</v>
+        <v>0.1796467864792157</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1485663735174604</v>
+        <v>0.1232165599305954</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07924651394079579</v>
+        <v>0.1816378947268733</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1528143872514283</v>
+        <v>0.1374263449673301</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08556945563336231</v>
+        <v>0.1822034272855226</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2552159344628259</v>
+        <v>0.2199070378510361</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0789530633129827</v>
+        <v>0.1812976193222837</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3406332034829759</v>
+        <v>0.3011321005010593</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08105587234845693</v>
+        <v>0.1812365810498283</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1444937580572061</v>
+        <v>0.1311439647718282</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07994165879992558</v>
+        <v>0.1832312095928985</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1527710350835763</v>
+        <v>0.137400489494357</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08632006489330409</v>
+        <v>0.1838017029634658</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2535393053673227</v>
+        <v>0.2196202531178923</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07964563404379835</v>
+        <v>0.1828879493163388</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3399242568886229</v>
+        <v>0.3016052124675559</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08176688877256619</v>
+        <v>0.1828263756204408</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1493854016481092</v>
+        <v>0.1240079194711456</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08063680365905536</v>
+        <v>0.1848245244589238</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1531061331409578</v>
+        <v>0.1391170871461204</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08707067415324586</v>
+        <v>0.185399978641409</v>
       </c>
       <c r="L181" t="n">
-        <v>0.254497869943799</v>
+        <v>0.2225211756740709</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08033820477461398</v>
+        <v>0.184478279310394</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3423881057662028</v>
+        <v>0.3056222976421492</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08247790519667547</v>
+        <v>0.1844161701910533</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.14824268394051</v>
+        <v>0.123777235101206</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08133194851818516</v>
+        <v>0.1864178393249489</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1525209324729352</v>
+        <v>0.1396435766732269</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08782128341318762</v>
+        <v>0.1869982543193522</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2549826456301473</v>
+        <v>0.222758667082707</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08103077550542961</v>
+        <v>0.1860686093044491</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3393238578277183</v>
+        <v>0.3071132280633688</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08318892162078473</v>
+        <v>0.1860059647616659</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1460669845847489</v>
+        <v>0.1234207227346674</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08202709337731495</v>
+        <v>0.1880111541909742</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1510166841288712</v>
+        <v>0.140547396826283</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08857189267312941</v>
+        <v>0.1885965299972954</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2535723239396909</v>
+        <v>0.2237815889069362</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08172334623624526</v>
+        <v>0.1876589392985042</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3414306207851715</v>
+        <v>0.3060078757697441</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08389993804489401</v>
+        <v>0.1875957593322784</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1488596832311663</v>
+        <v>0.131907193444188</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08272223823644473</v>
+        <v>0.1896044690569993</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1509946391581283</v>
+        <v>0.1400959863558953</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08932250193307119</v>
+        <v>0.1901948056752386</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2546689161374737</v>
+        <v>0.2244388027098939</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0824159169670609</v>
+        <v>0.1892492692925593</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3406075023505649</v>
+        <v>0.3098361127998044</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08461095446900328</v>
+        <v>0.1891855539028909</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1426221595301025</v>
+        <v>0.1262638358496802</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08341738309557452</v>
+        <v>0.1911977839230246</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1514560486100692</v>
+        <v>0.1411844441889188</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09007311119301296</v>
+        <v>0.1917930813531817</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2547765634716805</v>
+        <v>0.2245169569826108</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08310848769787653</v>
+        <v>0.1908395992866145</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3422536102359012</v>
+        <v>0.3095283097718757</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08532197089311255</v>
+        <v>0.1907753484735034</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1443557931318978</v>
+        <v>0.1366082800565211</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08411252795470431</v>
+        <v>0.1927910987890498</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1497021635340565</v>
+        <v>0.1408436924640742</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09082372045295474</v>
+        <v>0.1933913570311249</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2521994071904966</v>
+        <v>0.2253820443656686</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08380105842869216</v>
+        <v>0.1924299292806696</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3414677878565496</v>
+        <v>0.310803313331839</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08603298731722182</v>
+        <v>0.192365143044116</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1450619636868927</v>
+        <v>0.1289452498563202</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0848076728138341</v>
+        <v>0.194384413655075</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1499342349794527</v>
+        <v>0.1420951906871557</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0915743297128965</v>
+        <v>0.1949896327090681</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2527415885421072</v>
+        <v>0.2265348259008732</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0844936291595078</v>
+        <v>0.1940202592747247</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3423440892443941</v>
+        <v>0.3103614289808835</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08674400374133109</v>
+        <v>0.1939549376147285</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1387420508454275</v>
+        <v>0.1372746304696043</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08550281767296387</v>
+        <v>0.1959777285211002</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1493535139956205</v>
+        <v>0.1414388190283595</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09232493897283828</v>
+        <v>0.1965879083870113</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2517072487746973</v>
+        <v>0.2257751133918569</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08518619989032343</v>
+        <v>0.1956105892687798</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3403060079864396</v>
+        <v>0.3102023986386216</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08745502016544036</v>
+        <v>0.195544732185341</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1413974342578426</v>
+        <v>0.1335963071169005</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08619796253209368</v>
+        <v>0.1975710433871254</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1490612516319225</v>
+        <v>0.1425744576578818</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09307554823278005</v>
+        <v>0.1981861840649545</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2520005291364522</v>
+        <v>0.2283027186422521</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08587877062113908</v>
+        <v>0.1972009192628349</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3404674645159155</v>
+        <v>0.3109259642246657</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08816603658954963</v>
+        <v>0.1971345267559536</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1460294935744783</v>
+        <v>0.1309101650187358</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08689310739122347</v>
+        <v>0.1991643582531506</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1485586989377213</v>
+        <v>0.1422019867459187</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09382615749272183</v>
+        <v>0.1997844597428976</v>
       </c>
       <c r="L190" t="n">
-        <v>0.252225570875557</v>
+        <v>0.2274174534556914</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08657134135195471</v>
+        <v>0.19879124925689</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3386423792660508</v>
+        <v>0.3135318676586276</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0888770530136589</v>
+        <v>0.1987243213265661</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.150639608445675</v>
+        <v>0.1342160893956371</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08758825225035324</v>
+        <v>0.2007576731191758</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1480471069623795</v>
+        <v>0.1429212864626663</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0945767667526636</v>
+        <v>0.2013827354208408</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2511865152401969</v>
+        <v>0.2281191296358071</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08726391208277035</v>
+        <v>0.2003815792509452</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3386446726700746</v>
+        <v>0.31351985086012</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08958806943776818</v>
+        <v>0.2003141158971786</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1472291585217731</v>
+        <v>0.1305139654681314</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08828339710948303</v>
+        <v>0.202350987985201</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1476277267552597</v>
+        <v>0.1434322369783207</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09532737601260538</v>
+        <v>0.202981011098784</v>
       </c>
       <c r="L192" t="n">
-        <v>0.250687503478557</v>
+        <v>0.2285075589862317</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08795648281358599</v>
+        <v>0.2019719092450003</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3375882651612161</v>
+        <v>0.3130896557487551</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09029908586187745</v>
+        <v>0.2019039104677912</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.147799523453113</v>
+        <v>0.1358036784567458</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08897854196861282</v>
+        <v>0.2039443028512262</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1470018093657245</v>
+        <v>0.1442347184630783</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09607798527254716</v>
+        <v>0.2045792867767272</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2489326768388224</v>
+        <v>0.2298825533105976</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08864905354440163</v>
+        <v>0.2035622392390554</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3372870771727043</v>
+        <v>0.3160410242441452</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09101010228598672</v>
+        <v>0.2034937050384037</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1433520828900349</v>
+        <v>0.1290851135820072</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08967368682774261</v>
+        <v>0.2055376177172514</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1465706058431365</v>
+        <v>0.1435286110871349</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09682859453248893</v>
+        <v>0.2061775624546704</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2467261765691784</v>
+        <v>0.2309439244125373</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08934162427521726</v>
+        <v>0.2051525692331105</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3363550291377687</v>
+        <v>0.3164736982659023</v>
       </c>
       <c r="O194" t="n">
-        <v>0.091721118710096</v>
+        <v>0.2050834996090162</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1488882164828793</v>
+        <v>0.1403581560644425</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09036883168687239</v>
+        <v>0.2071309325832766</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1460353672368583</v>
+        <v>0.1438137950206869</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09757920379243071</v>
+        <v>0.2077758381326136</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2467721439178101</v>
+        <v>0.2303914840956832</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09003419500603291</v>
+        <v>0.2067428992271656</v>
       </c>
       <c r="N195" t="n">
-        <v>0.332406041489638</v>
+        <v>0.3173874197336392</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09243213513420527</v>
+        <v>0.2066732941796287</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1404093038819865</v>
+        <v>0.1296226911245789</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09106397654600218</v>
+        <v>0.2087242474493018</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1459973445962526</v>
+        <v>0.1453901504339303</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09832981305237247</v>
+        <v>0.2093741138105567</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2461747201329025</v>
+        <v>0.2302250441636676</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09072676573684854</v>
+        <v>0.2083332292212208</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3305540346615418</v>
+        <v>0.3157819305669676</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09314315155831454</v>
+        <v>0.2082630887502412</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1399167247376969</v>
+        <v>0.1408786039829433</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09175912140513197</v>
+        <v>0.210317562315327</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1446577889706818</v>
+        <v>0.1441575574970613</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09908042231231425</v>
+        <v>0.2109723894884999</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2448380464626411</v>
+        <v>0.2319444164201231</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09141933646766418</v>
+        <v>0.2099235592152759</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3290129290867089</v>
+        <v>0.3166569726855004</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09385416798242381</v>
+        <v>0.2098528833208538</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1434118587003509</v>
+        <v>0.1301257798600626</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09245426626426176</v>
+        <v>0.2119108771813522</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1437179514095087</v>
+        <v>0.1456158963802761</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09983103157225603</v>
+        <v>0.2125706651664431</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2432662641552107</v>
+        <v>0.2306494126686822</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09211190719847982</v>
+        <v>0.211513889209331</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3277966451983687</v>
+        <v>0.3171122880088494</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09456518440653308</v>
+        <v>0.2114426778914663</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1398960854202888</v>
+        <v>0.1413641039764639</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09314941112339155</v>
+        <v>0.2135041920473774</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1430790829620959</v>
+        <v>0.1448650472537706</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1005816408321978</v>
+        <v>0.2141689408443863</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2427635144587967</v>
+        <v>0.2309398447129771</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09280447792929546</v>
+        <v>0.2131042192033862</v>
       </c>
       <c r="N199" t="n">
-        <v>0.32581910342975</v>
+        <v>0.3182476184566269</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09527620083064235</v>
+        <v>0.2130324724620788</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.141370784547851</v>
+        <v>0.1335934615526741</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09384455598252134</v>
+        <v>0.2150975069134026</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1429424346778058</v>
+        <v>0.1456048902877412</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1013322500921396</v>
+        <v>0.2157672165223294</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2410339386215841</v>
+        <v>0.2315155243566404</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09349704866011109</v>
+        <v>0.2146945491974412</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3263942242140822</v>
+        <v>0.3202627059484456</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09598721725475162</v>
+        <v>0.2146222670326914</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1348373357333779</v>
+        <v>0.1298137378092202</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09453970084165113</v>
+        <v>0.2166908217794278</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1418092576060013</v>
+        <v>0.145135305652384</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1020828593520813</v>
+        <v>0.2173654922002727</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2395816778917581</v>
+        <v>0.2319762634033046</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09418961939092674</v>
+        <v>0.2162848791914964</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3241359279845943</v>
+        <v>0.3178572924039172</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09669823367886089</v>
+        <v>0.2162120616033039</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1432971186272098</v>
+        <v>0.1380248179666294</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0952348457007809</v>
+        <v>0.2182841366454531</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1418808027960447</v>
+        <v>0.145556173517895</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1028334686120231</v>
+        <v>0.2189637678782158</v>
       </c>
       <c r="L202" t="n">
-        <v>0.240210873517504</v>
+        <v>0.233021873656602</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09488219012174237</v>
+        <v>0.2178752091855515</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3216581351745157</v>
+        <v>0.3201311197426544</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09740925010297016</v>
+        <v>0.2178018561739164</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.137751512879687</v>
+        <v>0.1312265872454283</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09592999055991069</v>
+        <v>0.2198774515114783</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1420583212972988</v>
+        <v>0.1464673740544704</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1035840778719649</v>
+        <v>0.220562043556159</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2385256667470067</v>
+        <v>0.2326521669201651</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09557476085255801</v>
+        <v>0.2194655391796066</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3206747662170752</v>
+        <v>0.3207839298842694</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09812026652707943</v>
+        <v>0.219391650744529</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.14420189814115</v>
+        <v>0.1374189308661443</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09662513541904048</v>
+        <v>0.2214707663775035</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1417430641591262</v>
+        <v>0.1470687874323064</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1043346871319067</v>
+        <v>0.2221603192341022</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2358301988284515</v>
+        <v>0.2344669549976263</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09626733158337364</v>
+        <v>0.2210558691736617</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3190997415455021</v>
+        <v>0.3212154647483744</v>
       </c>
       <c r="O204" t="n">
-        <v>0.0988312829511887</v>
+        <v>0.2209814453151415</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1346496540619391</v>
+        <v>0.1306017340493041</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09732028027817027</v>
+        <v>0.2230640812435286</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1409362824308895</v>
+        <v>0.1474602938215991</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1050852963918485</v>
+        <v>0.2237585949120454</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2367286110100236</v>
+        <v>0.2341660496926181</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09695990231418927</v>
+        <v>0.2226461991677169</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3144469815930256</v>
+        <v>0.3224254662545818</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09954229937529797</v>
+        <v>0.222571239885754</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1320961602923947</v>
+        <v>0.1287748820154348</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09801542513730006</v>
+        <v>0.2246573961095538</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1403392271619512</v>
+        <v>0.1475417733925447</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1058359056517902</v>
+        <v>0.2253568705899885</v>
       </c>
       <c r="L206" t="n">
-        <v>0.233425044539908</v>
+        <v>0.2339492628087729</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09765247304500491</v>
+        <v>0.224236529161772</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3136304067928748</v>
+        <v>0.3210136763225037</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1002533157994073</v>
+        <v>0.2241610344563665</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1335427964828572</v>
+        <v>0.1289382599850634</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09871056999642985</v>
+        <v>0.2262507109755791</v>
       </c>
       <c r="J207" t="n">
-        <v>0.139353149401674</v>
+        <v>0.1469131063153393</v>
       </c>
       <c r="K207" t="n">
-        <v>0.106586514911732</v>
+        <v>0.2269551462679317</v>
       </c>
       <c r="L207" t="n">
-        <v>0.23202364066629</v>
+        <v>0.235316406149723</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09834504377582055</v>
+        <v>0.2258268591558271</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3124639375782789</v>
+        <v>0.3203798368717525</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1009643322235165</v>
+        <v>0.2257508290269791</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1299909422836668</v>
+        <v>0.1430917531787168</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09940571485555964</v>
+        <v>0.2278440258416043</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1393742179222241</v>
+        <v>0.1467741727601789</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1073371241716738</v>
+        <v>0.2285534219458749</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2321285406373547</v>
+        <v>0.2347672915191012</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09903761450663619</v>
+        <v>0.2274171891498822</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3097614943824669</v>
+        <v>0.3231236898219405</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1016753486476258</v>
+        <v>0.2273406235975916</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1374419773451641</v>
+        <v>0.1432352468169221</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1001008597146894</v>
+        <v>0.2294373407076295</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1388908734605653</v>
+        <v>0.1473248528972599</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1080877334316155</v>
+        <v>0.2301516976238181</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2301438857012872</v>
+        <v>0.2342017307205396</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09973018523745183</v>
+        <v>0.2290075191439373</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3101369976386681</v>
+        <v>0.3234449770926798</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1023863650717351</v>
+        <v>0.2289304181682041</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1348972813176892</v>
+        <v>0.1423686261202062</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1007960045738192</v>
+        <v>0.2310306555736547</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1383026145643385</v>
+        <v>0.1472650268967782</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1088383426915573</v>
+        <v>0.2317499733017613</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2291738171062729</v>
+        <v>0.2360195355576706</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1004227559682675</v>
+        <v>0.2305978491379924</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3077043677801115</v>
+        <v>0.3222434406035832</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1030973814958443</v>
+        <v>0.2305202127388166</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1353582338515827</v>
+        <v>0.1404917763090962</v>
       </c>
       <c r="G211" t="n">
-        <v>0.101491149432949</v>
+        <v>0.2326239704396799</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1377094573146558</v>
+        <v>0.1470945749289301</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1095889519514991</v>
+        <v>0.2333482489797045</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2296224761004966</v>
+        <v>0.236220517834127</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1011153266990831</v>
+        <v>0.2321881791320476</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3071775252400262</v>
+        <v>0.3237188222742623</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1038083979199536</v>
+        <v>0.2321100073094292</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1298262145971849</v>
+        <v>0.140604582604119</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1021862942920788</v>
+        <v>0.2342172853057051</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1363114177926297</v>
+        <v>0.1481133771639118</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1103395612114409</v>
+        <v>0.2349465246576476</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2274940039321438</v>
+        <v>0.2345044893535409</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1018078974298987</v>
+        <v>0.2337785091261027</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3031703904516415</v>
+        <v>0.3248708640243297</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1045194143440629</v>
+        <v>0.2336998018800417</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.125302603204836</v>
+        <v>0.1357069302258015</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1028814391512086</v>
+        <v>0.2358106001717303</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1361085120793725</v>
+        <v>0.1477213137719192</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1110901704713827</v>
+        <v>0.2365448003355908</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2260925418493993</v>
+        <v>0.2359712619195449</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1025004681607144</v>
+        <v>0.2353688391201578</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3016968838481866</v>
+        <v>0.3223993077733979</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1052304307681721</v>
+        <v>0.2352895964506543</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1337887793248766</v>
+        <v>0.137798704394671</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1035765840103384</v>
+        <v>0.2374039150377555</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1353007562559962</v>
+        <v>0.1487182649231485</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1118407797313244</v>
+        <v>0.238143076013534</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2255222311004485</v>
+        <v>0.2351206473357714</v>
       </c>
       <c r="M214" t="n">
-        <v>0.10319303889153</v>
+        <v>0.2369591691142129</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3038709258628904</v>
+        <v>0.3254038954410788</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1059414471922814</v>
+        <v>0.2368793910212668</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.137286122607647</v>
+        <v>0.1438797903312541</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1042717288694682</v>
+        <v>0.2389972299037807</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1349881664036135</v>
+        <v>0.1486041107877961</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1125913889912662</v>
+        <v>0.2397413516914772</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2247872129334765</v>
+        <v>0.2365524574058528</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1038856096223457</v>
+        <v>0.2385494991082681</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3026037448975868</v>
+        <v>0.3226843689469847</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1066524636163907</v>
+        <v>0.2384691855918793</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1297960127034875</v>
+        <v>0.1419500732560781</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1049668737285979</v>
+        <v>0.2405905447698059</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1353707586033364</v>
+        <v>0.1476787315360578</v>
       </c>
       <c r="K216" t="n">
-        <v>0.113341998251208</v>
+        <v>0.2413396273694203</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2229916285966684</v>
+        <v>0.2352665039334216</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1045781803531613</v>
+        <v>0.2401398291023232</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3002943647345639</v>
+        <v>0.3227404702107283</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1073634800404999</v>
+        <v>0.2400589801624919</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1373198292627384</v>
+        <v>0.1390094383896698</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1056620185877277</v>
+        <v>0.2421838596358311</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1345485489362772</v>
+        <v>0.14804200733813</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1140926075111497</v>
+        <v>0.2429379030473636</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2223396193382095</v>
+        <v>0.2358625987221102</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1052707510839769</v>
+        <v>0.2417301590963783</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3006861123010462</v>
+        <v>0.3244719411519214</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1080744964646092</v>
+        <v>0.2416487747331043</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1268589519357403</v>
+        <v>0.1320577709525562</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1063571634468575</v>
+        <v>0.2437771745018563</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1344215534835483</v>
+        <v>0.1480938183642087</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1148432167710915</v>
+        <v>0.2445361787253067</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2215353264062848</v>
+        <v>0.235240553575551</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1059633218147926</v>
+        <v>0.2433204890904334</v>
       </c>
       <c r="N218" t="n">
-        <v>0.2986796229885775</v>
+        <v>0.3243785236901765</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1087855128887185</v>
+        <v>0.2432385693037169</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1354127694201664</v>
+        <v>0.1360949561652645</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1070523083059873</v>
+        <v>0.2453704893678815</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1338897883262619</v>
+        <v>0.14783404478449</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1155938260310333</v>
+        <v>0.2461344544032499</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2197827576058832</v>
+        <v>0.2362001802973765</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1066558925456082</v>
+        <v>0.2449108190844885</v>
       </c>
       <c r="N219" t="n">
-        <v>0.2988755321887017</v>
+        <v>0.3238599597451061</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1094965293128278</v>
+        <v>0.2448283638743294</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1309678100110847</v>
+        <v>0.1371208792483214</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1077474531651171</v>
+        <v>0.2469638042339067</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1332532695455303</v>
+        <v>0.1488625667691703</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1163444352909751</v>
+        <v>0.2477327300811931</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2197550878608505</v>
+        <v>0.2357412906912192</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1073484632764238</v>
+        <v>0.2465011490785436</v>
       </c>
       <c r="N220" t="n">
-        <v>0.2969744752929624</v>
+        <v>0.3234159912363218</v>
       </c>
       <c r="O220" t="n">
-        <v>0.110207545736937</v>
+        <v>0.2464181584449419</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1335212964345792</v>
+        <v>0.1371354254222541</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1084425980242469</v>
+        <v>0.2485571190999319</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1316120132224658</v>
+        <v>0.1476792644884453</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1170950445509168</v>
+        <v>0.2493310057591362</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2180299038365796</v>
+        <v>0.2371636965607113</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1080410340072395</v>
+        <v>0.2480914790725988</v>
       </c>
       <c r="N221" t="n">
-        <v>0.2954770876929039</v>
+        <v>0.3259463600834367</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1109185621610463</v>
+        <v>0.2480079530155545</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1230732319813233</v>
+        <v>0.1401287217648426</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1091377428833767</v>
+        <v>0.2501504339659572</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1311660354381807</v>
+        <v>0.1485820140296811</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1178456538108586</v>
+        <v>0.2509292814370794</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2176072346440736</v>
+        <v>0.2373386459336336</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1087336047380551</v>
+        <v>0.2496818090666539</v>
       </c>
       <c r="N222" t="n">
-        <v>0.2967840047800699</v>
+        <v>0.3262080161949537</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1116295785851556</v>
+        <v>0.249597747586167</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1316236199419904</v>
+        <v>0.1398703982600775</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1098328877425064</v>
+        <v>0.2517437488319823</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1316153522737872</v>
+        <v>0.148059910843785</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1185962630708004</v>
+        <v>0.2525275571150226</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2170871093943355</v>
+        <v>0.2348701490538722</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1094261754688707</v>
+        <v>0.2512721390607091</v>
       </c>
       <c r="N223" t="n">
-        <v>0.2952958619460044</v>
+        <v>0.3246544979262588</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1123405950092649</v>
+        <v>0.2511875421567796</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.131172463607254</v>
+        <v>0.1342898532308442</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1105280326016362</v>
+        <v>0.2533370636980075</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1305599798103977</v>
+        <v>0.1472976985578845</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1193468723307422</v>
+        <v>0.2541258327929658</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2164695571983681</v>
+        <v>0.2342768498033854</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1101187461996864</v>
+        <v>0.2528624690547641</v>
       </c>
       <c r="N224" t="n">
-        <v>0.2950132945822512</v>
+        <v>0.3241821680235416</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1130516114333741</v>
+        <v>0.2527773367273921</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1307197662677874</v>
+        <v>0.1374228684183014</v>
       </c>
       <c r="G225" t="n">
-        <v>0.111223177460766</v>
+        <v>0.2549303785640328</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1305999341291245</v>
+        <v>0.14703273332036</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1200974815906839</v>
+        <v>0.255724108470909</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2144546071671745</v>
+        <v>0.2329174171543727</v>
       </c>
       <c r="M225" t="n">
-        <v>0.110811316930502</v>
+        <v>0.2544527990488192</v>
       </c>
       <c r="N225" t="n">
-        <v>0.2931369380803543</v>
+        <v>0.3209714813398281</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1137626278574834</v>
+        <v>0.2543671312980046</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.132265531214264</v>
+        <v>0.1393052255636079</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1119183223198958</v>
+        <v>0.256523693430058</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1299352313110798</v>
+        <v>0.1451023712795919</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1208480908506257</v>
+        <v>0.2573223841488522</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2143422884117577</v>
+        <v>0.2307505200790337</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1115038876613177</v>
+        <v>0.2560431290428744</v>
       </c>
       <c r="N226" t="n">
-        <v>0.2915674278318575</v>
+        <v>0.3176028927281446</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1144736442815927</v>
+        <v>0.2559569258686171</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1258097617373573</v>
+        <v>0.1319727064079224</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1126134671790256</v>
+        <v>0.2581170082960831</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1292658874373759</v>
+        <v>0.1449439685839604</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1215987001105675</v>
+        <v>0.2589206598267954</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2148326300431207</v>
+        <v>0.2303348275495681</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1121964583921333</v>
+        <v>0.2576334590369295</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2918053992283048</v>
+        <v>0.316456857041517</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1151846607057019</v>
+        <v>0.2575467204392297</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1193524611277407</v>
+        <v>0.1324610926924037</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1133086120381554</v>
+        <v>0.2597103231621083</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1285919185891251</v>
+        <v>0.1433948813818459</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1223493093705093</v>
+        <v>0.2605189355047385</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2130256611722665</v>
+        <v>0.2269290085381756</v>
       </c>
       <c r="M228" t="n">
-        <v>0.112889029122949</v>
+        <v>0.2592237890309846</v>
       </c>
       <c r="N228" t="n">
-        <v>0.2895514876612403</v>
+        <v>0.3099138291329718</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1158956771298112</v>
+        <v>0.2591365150098421</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1238936326760876</v>
+        <v>0.1348061661582106</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1140037568972852</v>
+        <v>0.2613036380281336</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1277133408474396</v>
+        <v>0.1405924658216286</v>
       </c>
       <c r="K229" t="n">
-        <v>0.123099918630451</v>
+        <v>0.2621172111826817</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2133214109101981</v>
+        <v>0.2236917320170557</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1135815998537646</v>
+        <v>0.2608141190250397</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2896063285222075</v>
+        <v>0.3089542638555353</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1166066935539205</v>
+        <v>0.2607263095804547</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1284332796730714</v>
+        <v>0.1290437085465017</v>
       </c>
       <c r="G230" t="n">
-        <v>0.114698901756415</v>
+        <v>0.2628969528941588</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1268301702934319</v>
+        <v>0.1384740780516889</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1238505278903928</v>
+        <v>0.2637154868606249</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2115199083679183</v>
+        <v>0.220781666958408</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1142741705845802</v>
+        <v>0.2624044490190949</v>
       </c>
       <c r="N230" t="n">
-        <v>0.2895705572027504</v>
+        <v>0.3037586160622332</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1173177099780298</v>
+        <v>0.2623161041510673</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1199714054093655</v>
+        <v>0.1312095015984359</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1153940466155447</v>
+        <v>0.264490267760184</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1267424230082141</v>
+        <v>0.1368770742204073</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1246011371503346</v>
+        <v>0.265313762538568</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2104211826564303</v>
+        <v>0.2174574823344324</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1149667413153959</v>
+        <v>0.26399477901315</v>
       </c>
       <c r="N231" t="n">
-        <v>0.2877448090944129</v>
+        <v>0.2993073406060923</v>
       </c>
       <c r="O231" t="n">
-        <v>0.118028726402139</v>
+        <v>0.2639058987216797</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1215080131756433</v>
+        <v>0.131339327055172</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1160891914746745</v>
+        <v>0.2660835826262092</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1265501150728985</v>
+        <v>0.1358388104761638</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1253517464102764</v>
+        <v>0.2669120382165113</v>
       </c>
       <c r="L232" t="n">
-        <v>0.210025262886737</v>
+        <v>0.2163778471173282</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1156593120462115</v>
+        <v>0.2655851090072051</v>
       </c>
       <c r="N232" t="n">
-        <v>0.2888297195887393</v>
+        <v>0.2947808923401385</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1187397428262483</v>
+        <v>0.2654956932922923</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1170431062625782</v>
+        <v>0.1294689666578687</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1167843363338043</v>
+        <v>0.2676768974922344</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1247532625685975</v>
+        <v>0.1327966429673389</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1261023556702182</v>
+        <v>0.2685103138944545</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2102321781698414</v>
+        <v>0.2113014302792954</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1163518827770271</v>
+        <v>0.2671754390012602</v>
       </c>
       <c r="N233" t="n">
-        <v>0.2869259240772729</v>
+        <v>0.292359726117398</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1194507592503576</v>
+        <v>0.2670854878629048</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1165766879608437</v>
+        <v>0.1166342021476847</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1174794811929341</v>
+        <v>0.2692702123582596</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1242518815764232</v>
+        <v>0.1309879278423129</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1268529649301599</v>
+        <v>0.2701085895723976</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2081419576167465</v>
+        <v>0.2095869007925333</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1170444535078428</v>
+        <v>0.2687657689953153</v>
       </c>
       <c r="N234" t="n">
-        <v>0.285734057951558</v>
+        <v>0.2865242967908969</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1201617756744668</v>
+        <v>0.2686752824335173</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1271087615611132</v>
+        <v>0.1248708152657789</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1181746260520639</v>
+        <v>0.2708635272242848</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1241459881774881</v>
+        <v>0.1303500212494662</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1276035741901017</v>
+        <v>0.2717068652503408</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2076546303384553</v>
+        <v>0.2054929276292418</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1177370242386584</v>
+        <v>0.2703560989893705</v>
       </c>
       <c r="N235" t="n">
-        <v>0.2874547566031385</v>
+        <v>0.2835550592136616</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1208727920985761</v>
+        <v>0.2702650770041299</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.11963933035406</v>
+        <v>0.1142145877533099</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1188697709111937</v>
+        <v>0.27245684209031</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1237355984529044</v>
+        <v>0.127620279337179</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1283541834500435</v>
+        <v>0.273305140928284</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2078702254459707</v>
+        <v>0.2030781797616203</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1184295949694741</v>
+        <v>0.2719464289834256</v>
       </c>
       <c r="N236" t="n">
-        <v>0.283988655423558</v>
+        <v>0.2793324682387182</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1215838085226854</v>
+        <v>0.2718548715747424</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1141683976303576</v>
+        <v>0.1116969371223752</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1195649157703235</v>
+        <v>0.2740501569563352</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1225207284837843</v>
+        <v>0.1259343354456838</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1291047927099852</v>
+        <v>0.2749034166062271</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2063887720502958</v>
+        <v>0.2017904214523267</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1191221657002897</v>
+        <v>0.2735367589774807</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2863363898043607</v>
+        <v>0.2774209828290759</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1222948249467947</v>
+        <v>0.2734446661453549</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1246959666806795</v>
+        <v>0.1132245631653024</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1202600606294533</v>
+        <v>0.2756434718223604</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1227013943512401</v>
+        <v>0.1255071653783892</v>
       </c>
       <c r="K238" t="n">
-        <v>0.129855401969927</v>
+        <v>0.2765016922841703</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2042102992624335</v>
+        <v>0.1975667550224983</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1198147364311053</v>
+        <v>0.2751270889715358</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2840985951370903</v>
+        <v>0.2728949749863117</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1230058413709039</v>
+        <v>0.2750344607159675</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1202220407956988</v>
+        <v>0.1087467536260607</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1209552054885831</v>
+        <v>0.2772367866883856</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1212776121363842</v>
+        <v>0.1232743453170947</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1306060112298688</v>
+        <v>0.2780999679621135</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2038348361933869</v>
+        <v>0.1954341527153334</v>
       </c>
       <c r="M239" t="n">
-        <v>0.120507307161921</v>
+        <v>0.2767174189655909</v>
       </c>
       <c r="N239" t="n">
-        <v>0.282875906813291</v>
+        <v>0.2696567072603895</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1237168577950132</v>
+        <v>0.27662425528658</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1247466232660893</v>
+        <v>0.1052634237363785</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1216503503477128</v>
+        <v>0.2788301015544108</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1212493979203288</v>
+        <v>0.1217357867636994</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1313566204898106</v>
+        <v>0.2796982436400567</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2027624119541588</v>
+        <v>0.1925924755418613</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1211998778927366</v>
+        <v>0.2783077489596461</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2815689602245064</v>
+        <v>0.265505989050779</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1244278742191225</v>
+        <v>0.2782140498571925</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1142697173825241</v>
+        <v>0.1147744887279839</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1223454952068426</v>
+        <v>0.280423416420436</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1198167677841862</v>
+        <v>0.1203914012201027</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1321072297497523</v>
+        <v>0.2812965193179999</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2029930556557524</v>
+        <v>0.1912415845131112</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1218924486235522</v>
+        <v>0.2798980789537012</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2823783907622804</v>
+        <v>0.26124262975695</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1251388906432317</v>
+        <v>0.2798038444278051</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1137913264356768</v>
+        <v>0.1132798638326053</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1230406400659724</v>
+        <v>0.2820167312864612</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1193797378090688</v>
+        <v>0.1187411001882036</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1328578390096941</v>
+        <v>0.2828947949959431</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2030267964091705</v>
+        <v>0.1879813406401122</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1225850193543679</v>
+        <v>0.2814884089477563</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2802048338181573</v>
+        <v>0.258666438778372</v>
       </c>
       <c r="O242" t="n">
-        <v>0.125849907067341</v>
+        <v>0.2813936389984176</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1143114537162208</v>
+        <v>0.102779464281971</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1237357849251022</v>
+        <v>0.2836100461524865</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1196383240760887</v>
+        <v>0.1176847951699014</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1336084482696359</v>
+        <v>0.2844930706738862</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2019636633254162</v>
+        <v>0.1875116049338936</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1232775900851835</v>
+        <v>0.2830787389418114</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2815489247836805</v>
+        <v>0.2541772255145147</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1265609234914503</v>
+        <v>0.2829834335690301</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1178301025148294</v>
+        <v>0.1002732053078092</v>
       </c>
       <c r="G244" t="n">
-        <v>0.124430929784232</v>
+        <v>0.2852033610185116</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1189925426663582</v>
+        <v>0.1154223976670952</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1343590575295777</v>
+        <v>0.2860913463518294</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2010036855154926</v>
+        <v>0.1846322384054846</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1239701608159991</v>
+        <v>0.2846690689358665</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2822112990503942</v>
+        <v>0.2513747993648475</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1272719399155596</v>
+        <v>0.2845732281396426</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1103472761221761</v>
+        <v>0.09876100214184833</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1251260746433618</v>
+        <v>0.2867966758845368</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1172424096609898</v>
+        <v>0.1133538191816843</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1351096667895194</v>
+        <v>0.2876896220297726</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1987468920904024</v>
+        <v>0.1803431020659145</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1246627315468148</v>
+        <v>0.2862593989299216</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2798925920098424</v>
+        <v>0.2503589697288404</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1279829563396688</v>
+        <v>0.2861630227102552</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1228629778289343</v>
+        <v>0.09524277001581652</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1258212195024916</v>
+        <v>0.288389990750562</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1172879411410955</v>
+        <v>0.1121789712155677</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1358602760494612</v>
+        <v>0.2892878977077158</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1980933121611488</v>
+        <v>0.1796440569262122</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1253553022776304</v>
+        <v>0.2878497289239768</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2804934390535684</v>
+        <v>0.2454295460059629</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1286939727637781</v>
+        <v>0.2877528172808677</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1093772109257774</v>
+        <v>0.1057184241614421</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1265163643616213</v>
+        <v>0.2899833056165873</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1165291531877878</v>
+        <v>0.1111977652706449</v>
       </c>
       <c r="K247" t="n">
-        <v>0.136610885309403</v>
+        <v>0.290886173385659</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1976429748387347</v>
+        <v>0.1772349639974072</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1260478730084461</v>
+        <v>0.2894400589180319</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2805144755731169</v>
+        <v>0.2412863375956846</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1294049891878874</v>
+        <v>0.2893426118514802</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1228899787033787</v>
+        <v>0.1001878798104534</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1272115092207511</v>
+        <v>0.2915766204826125</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1153660618821789</v>
+        <v>0.1099101128488148</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1373614945693448</v>
+        <v>0.2924844490636022</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1984959092341632</v>
+        <v>0.1747156842905287</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1267404437392617</v>
+        <v>0.291030388912087</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2786563369600312</v>
+        <v>0.237229153897475</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1301160056119967</v>
+        <v>0.2909324064220928</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1144012844524118</v>
+        <v>0.1026510521945787</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1279066540798809</v>
+        <v>0.2931699353486377</v>
       </c>
       <c r="J249" t="n">
-        <v>0.115798683305381</v>
+        <v>0.1075159254519767</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1381121038292865</v>
+        <v>0.2940827247415453</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1974521444584371</v>
+        <v>0.1718860788166058</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1274330144700773</v>
+        <v>0.2926207189061422</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2793196586058556</v>
+        <v>0.233557804310804</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1308270220361059</v>
+        <v>0.2925222009927053</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1179111314635501</v>
+        <v>0.08910785654554618</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1286017989390107</v>
+        <v>0.2947632502146629</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1150270335385066</v>
+        <v>0.1058151145820298</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1388627130892283</v>
+        <v>0.2956810004194885</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1969117096225594</v>
+        <v>0.1686460085866677</v>
       </c>
       <c r="M250" t="n">
-        <v>0.128125585200893</v>
+        <v>0.2942110489001973</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2786050759021338</v>
+        <v>0.232572098235141</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1315380384602152</v>
+        <v>0.2941119955633179</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1094195230274669</v>
+        <v>0.08755820809508416</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1292969437981405</v>
+        <v>0.2963565650806881</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1141511286626678</v>
+        <v>0.1044075917408733</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1396133223491701</v>
+        <v>0.2972792760974317</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1955746338375334</v>
+        <v>0.1657953346117437</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1288181559317086</v>
+        <v>0.2958013788942524</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2767132242404099</v>
+        <v>0.2269718450699557</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1322490548843245</v>
+        <v>0.2957017901339303</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1199264624348357</v>
+        <v>0.09200202207492109</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1299920886572703</v>
+        <v>0.2979498799467133</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1140709847589769</v>
+        <v>0.1020932684304064</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1403639316091119</v>
+        <v>0.2988775517753749</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1949409462143616</v>
+        <v>0.162533917902863</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1295107266625243</v>
+        <v>0.2973917088883075</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2770447390122274</v>
+        <v>0.2235568542147179</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1329600713084337</v>
+        <v>0.2972915847045429</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1184319529763297</v>
+        <v>0.08943921371678504</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1306872335164001</v>
+        <v>0.2995431948127384</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1129866179085463</v>
+        <v>0.1015720561525282</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1411145408690536</v>
+        <v>0.3004758274533181</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1949106758640476</v>
+        <v>0.1606616194710547</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1302032973933399</v>
+        <v>0.2989820388823626</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2762002556091306</v>
+        <v>0.2211269350688971</v>
       </c>
       <c r="O253" t="n">
-        <v>0.133671087732543</v>
+        <v>0.2988813792751554</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1119359979426226</v>
+        <v>0.09386969825240438</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1313823783755299</v>
+        <v>0.3011365096787637</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1113980441924883</v>
+        <v>0.09984386640913802</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1418651501289954</v>
+        <v>0.3020741031312612</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1920838518975938</v>
+        <v>0.1573783003273481</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1308958681241555</v>
+        <v>0.3005723688764178</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2762804094226632</v>
+        <v>0.217581897031963</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1343821041566523</v>
+        <v>0.3004711738457679</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1164386006243877</v>
+        <v>0.09229339091350736</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1320775232346597</v>
+        <v>0.3027298245447889</v>
       </c>
       <c r="J255" t="n">
-        <v>0.112005279691915</v>
+        <v>0.09720861070213498</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1426157593889372</v>
+        <v>0.3036723788092044</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1928605034260035</v>
+        <v>0.1562838214827725</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1315884388549712</v>
+        <v>0.3021626988704729</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2767858358443691</v>
+        <v>0.2128215495033851</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1350931205807615</v>
+        <v>0.3020609684163804</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1159397643122984</v>
+        <v>0.08171020693182229</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1327726680937894</v>
+        <v>0.3043231394108141</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1111083404879388</v>
+        <v>0.09546620053341824</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1433663686488789</v>
+        <v>0.3052706544871476</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1909406595602796</v>
+        <v>0.1525780439483568</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1322810095857868</v>
+        <v>0.303753028864528</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2763171702657925</v>
+        <v>0.2120457018826332</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1358041370048708</v>
+        <v>0.303650762986993</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1054394922970281</v>
+        <v>0.08012006153907747</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1334678129529192</v>
+        <v>0.3059164542768393</v>
       </c>
       <c r="J257" t="n">
-        <v>0.110007242661672</v>
+        <v>0.09451654740488709</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1441169779088207</v>
+        <v>0.3068689301650908</v>
       </c>
       <c r="L257" t="n">
-        <v>0.191024349411425</v>
+        <v>0.1509608287351306</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1329735803166024</v>
+        <v>0.3053433588585831</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2755750480784768</v>
+        <v>0.2079541635691768</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1365151534289801</v>
+        <v>0.3052405575576055</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1039377878692502</v>
+        <v>0.08552286996700123</v>
       </c>
       <c r="G258" t="n">
-        <v>0.134162957812049</v>
+        <v>0.3075097691428645</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1086020022942269</v>
+        <v>0.09215956281844061</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1448675871687625</v>
+        <v>0.308467205843034</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1894116020904429</v>
+        <v>0.1475320368541229</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1336661510474181</v>
+        <v>0.3069336888526382</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2769601046739664</v>
+        <v>0.2038467439624854</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1372261698530894</v>
+        <v>0.306830352128218</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1104346543196382</v>
+        <v>0.08691854744732172</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1348581026711788</v>
+        <v>0.3091030840088897</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1084926354667156</v>
+        <v>0.09159515827597804</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1456181964287043</v>
+        <v>0.3100654815209771</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1907024467083361</v>
+        <v>0.1448915293163628</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1343587217782337</v>
+        <v>0.3085240188466933</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2747729754438047</v>
+        <v>0.1988232524620289</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1379371862771986</v>
+        <v>0.3084201466988306</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1149300949388654</v>
+        <v>0.08430700921176729</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1355532475303086</v>
+        <v>0.310696398874915</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1073791582602506</v>
+        <v>0.09002324527939863</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1463688056886461</v>
+        <v>0.3116637571989203</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1879969123761078</v>
+        <v>0.1419391671328798</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1350512925090493</v>
+        <v>0.3101143488407485</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2752142957795362</v>
+        <v>0.195183498467277</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1386482027013079</v>
+        <v>0.3100099412694431</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1034241130176053</v>
+        <v>0.07268817049206625</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1362483923894384</v>
+        <v>0.3122897137409401</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1067615867559442</v>
+        <v>0.08824373533060147</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1471194149485879</v>
+        <v>0.3132620328768635</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1888950282047607</v>
+        <v>0.1394748113147029</v>
       </c>
       <c r="M261" t="n">
-        <v>0.135743863239865</v>
+        <v>0.3117046788348036</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2753847010727043</v>
+        <v>0.1909272913776991</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1393592191254172</v>
+        <v>0.3115997358400556</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1069167118465313</v>
+        <v>0.07906194651994689</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1369435372485682</v>
+        <v>0.3138830286069653</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1061399370349086</v>
+        <v>0.08695653993148582</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1478700242085296</v>
+        <v>0.3148603085548067</v>
       </c>
       <c r="L262" t="n">
-        <v>0.186396823305298</v>
+        <v>0.1370983228728612</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1364364339706806</v>
+        <v>0.3132950088288587</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2742848267148531</v>
+        <v>0.189454440592765</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1400702355495264</v>
+        <v>0.3131895304106682</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1154078947163167</v>
+        <v>0.07042825252713741</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1376386821076979</v>
+        <v>0.3154763434729905</v>
       </c>
       <c r="J263" t="n">
-        <v>0.106314225178256</v>
+        <v>0.08516157058395081</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1486206334684714</v>
+        <v>0.3164585842327499</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1879023267887227</v>
+        <v>0.1344095628183842</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1371290047014963</v>
+        <v>0.3148853388229139</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2764153080975265</v>
+        <v>0.1842647555119441</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1407812519736357</v>
+        <v>0.3147793249812807</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.107897664917635</v>
+        <v>0.07878700374536621</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1383338269668277</v>
+        <v>0.3170696583390157</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1040844672670988</v>
+        <v>0.08325873878989566</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1493712427284132</v>
+        <v>0.318056859910693</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1867115677660375</v>
+        <v>0.131708392162301</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1378215754323119</v>
+        <v>0.316475668816969</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2743767806122683</v>
+        <v>0.1810580455347063</v>
       </c>
       <c r="O264" t="n">
-        <v>0.141492268397745</v>
+        <v>0.3163691195518932</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1421.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1421.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.6909830056250525</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06737775287849887</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06737775287849887</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1078044046055982</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1702779731087788</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.07276797310877878</v>
+        <v>0.0752645818680379</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002207449821765246</v>
+        <v>0.002283185592945867</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.04042665172709933</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0007358166072550822</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.03386906184061704</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0006164601100953839</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.059253</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0005378200999061654</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.08925300000000003</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0005023036782142489</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.07276797310877878</v>
+        <v>0.0316111243845759</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.002207449821765246</v>
+        <v>0.0005753627694223582</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.05648707586632047</v>
+        <v>0.0316111243845759</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001598275677943181</v>
+        <v>0.0005753627694223582</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1199859414180337</v>
+        <v>0.059253</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001613460299718496</v>
+        <v>0.0005604651567443199</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1647073009680295</v>
+        <v>0.08925300000000003</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001506911034642747</v>
+        <v>0.0005119633643337536</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.07863867401742991</v>
+        <v>0.0490326233341692</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003186629732050409</v>
+        <v>0.001055468395817088</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.0752645818680379</v>
+        <v>0.0490326233341692</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003194651393442624</v>
+        <v>0.001055468395817088</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1345643673455575</v>
+        <v>0.1199859414180337</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003180659988110241</v>
+        <v>0.001891548092191479</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1869030241686463</v>
+        <v>0.1647073009680295</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003179589141225057</v>
+        <v>0.001574626883389998</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0871977542754252</v>
+        <v>0.06505733745436389</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004779944598075614</v>
+        <v>0.001583202593725633</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.08330416942113751</v>
+        <v>0.06505733745436389</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004794827033829544</v>
+        <v>0.001583202593725633</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1491508562298722</v>
+        <v>0.1294010298245544</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004770989982165361</v>
+        <v>0.002925323066872532</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.207043082550794</v>
+        <v>0.1841569088947032</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004769383711837586</v>
+        <v>0.002920545360207183</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.08461624096864634</v>
+        <v>0.0752645818680379</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006373259464100819</v>
+        <v>0.002283185592945867</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.09184127616241015</v>
+        <v>0.0752645818680379</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006393102711772724</v>
+        <v>0.002283185592945867</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1609040841810568</v>
+        <v>0.1400578046803402</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006361319976220481</v>
+        <v>0.003900430755830043</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2234863459411248</v>
+        <v>0.197631514011517</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006359178282450115</v>
+        <v>0.003894060480276244</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0007358166072550822</v>
+        <v>0.0005753627694223582</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04042665172709933</v>
+        <v>0.0316111243845759</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.08799776256237582</v>
+        <v>0.07599608757462971</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007966574330126024</v>
+        <v>0.002638670989542721</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.09816155100468051</v>
+        <v>0.07599608757462971</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007991378389715906</v>
+        <v>0.002638670989542721</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1709411173449163</v>
+        <v>0.1493269147968724</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007951649970275601</v>
+        <v>0.004875538444787554</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2351290134236521</v>
+        <v>0.2085573625950783</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007948972853062643</v>
+        <v>0.004867575600345305</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09344594752189622</v>
+        <v>0.0770646083284638</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009559889196151227</v>
+        <v>0.003166405187451265</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1039395284110044</v>
+        <v>0.0770646083284638</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009589654067659088</v>
+        <v>0.003166405187451265</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1804790218672555</v>
+        <v>0.1576240710996967</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009541979964330722</v>
+        <v>0.005850646133745064</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2463672840823894</v>
+        <v>0.2226592885402083</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009538767423675171</v>
+        <v>0.005841090720414366</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1100644243124899</v>
+        <v>0.07811247443998696</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01115320406217643</v>
+        <v>0.00369413938535981</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1092497428444376</v>
+        <v>0.07811247443998696</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01118792974560227</v>
+        <v>0.00369413938535981</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1876348638938791</v>
+        <v>0.1665649845143591</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01113230995838584</v>
+        <v>0.006825753822702574</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2572973570013503</v>
+        <v>0.2333621257417281</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0111285619942877</v>
+        <v>0.006814605840483427</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1059568213994395</v>
+        <v>0.07913988540545348</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01274651892820164</v>
+        <v>0.004221873583268354</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.114866728768036</v>
+        <v>0.07913988540545348</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01278620542354545</v>
+        <v>0.004221873583268354</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1924257095705922</v>
+        <v>0.1741653659664055</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01272263995244096</v>
+        <v>0.007800861511660085</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2657154312645477</v>
+        <v>0.2451907080944582</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01271835656490023</v>
+        <v>0.007788120960552487</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1152267672480275</v>
+        <v>0.08014704072111763</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01433983379422684</v>
+        <v>0.004749607781176897</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1187650206448554</v>
+        <v>0.08014704072111763</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01438448110148863</v>
+        <v>0.004749607781176897</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1971686250431996</v>
+        <v>0.1802409263813813</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01431296994649608</v>
+        <v>0.008775969200617595</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2723177059559955</v>
+        <v>0.2526698694932198</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01430815113551276</v>
+        <v>0.008761636080621549</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1079778903235362</v>
+        <v>0.08113413988323372</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01593314866025205</v>
+        <v>0.005277341979085442</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1214191529379516</v>
+        <v>0.08113413988323372</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01598275677943181</v>
+        <v>0.005277341979085442</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.201380676457506</v>
+        <v>0.1869073766848326</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0159032999405512</v>
+        <v>0.009751076889575107</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2761003801597065</v>
+        <v>0.2610244438328336</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01589794570612529</v>
+        <v>0.009735151200690609</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1203138190912484</v>
+        <v>0.08210138238805594</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01752646352627725</v>
+        <v>0.005805076176993986</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1243036601103805</v>
+        <v>0.08210138238805594</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.017581032457375</v>
+        <v>0.005805076176993986</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2045789299593164</v>
+        <v>0.1951804278023053</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01749362993460632</v>
+        <v>0.01072618457853262</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2807596529596946</v>
+        <v>0.2703792650081208</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01748774027673782</v>
+        <v>0.01070866632075967</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1253381820164464</v>
+        <v>0.08304896773183866</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01911977839230245</v>
+        <v>0.00633281037490253</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1277930766251979</v>
+        <v>0.08304896773183866</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01917930813531818</v>
+        <v>0.00633281037490253</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2066804516944356</v>
+        <v>0.1996757906593449</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01908395992866144</v>
+        <v>0.01170129226749013</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2829917234399729</v>
+        <v>0.2771591669139025</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01907753484735034</v>
+        <v>0.01168218144082873</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1241546075644128</v>
+        <v>0.0839770954108361</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02071309325832766</v>
+        <v>0.006860544572811074</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1292619369454596</v>
+        <v>0.0839770954108361</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02077758381326136</v>
+        <v>0.006860544572811074</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2085023078086686</v>
+        <v>0.2061091761814975</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02067428992271656</v>
+        <v>0.01267639995644764</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2883927906845548</v>
+        <v>0.2842889834449992</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02066732941796287</v>
+        <v>0.01265569656089779</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1198667242004301</v>
+        <v>0.08488596492130256</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02230640812435286</v>
+        <v>0.007388278770719619</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1311847755342214</v>
+        <v>0.08488596492130256</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02237585949120454</v>
+        <v>0.007388278770719619</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2122615644478201</v>
+        <v>0.2099962952943087</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02226461991677169</v>
+        <v>0.01365150764540515</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2927590537774537</v>
+        <v>0.2919935484962318</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0222571239885754</v>
+        <v>0.01362921168096685</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1265685099582094</v>
+        <v>0.08577577575949226</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02389972299037807</v>
+        <v>0.007916012968628164</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1325361268545393</v>
+        <v>0.08577577575949226</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02397413516914772</v>
+        <v>0.007916012968628164</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2140520662187644</v>
+        <v>0.2145528589233244</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02385494991082681</v>
+        <v>0.01462661533436266</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2955889865547051</v>
+        <v>0.2957976959624218</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02384691855918793</v>
+        <v>0.01460272680103591</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1212421963525251</v>
+        <v>0.08664672742165956</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02549303785640327</v>
+        <v>0.008443747166536708</v>
       </c>
       <c r="J81" t="n">
-        <v>0.134698782337243</v>
+        <v>0.08664672742165956</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0255724108470909</v>
+        <v>0.008443747166536708</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2188795425718514</v>
+        <v>0.2186945779940905</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02544527990488192</v>
+        <v>0.01560172302332017</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3004248325796314</v>
+        <v>0.3017262597383897</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02543671312980046</v>
+        <v>0.01557624192110497</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1288645900891506</v>
+        <v>0.08749901940405867</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02708635272242848</v>
+        <v>0.00897148136444525</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1370136360499644</v>
+        <v>0.08749901940405867</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02717068652503408</v>
+        <v>0.00897148136444525</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2210168483980177</v>
+        <v>0.2226371634321527</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02703560989893704</v>
+        <v>0.01657683071227768</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3044355282547755</v>
+        <v>0.3065040737189565</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02702650770041299</v>
+        <v>0.01654975704117403</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.131425194311571</v>
+        <v>0.08833285120294389</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02867966758845368</v>
+        <v>0.009499215562353794</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1391703723099668</v>
+        <v>0.08833285120294389</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02876896220297727</v>
+        <v>0.009499215562353794</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2239467726906688</v>
+        <v>0.2257963261630568</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02862593989299217</v>
+        <v>0.01755193840123519</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3055974715132518</v>
+        <v>0.3104559717989431</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02861630227102552</v>
+        <v>0.0175232721612431</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1269135121632718</v>
+        <v>0.0891484223145695</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03027298245447889</v>
+        <v>0.01002694976026234</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1401580323959363</v>
+        <v>0.0891484223145695</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03036723788092045</v>
+        <v>0.01002694976026234</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2243521044432105</v>
+        <v>0.2264877771123485</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03021626988704729</v>
+        <v>0.0185270460901927</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3086870602881742</v>
+        <v>0.3150067878731706</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03020609684163804</v>
+        <v>0.01849678728131216</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1373190467877384</v>
+        <v>0.0899459322351898</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0318662973205041</v>
+        <v>0.01055468395817088</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1412656575865588</v>
+        <v>0.0899459322351898</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03196551355886362</v>
+        <v>0.01055468395817088</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2274156326490482</v>
+        <v>0.2298272272055737</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0318065998811024</v>
+        <v>0.01950215377915021</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3127806925126566</v>
+        <v>0.3173813558364598</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03179589141225057</v>
+        <v>0.01947030240138122</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.131631301328456</v>
+        <v>0.09072558046105898</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0334596121865293</v>
+        <v>0.01108241815607943</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1433822891605204</v>
+        <v>0.09072558046105898</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03356378923680681</v>
+        <v>0.01108241815607943</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2295201463015877</v>
+        <v>0.2316303873682785</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03339692987515753</v>
+        <v>0.02047726146810772</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3160547661198134</v>
+        <v>0.3199045095836315</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0333856859828631</v>
+        <v>0.02044381752145028</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.12683977892891</v>
+        <v>0.09148756648843138</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0350529270525545</v>
+        <v>0.01161015235398797</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1444969683965071</v>
+        <v>0.09148756648843138</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03516206491474999</v>
+        <v>0.01161015235398797</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2307484343942345</v>
+        <v>0.2343129685260082</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03498725986921265</v>
+        <v>0.02145236915706523</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3172856790427586</v>
+        <v>0.3209010830095071</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03497548055347564</v>
+        <v>0.02141733264151934</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1309339827325857</v>
+        <v>0.09223208981356128</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03664624191857971</v>
+        <v>0.01213788655189652</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1450987365732049</v>
+        <v>0.09223208981356128</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03676034059269317</v>
+        <v>0.01213788655189652</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2344832859203944</v>
+        <v>0.234390681604309</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03657758986326777</v>
+        <v>0.02242747684602274</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3204498292146061</v>
+        <v>0.3250959100089071</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03656527512408816</v>
+        <v>0.0223908477615884</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1409034158829687</v>
+        <v>0.09295934993270295</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03823955678460491</v>
+        <v>0.01266562074980506</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1465766349692997</v>
+        <v>0.09295934993270295</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03835861627063635</v>
+        <v>0.01266562074980506</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2342074898734728</v>
+        <v>0.2363792375287265</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03816791985732289</v>
+        <v>0.02340258453498026</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3225236145684703</v>
+        <v>0.3243138244766526</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03815506969470069</v>
+        <v>0.02336436288165747</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.142737581523544</v>
+        <v>0.0936695463421106</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03983287165063012</v>
+        <v>0.01319335494771361</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1479197048634777</v>
+        <v>0.0936695463421106</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03995689194857953</v>
+        <v>0.01319335494771361</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2363038352468755</v>
+        <v>0.2386943472248066</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03975824985137801</v>
+        <v>0.02437769222393777</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3237834330374653</v>
+        <v>0.3260796603075645</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03974486426531322</v>
+        <v>0.02433787800172653</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1364259827977971</v>
+        <v>0.09436287853803858</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04142618651665533</v>
+        <v>0.01372108914562215</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1486169875344247</v>
+        <v>0.09436287853803858</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04155516762652271</v>
+        <v>0.01372108914562215</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2377551110340081</v>
+        <v>0.2373517216180951</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04134857984543313</v>
+        <v>0.02535279991289528</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3266056825547047</v>
+        <v>0.3277182513964638</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04133465883592574</v>
+        <v>0.02531139312179559</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1309581228492135</v>
+        <v>0.09503954601674118</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04301950138268053</v>
+        <v>0.01424882334353069</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1486575242608269</v>
+        <v>0.09503954601674118</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04315344330446589</v>
+        <v>0.01424882334353069</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2369441062282761</v>
+        <v>0.2399718828360674</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04293890983948825</v>
+        <v>0.02632790760185278</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3262667610533031</v>
+        <v>0.329414601936059</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04292445340653828</v>
+        <v>0.02628490824186465</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1353235048212783</v>
+        <v>0.09569974827447263</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04461281624870573</v>
+        <v>0.01477655754143924</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1500303563213702</v>
+        <v>0.09569974827447263</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04475171898240907</v>
+        <v>0.01477655754143924</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2399718828360674</v>
+        <v>0.2392561081984804</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04452923983354337</v>
+        <v>0.0273030152908103</v>
       </c>
       <c r="N93" t="n">
-        <v>0.329414601936059</v>
+        <v>0.3294130349275083</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0445142479771508</v>
+        <v>0.02725842336193371</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1455359462175576</v>
+        <v>0.09634368480748719</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04620613111473094</v>
+        <v>0.01530429173934778</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1505291637360758</v>
+        <v>0.09634368480748719</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04634999466035226</v>
+        <v>0.01530429173934778</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2398664108118412</v>
+        <v>0.2383520114997229</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04611956982759849</v>
+        <v>0.02827812297976781</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3262109967270328</v>
+        <v>0.3276686234057715</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04610404254776333</v>
+        <v>0.02823193848200277</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1425244297493241</v>
+        <v>0.09697155511203916</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04779944598075614</v>
+        <v>0.01583202593725633</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1502290715596242</v>
+        <v>0.09697155511203916</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04794827033829543</v>
+        <v>0.01583202593725633</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2394212154486606</v>
+        <v>0.2389364573757953</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04770989982165361</v>
+        <v>0.02925323066872532</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3276350750467496</v>
+        <v>0.3276113213442512</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04769383711837586</v>
+        <v>0.02920545360207183</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1384331841193844</v>
+        <v>0.0975835586843828</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04939276084678135</v>
+        <v>0.01635976013516487</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1499837430519699</v>
+        <v>0.0975835586843828</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04954654601623862</v>
+        <v>0.01635976013516487</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2378252026972658</v>
+        <v>0.238524366551522</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04930022981570873</v>
+        <v>0.03022833835768283</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3271549423652593</v>
+        <v>0.3267495299920081</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0492836316889884</v>
+        <v>0.03017896872214089</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1322555961170962</v>
+        <v>0.09817989502077241</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05098607571280655</v>
+        <v>0.01688749433307342</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1492454942708557</v>
+        <v>0.09817989502077241</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0511448216941818</v>
+        <v>0.01688749433307342</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2370902144618908</v>
+        <v>0.237523258389208</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05089055980976385</v>
+        <v>0.03120344604664034</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3279848672639507</v>
+        <v>0.3272908273352823</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05087342625960092</v>
+        <v>0.03115248384220995</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1309971978885555</v>
+        <v>0.09876076361746229</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05257939057883175</v>
+        <v>0.01741522853098196</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1495201477245617</v>
+        <v>0.09876076361746229</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05274309737212498</v>
+        <v>0.01741522853098196</v>
       </c>
       <c r="L98" t="n">
-        <v>0.238925321439349</v>
+        <v>0.2367406522511586</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05248088980381897</v>
+        <v>0.03217855373559785</v>
       </c>
       <c r="N98" t="n">
-        <v>0.325437288712719</v>
+        <v>0.3270427913603136</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05246322083021344</v>
+        <v>0.03212599896227902</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.130663521579858</v>
+        <v>0.09932636397070664</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05417270544485695</v>
+        <v>0.0179429627288905</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1484134789752524</v>
+        <v>0.09932636397070664</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05434137305006816</v>
+        <v>0.0179429627288905</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2368395943264536</v>
+        <v>0.2375840674996786</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05407121979787409</v>
+        <v>0.03315366142455536</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3249246456814585</v>
+        <v>0.3268130000533421</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05405301540082597</v>
+        <v>0.03309951408234807</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1392600993370995</v>
+        <v>0.09987689557675979</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05576602031088216</v>
+        <v>0.01847069692679905</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1490312635850922</v>
+        <v>0.09987689557675979</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05593964872801134</v>
+        <v>0.01847069692679905</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2368421038200175</v>
+        <v>0.2366610234970735</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05566154979192922</v>
+        <v>0.03412876911351287</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3237593771400643</v>
+        <v>0.3254090314006077</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05564280997143851</v>
+        <v>0.03407302920241714</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1367924633063757</v>
+        <v>0.100412557931876</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05735933517690737</v>
+        <v>0.01899843112470759</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1489792771162456</v>
+        <v>0.100412557931876</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05753792440595453</v>
+        <v>0.01899843112470759</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2352419206168541</v>
+        <v>0.2355790396056481</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05725187978598433</v>
+        <v>0.03510387680247038</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3246539220584308</v>
+        <v>0.3253384633883508</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05723260454205104</v>
+        <v>0.0350465443224862</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1342661456337825</v>
+        <v>0.1009335505323095</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05895265004293257</v>
+        <v>0.01952616532261613</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1477632951308771</v>
+        <v>0.1009335505323095</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0591362000838977</v>
+        <v>0.01952616532261613</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2341481154137764</v>
+        <v>0.2357456351877077</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05884220978003945</v>
+        <v>0.0360789844914279</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3221207194064529</v>
+        <v>0.3247088740028109</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05882239911266356</v>
+        <v>0.03602005944255526</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1316866784654155</v>
+        <v>0.1014400728743147</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06054596490895778</v>
+        <v>0.02005389952052468</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1477890931911512</v>
+        <v>0.1014400728743147</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06073447576184089</v>
+        <v>0.02005389952052468</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2335697589075977</v>
+        <v>0.2345683296055575</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06043253977409457</v>
+        <v>0.0370540921803854</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3199722081540256</v>
+        <v>0.3225278412302282</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06041219368327608</v>
+        <v>0.03699357456262432</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1340595939473707</v>
+        <v>0.1019323244541457</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06213927977498299</v>
+        <v>0.02058163371843322</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1472624468592323</v>
+        <v>0.1019323244541457</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06233275143978406</v>
+        <v>0.02058163371843322</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2324159217951309</v>
+        <v>0.2336546422215024</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0620228697681497</v>
+        <v>0.03802919986934292</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3201208272710432</v>
+        <v>0.3239029430568425</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06200198825388863</v>
+        <v>0.03796708968269338</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1333904242257437</v>
+        <v>0.1024105047680569</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06373259464100819</v>
+        <v>0.02110936791634177</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1454891316972849</v>
+        <v>0.1024105047680569</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06393102711772725</v>
+        <v>0.02110936791634177</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2322956747731894</v>
+        <v>0.2343120923978475</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06361319976220481</v>
+        <v>0.03900430755830043</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3173790157274007</v>
+        <v>0.3223417574688943</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06359178282450115</v>
+        <v>0.03894060480276244</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1346847014466304</v>
+        <v>0.1028748133123025</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06532590950703339</v>
+        <v>0.02163710211425031</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1455749232674735</v>
+        <v>0.1028748133123025</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06552930279567043</v>
+        <v>0.02163710211425031</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2316180885385862</v>
+        <v>0.2318481994968982</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06520352975625993</v>
+        <v>0.03997941524725793</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3170592124929928</v>
+        <v>0.3221518624526231</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06518157739511368</v>
+        <v>0.0399141199228315</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1259479577561265</v>
+        <v>0.1033254495831368</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0669192243730586</v>
+        <v>0.02216483631215885</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1444255971319626</v>
+        <v>0.1033254495831368</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06712757847361361</v>
+        <v>0.02216483631215885</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2282922337881345</v>
+        <v>0.2325704828809594</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06679385975031506</v>
+        <v>0.04095452293621545</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3157738565377144</v>
+        <v>0.318540835994269</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0667713719657262</v>
+        <v>0.04088763504290056</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1331857253003279</v>
+        <v>0.1037626130768142</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06851253923908381</v>
+        <v>0.0226925705100674</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1438469288529166</v>
+        <v>0.1037626130768142</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06872585415155678</v>
+        <v>0.0226925705100674</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2269271812186474</v>
+        <v>0.2312864619123362</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06838418974437017</v>
+        <v>0.04192963062517296</v>
       </c>
       <c r="N108" t="n">
-        <v>0.31313538683146</v>
+        <v>0.3203162560800721</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06836116653633872</v>
+        <v>0.04186115016296962</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1284035362253302</v>
+        <v>0.1041865032895887</v>
       </c>
       <c r="G109" t="n">
-        <v>0.070105854105109</v>
+        <v>0.02322030470797595</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1435446939925</v>
+        <v>0.1041865032895887</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07032412982949998</v>
+        <v>0.02322030470797595</v>
       </c>
       <c r="L109" t="n">
-        <v>0.226232001526938</v>
+        <v>0.2303036559533339</v>
       </c>
       <c r="M109" t="n">
-        <v>0.06997451973842529</v>
+        <v>0.04290473831413047</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3114562423441244</v>
+        <v>0.3185857006962723</v>
       </c>
       <c r="O109" t="n">
-        <v>0.06995096110695127</v>
+        <v>0.04283466528303868</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1286069226772293</v>
+        <v>0.1045973197177148</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07169916897113421</v>
+        <v>0.02374803890588449</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1425246681128773</v>
+        <v>0.1045973197177148</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07192240550744315</v>
+        <v>0.02374803890588449</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2262157654098196</v>
+        <v>0.2301295843662575</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07156484973248041</v>
+        <v>0.04387984600308797</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3099488620456025</v>
+        <v>0.3180567478291098</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07154075567756379</v>
+        <v>0.04380818040310774</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.131801416802121</v>
+        <v>0.1049952618574468</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07329248383715942</v>
+        <v>0.02427577310379303</v>
       </c>
       <c r="J111" t="n">
-        <v>0.140992626776213</v>
+        <v>0.1049952618574468</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07352068118538634</v>
+        <v>0.02427577310379303</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2251875435641053</v>
+        <v>0.229571766513412</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07315517972653554</v>
+        <v>0.04485495369204549</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3058256849057888</v>
+        <v>0.3167369754648243</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07313055024817632</v>
+        <v>0.0447816955231768</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1319925507461009</v>
+        <v>0.1053805292050388</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07488579870318461</v>
+        <v>0.02480350730170158</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1404543455446716</v>
+        <v>0.1053805292050388</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07511895686332952</v>
+        <v>0.02480350730170158</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2216564066866081</v>
+        <v>0.2290377217571029</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07474550972059066</v>
+        <v>0.04583006138100301</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3042991498945783</v>
+        <v>0.3156339615896561</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07472034481878885</v>
+        <v>0.04575521064324586</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.126185856655265</v>
+        <v>0.1057533212567451</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07647911356920982</v>
+        <v>0.02533124149961012</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1389155999804174</v>
+        <v>0.1057533212567451</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0767172325412727</v>
+        <v>0.02533124149961012</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2212314254741413</v>
+        <v>0.2272349694596348</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07633583971464578</v>
+        <v>0.04680516906996051</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3030816959818655</v>
+        <v>0.3151552841898448</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07631013938940137</v>
+        <v>0.04672872576331493</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.120386866675709</v>
+        <v>0.1061138375088201</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07807242843523503</v>
+        <v>0.02585897569751867</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1384821656456149</v>
+        <v>0.1061138375088201</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07831550821921587</v>
+        <v>0.02585897569751867</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2206215960534652</v>
+        <v>0.2270710289833133</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07792616970870089</v>
+        <v>0.04778027675891802</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3035848267638585</v>
+        <v>0.3125085212516309</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07789993396001391</v>
+        <v>0.04770224088338398</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1315615506388383</v>
+        <v>0.106462277457518</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07966574330126024</v>
+        <v>0.02638670989542721</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1373539435299064</v>
+        <v>0.106462277457518</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07991378389715906</v>
+        <v>0.02638670989542721</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2194138410482556</v>
+        <v>0.2260534196904433</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07951649970275602</v>
+        <v>0.04875538444787553</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2987392308156984</v>
+        <v>0.312701250761254</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07948972853062644</v>
+        <v>0.04867575600345305</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1286230365144156</v>
+        <v>0.1067988405990931</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08125905816728544</v>
+        <v>0.02691444409333575</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1371345052649679</v>
+        <v>0.1067988405990931</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08151205957510224</v>
+        <v>0.02691444409333575</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2174204709902436</v>
+        <v>0.2261896609433299</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08110682969681114</v>
+        <v>0.04973049213683305</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2966410423362543</v>
+        <v>0.3123410507049542</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08107952310123896</v>
+        <v>0.04964927112352211</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1195845225155364</v>
+        <v>0.1071237264297997</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08285237303331065</v>
+        <v>0.0274421782912443</v>
       </c>
       <c r="J117" t="n">
-        <v>0.136002346958125</v>
+        <v>0.1071237264297997</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08311033525304543</v>
+        <v>0.0274421782912443</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2151710392939142</v>
+        <v>0.2244872721042783</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08269715969086626</v>
+        <v>0.05070559982579055</v>
       </c>
       <c r="N117" t="n">
-        <v>0.2943307889763381</v>
+        <v>0.3110354990689714</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08266931767185148</v>
+        <v>0.05062278624359117</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1304640330354669</v>
+        <v>0.1074371344458919</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08444568789933585</v>
+        <v>0.02796991248915284</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1347762860812927</v>
+        <v>0.1074371344458919</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0847086109309886</v>
+        <v>0.02796991248915284</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2129950993737523</v>
+        <v>0.2241537725355935</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08428748968492138</v>
+        <v>0.05168070751474806</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2930489983867623</v>
+        <v>0.309592173839546</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08425911224246403</v>
+        <v>0.05159630136366023</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1212795924674735</v>
+        <v>0.1077392641436242</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08603900276536106</v>
+        <v>0.02849764668706138</v>
       </c>
       <c r="J119" t="n">
-        <v>0.132875140106386</v>
+        <v>0.1077392641436242</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08630688660893178</v>
+        <v>0.02849764668706138</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2119222046442428</v>
+        <v>0.2246966815995807</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08587781967897649</v>
+        <v>0.05265581520370557</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2914361982183388</v>
+        <v>0.3108186530029174</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08584890681307655</v>
+        <v>0.05256981648372929</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1230492252048226</v>
+        <v>0.1080303150192508</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08763231763138626</v>
+        <v>0.02902538088496993</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1323177265053199</v>
+        <v>0.1080303150192508</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08790516228687496</v>
+        <v>0.02902538088496993</v>
       </c>
       <c r="L120" t="n">
-        <v>0.209981908519871</v>
+        <v>0.225023518658545</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08746814967303163</v>
+        <v>0.05363092289266308</v>
       </c>
       <c r="N120" t="n">
-        <v>0.2886329161218797</v>
+        <v>0.3108225145453262</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08743870138368907</v>
+        <v>0.05354333160379835</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1267909556407806</v>
+        <v>0.1083104865690259</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08922563249741146</v>
+        <v>0.02955311508287848</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1313228627500092</v>
+        <v>0.1083104865690259</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08950343796481815</v>
+        <v>0.02955311508287848</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2083037644151217</v>
+        <v>0.2241418030747916</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08905847966708674</v>
+        <v>0.05460603058162059</v>
       </c>
       <c r="N121" t="n">
-        <v>0.285179679748197</v>
+        <v>0.3084113364530119</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08902849595430161</v>
+        <v>0.05451684672386742</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1185228081686139</v>
+        <v>0.1085799782892039</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09081894736343667</v>
+        <v>0.03008084928078702</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1304093663123692</v>
+        <v>0.1085799782892039</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09110171364276132</v>
+        <v>0.03008084928078702</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2052173257444799</v>
+        <v>0.224452355549876</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09064880966114186</v>
+        <v>0.05558113827057811</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2831170167481034</v>
+        <v>0.3083778335203567</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09061829052491413</v>
+        <v>0.05549036184393648</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1102628071815887</v>
+        <v>0.108838989676039</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09241226222946188</v>
+        <v>0.03060858347869556</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1288960546643147</v>
+        <v>0.108838989676039</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09269998932070452</v>
+        <v>0.03060858347869556</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2034521459224307</v>
+        <v>0.224488395871565</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09223913965519698</v>
+        <v>0.05655624595953562</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2789854547724104</v>
+        <v>0.3081654929515614</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09220808509552667</v>
+        <v>0.05646387696400553</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1140289770729715</v>
+        <v>0.1090877202257855</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09400557709548708</v>
+        <v>0.0311363176766041</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1278017452777606</v>
+        <v>0.1090877202257855</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09429826499864769</v>
+        <v>0.0311363176766041</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2016377783634591</v>
+        <v>0.2237305086896107</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09382946964925211</v>
+        <v>0.05753135364849313</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2776255214719305</v>
+        <v>0.3070672665133852</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0937978796661392</v>
+        <v>0.05743739208407459</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1178393422360288</v>
+        <v>0.1093263694346976</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09559889196151228</v>
+        <v>0.03166405187451266</v>
       </c>
       <c r="J125" t="n">
-        <v>0.126345255624622</v>
+        <v>0.1093263694346976</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09589654067659087</v>
+        <v>0.03166405187451266</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1983037764820501</v>
+        <v>0.224478190342228</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09541979964330723</v>
+        <v>0.05850646133745065</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2727777444974757</v>
+        <v>0.3072823401786331</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09538767423675172</v>
+        <v>0.05841090720414366</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.113697399537999</v>
+        <v>0.1095551367990296</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09719220682753749</v>
+        <v>0.03219178607242119</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1253454031768139</v>
+        <v>0.1095551367990296</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09749481635453405</v>
+        <v>0.03219178607242119</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1966119844656113</v>
+        <v>0.2245309371676322</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09701012963736233</v>
+        <v>0.05948156902640814</v>
       </c>
       <c r="N126" t="n">
-        <v>0.271275731270997</v>
+        <v>0.3068098999201094</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09697746880736424</v>
+        <v>0.05938442232421273</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1114741098657242</v>
+        <v>0.1097742218150359</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09878552169356269</v>
+        <v>0.03271952027032974</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1241264863118681</v>
+        <v>0.1097742218150359</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09909309203247724</v>
+        <v>0.03271952027032974</v>
       </c>
       <c r="L127" t="n">
-        <v>0.194254189328389</v>
+        <v>0.2241882455040382</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09860045963141746</v>
+        <v>0.06045667671536566</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2682413547051831</v>
+        <v>0.3086491317106186</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09856726337797679</v>
+        <v>0.06035793744428177</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1131554191631139</v>
+        <v>0.1099838239789706</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1003788365595879</v>
+        <v>0.03324725446823829</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1223971083629184</v>
+        <v>0.1099838239789706</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1006913677104204</v>
+        <v>0.03324725446823829</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1920505560232102</v>
+        <v>0.2238496116896613</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1001907896254726</v>
+        <v>0.06143178440432317</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2653095945294998</v>
+        <v>0.3083992215229653</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1001570579485893</v>
+        <v>0.06133145256435084</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1037671293544094</v>
+        <v>0.1101841427870881</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1019721514256131</v>
+        <v>0.03377498866614683</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1199839236132118</v>
+        <v>0.1101841427870881</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1022896433883636</v>
+        <v>0.03377498866614683</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1915433902715682</v>
+        <v>0.2222145320627165</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1017811196195277</v>
+        <v>0.06240689209328068</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2615384660879576</v>
+        <v>0.3070593553299539</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1017468525192018</v>
+        <v>0.0623049676844199</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1133350423638516</v>
+        <v>0.1103753777356427</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1035654662916383</v>
+        <v>0.03430272286405537</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1190138692793073</v>
+        <v>0.1103753777356427</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1038879190663068</v>
+        <v>0.03430272286405537</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1889749977949558</v>
+        <v>0.2223825029614189</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1033714496135828</v>
+        <v>0.0633819997822382</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2593859847245671</v>
+        <v>0.307728719104389</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1033366470898144</v>
+        <v>0.06327848280448896</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1018849601156817</v>
+        <v>0.1105577283208886</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1051587811576635</v>
+        <v>0.03483045706196392</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1184138825777638</v>
+        <v>0.1105577283208886</v>
       </c>
       <c r="K131" t="n">
-        <v>0.10548619474425</v>
+        <v>0.03483045706196392</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1853876843148661</v>
+        <v>0.2226530207239836</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1049617796076379</v>
+        <v>0.0643571074711957</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2550101657833378</v>
+        <v>0.3079064988190749</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1049264416604269</v>
+        <v>0.06425199792455803</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1094426845341406</v>
+        <v>0.11073139403908</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1067520960236887</v>
+        <v>0.03535819125987246</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1167109007251401</v>
+        <v>0.11073139403908</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1070844704221931</v>
+        <v>0.03535819125987246</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1829237555527921</v>
+        <v>0.2240255816886257</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1065521096016931</v>
+        <v>0.06533221516015322</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2504690246082806</v>
+        <v>0.3065918804468166</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1065162362310394</v>
+        <v>0.06522551304462708</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1040340175434696</v>
+        <v>0.1108965743864713</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1083454108897139</v>
+        <v>0.035885925457781</v>
       </c>
       <c r="J133" t="n">
-        <v>0.114731860937995</v>
+        <v>0.1108965743864713</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1086827461001363</v>
+        <v>0.035885925457781</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1805255172302269</v>
+        <v>0.2231996821935605</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1081424395957482</v>
+        <v>0.06630732284911071</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2475205765434051</v>
+        <v>0.306584049960418</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1081060308016519</v>
+        <v>0.06619902816469614</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1096847610679097</v>
+        <v>0.1110534688593168</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1099387257557391</v>
+        <v>0.03641365965568955</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1138037004328877</v>
+        <v>0.1110534688593168</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1102810217780795</v>
+        <v>0.03641365965568955</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1800352750686632</v>
+        <v>0.2227748185770028</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1097327695898033</v>
+        <v>0.06728243053806823</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2463228369327218</v>
+        <v>0.3048821933326842</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1096958253722645</v>
+        <v>0.06717254328476521</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.100420717031702</v>
+        <v>0.1112022769538706</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1115320406217643</v>
+        <v>0.03694139385359809</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1113533564263769</v>
+        <v>0.1112022769538706</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1118792974560227</v>
+        <v>0.03694139385359809</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1772953347895942</v>
+        <v>0.2227504871771679</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1113230995838584</v>
+        <v>0.06825753822702574</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2444338211202409</v>
+        <v>0.3038854965364192</v>
       </c>
       <c r="O135" t="n">
-        <v>0.111285619942877</v>
+        <v>0.06814605840483427</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.09926768735908748</v>
+        <v>0.1113431981663871</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1131253554877895</v>
+        <v>0.03746912805150664</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1102077661350214</v>
+        <v>0.1113431981663871</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1134775731339659</v>
+        <v>0.03746912805150664</v>
       </c>
       <c r="L136" t="n">
-        <v>0.176048002114513</v>
+        <v>0.2235261843322707</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1129134295779135</v>
+        <v>0.06923264591598326</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2412115444499726</v>
+        <v>0.3065931455444278</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1128754145134895</v>
+        <v>0.06911957352490332</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.09625147397430733</v>
+        <v>0.1114764319931206</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1147186703538147</v>
+        <v>0.03799686224941518</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1097938667753803</v>
+        <v>0.1114764319931206</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1150758488119091</v>
+        <v>0.03799686224941518</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1748355827649125</v>
+        <v>0.2222014063805266</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1145037595719687</v>
+        <v>0.07020775360494076</v>
       </c>
       <c r="N137" t="n">
-        <v>0.238414022265927</v>
+        <v>0.3039043263295145</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1144652090841021</v>
+        <v>0.07009308864497239</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09239787880160266</v>
+        <v>0.1116021779303253</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1163119852198399</v>
+        <v>0.03852459644732373</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1084385955640123</v>
+        <v>0.1116021779303253</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1166741244898522</v>
+        <v>0.03852459644732373</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1712003824622856</v>
+        <v>0.2222756496601505</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1160940895660238</v>
+        <v>0.07118286129389828</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2367992699121144</v>
+        <v>0.3057182248644836</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1160550036547146</v>
+        <v>0.07106660376504145</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0907327037652145</v>
+        <v>0.1117206354742556</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1179053000858651</v>
+        <v>0.03905233064523227</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1074688897174765</v>
+        <v>0.1117206354742556</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1182724001677954</v>
+        <v>0.03905233064523227</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1701847069281255</v>
+        <v>0.2226484105093575</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1176844195600789</v>
+        <v>0.0721579689828558</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2345253027325451</v>
+        <v>0.3061340271221398</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1176447982253271</v>
+        <v>0.07204011888511051</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.09828175078938395</v>
+        <v>0.1118320041211656</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1194986149518904</v>
+        <v>0.03958006484314081</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1065116864523317</v>
+        <v>0.1118320041211656</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1198706758457386</v>
+        <v>0.03958006484314081</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1703308618839251</v>
+        <v>0.2226191852663628</v>
       </c>
       <c r="M140" t="n">
-        <v>0.119274749554134</v>
+        <v>0.07313307667181329</v>
       </c>
       <c r="N140" t="n">
-        <v>0.233350136071229</v>
+        <v>0.3039509190752877</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1192345927959396</v>
+        <v>0.07301363400517957</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.09507082179835208</v>
+        <v>0.1119364833673097</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1210919298179156</v>
+        <v>0.04010779904104936</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1074939229851366</v>
+        <v>0.1119364833673097</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1214689515236818</v>
+        <v>0.04010779904104936</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1697811530511774</v>
+        <v>0.2223874702693814</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1208650795481891</v>
+        <v>0.07410818436077081</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2350317852721766</v>
+        <v>0.3043680866967313</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1208243873665522</v>
+        <v>0.07398714912524863</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.09506773047058723</v>
+        <v>0.1120342727089421</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1226852446839408</v>
+        <v>0.0406355332389579</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1062303899517763</v>
+        <v>0.1120342727089421</v>
       </c>
       <c r="K142" t="n">
-        <v>0.123067227201625</v>
+        <v>0.0406355332389579</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1705075426469464</v>
+        <v>0.2228527618566286</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1224554095422443</v>
+        <v>0.07508329204972831</v>
       </c>
       <c r="N142" t="n">
-        <v>0.233772808631156</v>
+        <v>0.303484715959276</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1224141819371647</v>
+        <v>0.07496066424531769</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.09011398559377579</v>
+        <v>0.1121255716423171</v>
       </c>
       <c r="G143" t="n">
-        <v>0.124278559549966</v>
+        <v>0.04116326743686644</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1072634643623057</v>
+        <v>0.1121255716423171</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1246655028795681</v>
+        <v>0.04116326743686644</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1707976909580958</v>
+        <v>0.2234145563663193</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1240457395362994</v>
+        <v>0.07605839973868583</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2327999435879902</v>
+        <v>0.3052999928357255</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1240039765077773</v>
+        <v>0.07593417936538675</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09319693807193422</v>
+        <v>0.1122105796636891</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1258718744159912</v>
+        <v>0.04169100163477499</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1071354752792792</v>
+        <v>0.1122105796636891</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1262637785575113</v>
+        <v>0.04169100163477499</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1705474164701573</v>
+        <v>0.2223723501366686</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1256360695303545</v>
+        <v>0.07703350742764334</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2334086326792241</v>
+        <v>0.3043131032988846</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1255937710783898</v>
+        <v>0.07690769448545581</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.09931469198906809</v>
+        <v>0.1122894962693121</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1274651892820164</v>
+        <v>0.04221873583268353</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1063444433658364</v>
+        <v>0.1122894962693121</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1278620542354545</v>
+        <v>0.04221873583268353</v>
       </c>
       <c r="L145" t="n">
-        <v>0.170653610574126</v>
+        <v>0.2228256395058917</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1272263995244096</v>
+        <v>0.07800861511660086</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2351946129585128</v>
+        <v>0.3022232333215579</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1271835656490023</v>
+        <v>0.07788120960552487</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1024653514291829</v>
+        <v>0.1123625209554406</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1290585041480416</v>
+        <v>0.04274647003059208</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1069883892851169</v>
+        <v>0.1123625209554406</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1294603299133977</v>
+        <v>0.04274647003059208</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1708131646609974</v>
+        <v>0.2235739208122037</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1288167295184647</v>
+        <v>0.07898372280555836</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2358536214795119</v>
+        <v>0.3031295688765496</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1287733602196148</v>
+        <v>0.07885472472559393</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.09164702047628442</v>
+        <v>0.1124298532183289</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1306518190140668</v>
+        <v>0.04327420422850062</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1075653337002605</v>
+        <v>0.1124298532183289</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1310586055913409</v>
+        <v>0.04327420422850062</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1723229701217666</v>
+        <v>0.2226166899245768</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1304070595125199</v>
+        <v>0.07995883049451587</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2347813952958765</v>
+        <v>0.3038315842838254</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1303631547902274</v>
+        <v>0.07982823984566301</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1048578032143781</v>
+        <v>0.1124916925542311</v>
       </c>
       <c r="G148" t="n">
-        <v>0.132245133880092</v>
+        <v>0.04380193842640917</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1076732972744065</v>
+        <v>0.1124916925542311</v>
       </c>
       <c r="K148" t="n">
-        <v>0.132656881269284</v>
+        <v>0.04380193842640917</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1709799183474291</v>
+        <v>0.2236520420586384</v>
       </c>
       <c r="M148" t="n">
-        <v>0.131997389506575</v>
+        <v>0.08093393818347339</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2370736714612619</v>
+        <v>0.3035372951025692</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1319529493608399</v>
+        <v>0.08080175496573207</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1030958037274695</v>
+        <v>0.1125482384594015</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1338384487461172</v>
+        <v>0.04432967262431771</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1085103006706949</v>
+        <v>0.1125482384594015</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1342551569472272</v>
+        <v>0.04432967262431771</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1714809007289803</v>
+        <v>0.2216786444341086</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1335877195006301</v>
+        <v>0.08190904587243089</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2374261870293232</v>
+        <v>0.3024502526689711</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1335427439314524</v>
+        <v>0.08177527008580111</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1013591260995642</v>
+        <v>0.1125996904300945</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1354317636121424</v>
+        <v>0.04485740682222625</v>
       </c>
       <c r="J150" t="n">
-        <v>0.108674364552265</v>
+        <v>0.1125996904300945</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1358534326251704</v>
+        <v>0.04485740682222625</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1719228086574153</v>
+        <v>0.2236966959912295</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1351780494946852</v>
+        <v>0.08288415356138841</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2381346790537159</v>
+        <v>0.3023699215839255</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1351325385020649</v>
+        <v>0.08274878520587019</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0916458744146679</v>
+        <v>0.1126462479625644</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1370250784781676</v>
+        <v>0.0453851410201348</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1091635095822566</v>
+        <v>0.1126462479625644</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1374517083031136</v>
+        <v>0.0453851410201348</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1727025335237296</v>
+        <v>0.2216063956702432</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1367683794887403</v>
+        <v>0.08385926125034592</v>
       </c>
       <c r="N151" t="n">
-        <v>0.236294884588095</v>
+        <v>0.3009957664483278</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1367223330726774</v>
+        <v>0.08372230032593925</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.09495415275678606</v>
+        <v>0.1126881105530652</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1386183933441928</v>
+        <v>0.04591287521804335</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1089757564238093</v>
+        <v>0.1126881105530652</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1390499839810568</v>
+        <v>0.04591287521804335</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1730169667189182</v>
+        <v>0.2218079424113916</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1383587094827955</v>
+        <v>0.08483436893930343</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2370025406861161</v>
+        <v>0.3032272518630725</v>
       </c>
       <c r="O152" t="n">
-        <v>0.13831212764329</v>
+        <v>0.08469581544600831</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.09228206520992432</v>
+        <v>0.1127254776978515</v>
       </c>
       <c r="G153" t="n">
-        <v>0.140211708210218</v>
+        <v>0.04644060941595189</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1087091257400627</v>
+        <v>0.1127254776978515</v>
       </c>
       <c r="K153" t="n">
-        <v>0.140648259659</v>
+        <v>0.04644060941595189</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1750629996339768</v>
+        <v>0.2224015351549168</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1399490394768506</v>
+        <v>0.08580947662826094</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2384533844014343</v>
+        <v>0.3007638424290547</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1399019222139025</v>
+        <v>0.08566933056607735</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09664915831375837</v>
+        <v>0.1127585488931774</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1418050230762432</v>
+        <v>0.04696834361386043</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1086616649404704</v>
+        <v>0.1127585488931774</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1422465353369431</v>
+        <v>0.04696834361386043</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1738249114526431</v>
+        <v>0.2210873728410609</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1415393694709057</v>
+        <v>0.08678458431721844</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2407791725890451</v>
+        <v>0.3034050027471693</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1414917167845151</v>
+        <v>0.08664284568614643</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1072850735116708</v>
+        <v>0.1127875236352972</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1433983379422684</v>
+        <v>0.04749607781176898</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1092065483187768</v>
+        <v>0.1127875236352972</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1438448110148863</v>
+        <v>0.04749607781176898</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1768758843735564</v>
+        <v>0.2210656544100659</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1431296994649608</v>
+        <v>0.08775969200617595</v>
       </c>
       <c r="N155" t="n">
-        <v>0.24158372607652</v>
+        <v>0.300250197418311</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1430815113551276</v>
+        <v>0.08761636080621549</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.09920739356592692</v>
+        <v>0.1128126014204652</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1449916528082936</v>
+        <v>0.04802381200967751</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1111697254688814</v>
+        <v>0.1128126014204652</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1454430866928295</v>
+        <v>0.04802381200967751</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1786781397697039</v>
+        <v>0.2208365788021739</v>
       </c>
       <c r="M156" t="n">
-        <v>0.144720029459016</v>
+        <v>0.08873479969513347</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2423026236118997</v>
+        <v>0.3008988910433747</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1446713059257401</v>
+        <v>0.08858987592628455</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0993588853486117</v>
+        <v>0.1128339817449357</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1465849676743188</v>
+        <v>0.04855154620758607</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1126914449882693</v>
+        <v>0.1128339817449357</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1470413623707727</v>
+        <v>0.04855154620758607</v>
       </c>
       <c r="L157" t="n">
-        <v>0.179337836238129</v>
+        <v>0.2219003449576268</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1463103594530711</v>
+        <v>0.08970990738409097</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2478071771340246</v>
+        <v>0.3025505482232553</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1462611004963526</v>
+        <v>0.08956339104635361</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1026823157318101</v>
+        <v>0.1128518641049628</v>
       </c>
       <c r="G158" t="n">
-        <v>0.148178282540344</v>
+        <v>0.04907928040549461</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1131119554744254</v>
+        <v>0.1128518641049628</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1486396380487159</v>
+        <v>0.04907928040549461</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1809611323758762</v>
+        <v>0.2206571518166669</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1479006894471262</v>
+        <v>0.09068501507304849</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2511686985817347</v>
+        <v>0.3015046335588478</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1478508950669652</v>
+        <v>0.09053690616642267</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1121204515876069</v>
+        <v>0.1128664479968011</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1497715974063692</v>
+        <v>0.04960701460340315</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1154715055248347</v>
+        <v>0.1128664479968011</v>
       </c>
       <c r="K159" t="n">
-        <v>0.150237913726659</v>
+        <v>0.04960701460340315</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1853541867799892</v>
+        <v>0.222407198319536</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1494910194411813</v>
+        <v>0.09166012276200601</v>
       </c>
       <c r="N159" t="n">
-        <v>0.254558499893871</v>
+        <v>0.301560611651047</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1494406896375777</v>
+        <v>0.09151042128649173</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1006160597880872</v>
+        <v>0.1128779329167045</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1513649122723945</v>
+        <v>0.0501347488013117</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1155103437369821</v>
+        <v>0.1128779329167045</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1518361894046022</v>
+        <v>0.0501347488013117</v>
       </c>
       <c r="L160" t="n">
-        <v>0.186023158047512</v>
+        <v>0.2210506834064763</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1510813494352364</v>
+        <v>0.09263523045096352</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2578478930092735</v>
+        <v>0.3000179471007477</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1510304842081902</v>
+        <v>0.09248393640656079</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1051119072053359</v>
+        <v>0.1128865183609276</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1529582271384196</v>
+        <v>0.05066248299922024</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1174687187083529</v>
+        <v>0.1128865183609276</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1534344650825454</v>
+        <v>0.05066248299922024</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1890742047754887</v>
+        <v>0.2211878060177299</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1526716794292916</v>
+        <v>0.09361033813992102</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2582081898667827</v>
+        <v>0.3001761045088448</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1526202787788027</v>
+        <v>0.09345745152662986</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.115550760711438</v>
+        <v>0.1128924038257244</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1545515420044448</v>
+        <v>0.05119021719712878</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1187868790364317</v>
+        <v>0.1128924038257244</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1550327407604886</v>
+        <v>0.05119021719712878</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1922134855609632</v>
+        <v>0.2203187650935385</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1542620094233467</v>
+        <v>0.09458544582887853</v>
       </c>
       <c r="N162" t="n">
-        <v>0.2618107024052391</v>
+        <v>0.3021345484762333</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1542100733494153</v>
+        <v>0.09443096664669891</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1158753871784784</v>
+        <v>0.1128957888073495</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1561448568704701</v>
+        <v>0.05171795139503733</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1212050733187037</v>
+        <v>0.1128957888073495</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1566310164384317</v>
+        <v>0.05171795139503733</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1924471590009796</v>
+        <v>0.2199437595741446</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1558523394174018</v>
+        <v>0.09556055351783604</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2659267425634829</v>
+        <v>0.3005927436038076</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1557998679200278</v>
+        <v>0.09540448176676797</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1130291506282752</v>
+        <v>0.1128968728020569</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1577381717364953</v>
+        <v>0.05224568559294587</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1213635501526539</v>
+        <v>0.1128968728020569</v>
       </c>
       <c r="K164" t="n">
-        <v>0.158229292116375</v>
+        <v>0.05224568559294587</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1954930766291876</v>
+        <v>0.2216629883997902</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1574426694114569</v>
+        <v>0.09653566120679355</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2672480703919503</v>
+        <v>0.2999501544924633</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1573896624906403</v>
+        <v>0.09637799688683704</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1100796385383803</v>
+        <v>0.1128968728020569</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1593314866025205</v>
+        <v>0.05224568559294587</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1225674535565742</v>
+        <v>0.1128968728020569</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1598275677943181</v>
+        <v>0.05224568559294587</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1982139345026284</v>
+        <v>0.2201766505107168</v>
       </c>
       <c r="M165" t="n">
-        <v>0.159032999405512</v>
+        <v>0.09751076889575107</v>
       </c>
       <c r="N165" t="n">
-        <v>0.2699075724516177</v>
+        <v>0.2993062457430949</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1589794570612529</v>
+        <v>0.0973515120069061</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1151046917518124</v>
+        <v>0.1109842846224143</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1609248014685457</v>
+        <v>0.05224541706448186</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1246388698249943</v>
+        <v>0.1109842846224143</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1614258434722613</v>
+        <v>0.05224541706448186</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1999935636500114</v>
+        <v>0.2200849448471671</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1606233293995671</v>
+        <v>0.09848587658470857</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2729106531624996</v>
+        <v>0.3018604819565973</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1605692516318654</v>
+        <v>0.09832502712697515</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1211061258756482</v>
+        <v>0.1090936178201137</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1625181163345709</v>
+        <v>0.05224514853601784</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1255851277259047</v>
+        <v>0.1090936178201137</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1630241191502045</v>
+        <v>0.05224514853601784</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1997349410030808</v>
+        <v>0.2200880703493829</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1622136593936223</v>
+        <v>0.09946098427366609</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2758613948972194</v>
+        <v>0.3006123277338654</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1621590462024779</v>
+        <v>0.09929854224704422</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1190857565169644</v>
+        <v>0.1072260312051175</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1641114312005961</v>
+        <v>0.05224488000755383</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1267081227536322</v>
+        <v>0.1072260312051175</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1646223948281477</v>
+        <v>0.05224488000755383</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2024410434935807</v>
+        <v>0.2192862259576062</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1638039893876774</v>
+        <v>0.1004360919626236</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2785638800284003</v>
+        <v>0.3009612476757938</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1637488407730905</v>
+        <v>0.1002720573671133</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.119045399282838</v>
+        <v>0.1053826835872246</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1657047460666213</v>
+        <v>0.05224461147908981</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1277097504025032</v>
+        <v>0.1053826835872246</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1662206705060909</v>
+        <v>0.05224461147908981</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2045148480532553</v>
+        <v>0.218979610612079</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1653943193817325</v>
+        <v>0.1014111996515811</v>
       </c>
       <c r="N169" t="n">
-        <v>0.2805221909286653</v>
+        <v>0.3004067063832777</v>
       </c>
       <c r="O169" t="n">
-        <v>0.165338635343703</v>
+        <v>0.1012455724871823</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1169868697803457</v>
+        <v>0.1035647337763954</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1672980609326465</v>
+        <v>0.05224434295062579</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1287919061668442</v>
+        <v>0.1035647337763954</v>
       </c>
       <c r="K170" t="n">
-        <v>0.167818946184034</v>
+        <v>0.05224434295062579</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2052593316138485</v>
+        <v>0.2201684232530435</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1669846493757876</v>
+        <v>0.1023863073405386</v>
       </c>
       <c r="N170" t="n">
-        <v>0.283040409970638</v>
+        <v>0.300148168457212</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1669284299143155</v>
+        <v>0.1022190876072514</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1189119836165643</v>
+        <v>0.101773340582431</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1688913757986717</v>
+        <v>0.05224407442216177</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1288564855409819</v>
+        <v>0.101773340582431</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1694172218619772</v>
+        <v>0.05224407442216177</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2073774711071045</v>
+        <v>0.2197528628207417</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1685749793698428</v>
+        <v>0.1033614150294961</v>
       </c>
       <c r="N171" t="n">
-        <v>0.2834226195269411</v>
+        <v>0.2990850984984914</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1685182244849281</v>
+        <v>0.1031926027273205</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1188225563985706</v>
+        <v>0.1000096628152895</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1704846906646969</v>
+        <v>0.05224380589369776</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1299053840192428</v>
+        <v>0.1000096628152895</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1710154975399204</v>
+        <v>0.05224380589369776</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2079722434647672</v>
+        <v>0.2190331282554157</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1701653093638979</v>
+        <v>0.1043365227184536</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2851729019701982</v>
+        <v>0.2998169611080109</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1701080190555406</v>
+        <v>0.1041661178473895</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1137204037334414</v>
+        <v>0.09827485928477435</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1720780055307221</v>
+        <v>0.05224353736523374</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1315404970959536</v>
+        <v>0.09827485928477435</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1726137732178636</v>
+        <v>0.05224353736523374</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2091466256185809</v>
+        <v>0.2191094184973073</v>
       </c>
       <c r="M173" t="n">
-        <v>0.171755639357953</v>
+        <v>0.1053116304074111</v>
       </c>
       <c r="N173" t="n">
-        <v>0.2866953396730323</v>
+        <v>0.2977432208866653</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1716978136261531</v>
+        <v>0.1051396329674586</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1276073412282536</v>
+        <v>0.09657008880084116</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1736713203967473</v>
+        <v>0.05224326883676972</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1313637202654406</v>
+        <v>0.09657008880084116</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1742120488958067</v>
+        <v>0.05224326883676972</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2113035945002896</v>
+        <v>0.2180819324866589</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1733459693520081</v>
+        <v>0.1062867380963687</v>
       </c>
       <c r="N174" t="n">
-        <v>0.2887940150080667</v>
+        <v>0.2979633424353494</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1732876081967656</v>
+        <v>0.1061131480875277</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1184851844900838</v>
+        <v>0.09489651017329602</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1752646352627725</v>
+        <v>0.0522430003083057</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1335769490220307</v>
+        <v>0.09489651017329602</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1758103245737499</v>
+        <v>0.0522430003083057</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2115461270416375</v>
+        <v>0.2175508691637122</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1749362993460633</v>
+        <v>0.1072618457853262</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2932730103479247</v>
+        <v>0.2997767903549581</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1748774027673781</v>
+        <v>0.1070866632075967</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1203655338288232</v>
+        <v>0.09325528221209185</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1768579501287977</v>
+        <v>0.05224273177984168</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1332842426286044</v>
+        <v>0.09325528221209185</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1774086002516931</v>
+        <v>0.05224273177984168</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2143050201550474</v>
+        <v>0.2173164274687096</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1765266293401184</v>
+        <v>0.1082369534742837</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2950778834648569</v>
+        <v>0.2983830292463865</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1764671973379907</v>
+        <v>0.1080601783276657</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1312961555317511</v>
+        <v>0.09164756372703751</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1784512649948229</v>
+        <v>0.05224246325137766</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1347356602850603</v>
+        <v>0.09164756372703751</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1790068759296363</v>
+        <v>0.05224246325137766</v>
       </c>
       <c r="L177" t="n">
-        <v>0.216048282932749</v>
+        <v>0.2170788063418929</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1781169593341735</v>
+        <v>0.1092120611632412</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2967983080382394</v>
+        <v>0.2992815237105293</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1780569919086032</v>
+        <v>0.1090336934477348</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1322568938747891</v>
+        <v>0.09007451352808303</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1800445798608481</v>
+        <v>0.05224219472291365</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1359272148144334</v>
+        <v>0.09007451352808303</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1806051516075795</v>
+        <v>0.05224219472291365</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2165326683103668</v>
+        <v>0.2174382047235042</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1797072893282286</v>
+        <v>0.1101871688521987</v>
       </c>
       <c r="N178" t="n">
-        <v>0.2971730897041305</v>
+        <v>0.2967717383482813</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1796467864792157</v>
+        <v>0.1100072085678039</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1232165599305954</v>
+        <v>0.08853729042504023</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1816378947268733</v>
+        <v>0.05224192619444963</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1374263449673301</v>
+        <v>0.08853729042504023</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1822034272855226</v>
+        <v>0.05224192619444963</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2199070378510361</v>
+        <v>0.2177948215537857</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1812976193222837</v>
+        <v>0.1111622765411562</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3011321005010593</v>
+        <v>0.2986531377605375</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1812365810498283</v>
+        <v>0.110980723687873</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1311439647718282</v>
+        <v>0.08703705322785614</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1832312095928985</v>
+        <v>0.05224165766598562</v>
       </c>
       <c r="J180" t="n">
-        <v>0.137400489494357</v>
+        <v>0.08703705322785614</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1838017029634658</v>
+        <v>0.05224165766598562</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2196202531178923</v>
+        <v>0.2167488557729791</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1828879493163388</v>
+        <v>0.1121373842301137</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3016052124675559</v>
+        <v>0.2961251865481929</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1828263756204408</v>
+        <v>0.111954238807942</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1240079194711456</v>
+        <v>0.08557496074634562</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1848245244589238</v>
+        <v>0.0522413891375216</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1391170871461204</v>
+        <v>0.08557496074634562</v>
       </c>
       <c r="K181" t="n">
-        <v>0.185399978641409</v>
+        <v>0.0522413891375216</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2225211756740709</v>
+        <v>0.2159005063213268</v>
       </c>
       <c r="M181" t="n">
-        <v>0.184478279310394</v>
+        <v>0.1131124919190712</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3056222976421492</v>
+        <v>0.2988873493121418</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1844161701910533</v>
+        <v>0.1129277539280111</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.123777235101206</v>
+        <v>0.08415217179045252</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1864178393249489</v>
+        <v>0.05224112060905758</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1396435766732269</v>
+        <v>0.08415217179045252</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1869982543193522</v>
+        <v>0.05224112060905758</v>
       </c>
       <c r="L182" t="n">
-        <v>0.222758667082707</v>
+        <v>0.2163499721390707</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1860686093044491</v>
+        <v>0.1140875996080288</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3071132280633688</v>
+        <v>0.2967390906532797</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1860059647616659</v>
+        <v>0.1139012690480801</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1234207227346674</v>
+        <v>0.08276984517002477</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1880111541909742</v>
+        <v>0.05224085208059357</v>
       </c>
       <c r="J183" t="n">
-        <v>0.140547396826283</v>
+        <v>0.08276984517002477</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1885965299972954</v>
+        <v>0.05224085208059357</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2237815889069362</v>
+        <v>0.2169974521664529</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1876589392985042</v>
+        <v>0.1150627072969863</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3060078757697441</v>
+        <v>0.2974798751725013</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1875957593322784</v>
+        <v>0.1148747841681492</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.131907193444188</v>
+        <v>0.08142913969491374</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1896044690569993</v>
+        <v>0.05224058355212955</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1400959863558953</v>
+        <v>0.08142913969491374</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1901948056752386</v>
+        <v>0.05224058355212955</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2244388027098939</v>
+        <v>0.2152431453437153</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1892492692925593</v>
+        <v>0.1160378149859438</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3098361127998044</v>
+        <v>0.2967091674707014</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1891855539028909</v>
+        <v>0.1158482992882183</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1262638358496802</v>
+        <v>0.08013121417505793</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1911977839230246</v>
+        <v>0.05224031502366553</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1411844441889188</v>
+        <v>0.08013121417505793</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1917930813531817</v>
+        <v>0.05224031502366553</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2245169569826108</v>
+        <v>0.2151872506111001</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1908395992866145</v>
+        <v>0.1170129226749013</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3095283097718757</v>
+        <v>0.2976264321487749</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1907753484735034</v>
+        <v>0.1168218144082873</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1366082800565211</v>
+        <v>0.0788772274202811</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1927910987890498</v>
+        <v>0.05224004649520151</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1408436924640742</v>
+        <v>0.0788772274202811</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1933913570311249</v>
+        <v>0.05224004649520151</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2253820443656686</v>
+        <v>0.2158263973253481</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1924299292806696</v>
+        <v>0.1179880303638588</v>
       </c>
       <c r="N186" t="n">
-        <v>0.310803313331839</v>
+        <v>0.2960168434093133</v>
       </c>
       <c r="O186" t="n">
-        <v>0.192365143044116</v>
+        <v>0.1177953295283564</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1289452498563202</v>
+        <v>0.07766833824051793</v>
       </c>
       <c r="G187" t="n">
-        <v>0.194384413655075</v>
+        <v>0.0522397779667375</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1420951906871557</v>
+        <v>0.07766833824051793</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1949896327090681</v>
+        <v>0.0522397779667375</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2265348259008732</v>
+        <v>0.2141411401811776</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1940202592747247</v>
+        <v>0.1189631380528163</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3103614289808835</v>
+        <v>0.2943319296513375</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1939549376147285</v>
+        <v>0.1187688446484255</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1372746304696043</v>
+        <v>0.07650570544559608</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1959777285211002</v>
+        <v>0.05223950943827348</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1414388190283595</v>
+        <v>0.07650570544559608</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1965879083870113</v>
+        <v>0.05223950943827348</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2257751133918569</v>
+        <v>0.2147298892489758</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1956105892687798</v>
+        <v>0.1199382457417738</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3102023986386216</v>
+        <v>0.2945720777534606</v>
       </c>
       <c r="O188" t="n">
-        <v>0.195544732185341</v>
+        <v>0.1197423597684945</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1335963071169005</v>
+        <v>0.07539048784544626</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1975710433871254</v>
+        <v>0.05223924090980946</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1425744576578818</v>
+        <v>0.07539048784544626</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1981861840649545</v>
+        <v>0.05223924090980946</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2283027186422521</v>
+        <v>0.213994280610289</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1972009192628349</v>
+        <v>0.1209133534307313</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3109259642246657</v>
+        <v>0.2959421837206795</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1971345267559536</v>
+        <v>0.1207158748885635</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1309101650187358</v>
+        <v>0.07431911244288951</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1991643582531506</v>
+        <v>0.05223897238134544</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1422019867459187</v>
+        <v>0.07431911244288951</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1997844597428976</v>
+        <v>0.05223897238134544</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2274174534556914</v>
+        <v>0.2144359503466632</v>
       </c>
       <c r="M190" t="n">
-        <v>0.19879124925689</v>
+        <v>0.1218884611196888</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3135318676586276</v>
+        <v>0.2932471435579911</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1987243213265661</v>
+        <v>0.1216893900086326</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1342160893956371</v>
+        <v>0.07326434720578863</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2007576731191758</v>
+        <v>0.05223870385288143</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1429212864626663</v>
+        <v>0.07326434720578863</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2013827354208408</v>
+        <v>0.05223870385288143</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2281191296358071</v>
+        <v>0.2143565345396446</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2003815792509452</v>
+        <v>0.1228635688086463</v>
       </c>
       <c r="N191" t="n">
-        <v>0.31351985086012</v>
+        <v>0.2930918532703922</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2003141158971786</v>
+        <v>0.1226629051287017</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1305139654681314</v>
+        <v>0.07222261913696688</v>
       </c>
       <c r="G192" t="n">
-        <v>0.202350987985201</v>
+        <v>0.05223843532441741</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1434322369783207</v>
+        <v>0.07222261913696688</v>
       </c>
       <c r="K192" t="n">
-        <v>0.202981011098784</v>
+        <v>0.05223843532441741</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2285075589862317</v>
+        <v>0.2132576692707798</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2019719092450003</v>
+        <v>0.1238386764976039</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3130896557487551</v>
+        <v>0.2911812088628802</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2019039104677912</v>
+        <v>0.1236364202487708</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1358036784567458</v>
+        <v>0.07119508704634982</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2039443028512262</v>
+        <v>0.0522381667959534</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1442347184630783</v>
+        <v>0.07119508704634982</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2045792867767272</v>
+        <v>0.0522381667959534</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2298825533105976</v>
+        <v>0.2142409906216146</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2035622392390554</v>
+        <v>0.1248137841865614</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3160410242441452</v>
+        <v>0.2906201063404514</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2034937050384037</v>
+        <v>0.1246099353688398</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1290851135820072</v>
+        <v>0.0701829097437728</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2055376177172514</v>
+        <v>0.05223789826748938</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1435286110871349</v>
+        <v>0.0701829097437728</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2061775624546704</v>
+        <v>0.05223789826748938</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2309439244125373</v>
+        <v>0.2123081346736954</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2051525692331105</v>
+        <v>0.1257888918755189</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3164736982659023</v>
+        <v>0.2927134417081032</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2050834996090162</v>
+        <v>0.1255834504889088</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1403581560644425</v>
+        <v>0.06918724603916014</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2071309325832766</v>
+        <v>0.05223762973902536</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1438137950206869</v>
+        <v>0.06918724603916014</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2077758381326136</v>
+        <v>0.05223762973902536</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2303914840956832</v>
+        <v>0.2128607375085684</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2067428992271656</v>
+        <v>0.1267639995644764</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3173874197336392</v>
+        <v>0.2916661109708322</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2066732941796287</v>
+        <v>0.1265569656089779</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1296226911245789</v>
+        <v>0.06820925474234867</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2087242474493018</v>
+        <v>0.05223736121056134</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1453901504339303</v>
+        <v>0.06820925474234867</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2093741138105567</v>
+        <v>0.05223736121056134</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2302250441636676</v>
+        <v>0.2125004352077797</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2083332292212208</v>
+        <v>0.1277391072534339</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3157819305669676</v>
+        <v>0.2903830101336354</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2082630887502412</v>
+        <v>0.127530480729047</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1408786039829433</v>
+        <v>0.06725009466326111</v>
       </c>
       <c r="G197" t="n">
-        <v>0.210317562315327</v>
+        <v>0.05223709268209733</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1441575574970613</v>
+        <v>0.06725009466326111</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2109723894884999</v>
+        <v>0.05223709268209733</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2319444164201231</v>
+        <v>0.2122288638528756</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2099235592152759</v>
+        <v>0.1287142149423914</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3166569726855004</v>
+        <v>0.2876690352015099</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2098528833208538</v>
+        <v>0.1285039958491161</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1301257798600626</v>
+        <v>0.06631092461175615</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2119108771813522</v>
+        <v>0.05223682415363331</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1456158963802761</v>
+        <v>0.06631092461175615</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2125706651664431</v>
+        <v>0.05223682415363331</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2306494126686822</v>
+        <v>0.2101476595254024</v>
       </c>
       <c r="M198" t="n">
-        <v>0.211513889209331</v>
+        <v>0.1296893226313489</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3171122880088494</v>
+        <v>0.2876290821794525</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2114426778914663</v>
+        <v>0.1294775109691851</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1413641039764639</v>
+        <v>0.06539290339769417</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2135041920473774</v>
+        <v>0.05223655562516929</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1448650472537706</v>
+        <v>0.06539290339769417</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2141689408443863</v>
+        <v>0.05223655562516929</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2309398447129771</v>
+        <v>0.2114584583069063</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2131042192033862</v>
+        <v>0.1306644303203064</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3182476184566269</v>
+        <v>0.28556804707246</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2130324724620788</v>
+        <v>0.1304510260892542</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1335934615526741</v>
+        <v>0.06449718983099532</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2150975069134026</v>
+        <v>0.05223628709670528</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1456048902877412</v>
+        <v>0.06449718983099532</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2157672165223294</v>
+        <v>0.05223628709670528</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2315155243566404</v>
+        <v>0.2087628962789334</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2146945491974412</v>
+        <v>0.131639538009264</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3202627059484456</v>
+        <v>0.2846908258855293</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2146222670326914</v>
+        <v>0.1314245412093232</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1298137378092202</v>
+        <v>0.06362494272150078</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2166908217794278</v>
+        <v>0.05223601856824125</v>
       </c>
       <c r="J201" t="n">
-        <v>0.145135305652384</v>
+        <v>0.06362494272150078</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2173654922002727</v>
+        <v>0.05223601856824125</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2319762634033046</v>
+        <v>0.2082626095230299</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2162848791914964</v>
+        <v>0.1326146456982214</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3178572924039172</v>
+        <v>0.2835023146236577</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2162120616033039</v>
+        <v>0.1323980563293923</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1380248179666294</v>
+        <v>0.06277732087912867</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2182841366454531</v>
+        <v>0.05223575003977724</v>
       </c>
       <c r="J202" t="n">
-        <v>0.145556173517895</v>
+        <v>0.06277732087912867</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2189637678782158</v>
+        <v>0.05223575003977724</v>
       </c>
       <c r="L202" t="n">
-        <v>0.233021873656602</v>
+        <v>0.2094592341207421</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2178752091855515</v>
+        <v>0.133589753387179</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3201311197426544</v>
+        <v>0.2827074092918417</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2178018561739164</v>
+        <v>0.1333715714494614</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1312265872454283</v>
+        <v>0.06195548311372233</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2198774515114783</v>
+        <v>0.05223548151131322</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1464673740544704</v>
+        <v>0.06195548311372233</v>
       </c>
       <c r="K203" t="n">
-        <v>0.220562043556159</v>
+        <v>0.05223548151131322</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2326521669201651</v>
+        <v>0.2076544061536162</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2194655391796066</v>
+        <v>0.1345648610761365</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3207839298842694</v>
+        <v>0.2842110058950784</v>
       </c>
       <c r="O203" t="n">
-        <v>0.219391650744529</v>
+        <v>0.1343450865695304</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1374189308661443</v>
+        <v>0.06116058823519772</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2214707663775035</v>
+        <v>0.05223521298284921</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1470687874323064</v>
+        <v>0.06116058823519772</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2221603192341022</v>
+        <v>0.05223521298284921</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2344669549976263</v>
+        <v>0.2089497617031984</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2210558691736617</v>
+        <v>0.135539968765094</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3212154647483744</v>
+        <v>0.2817180004383646</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2209814453151415</v>
+        <v>0.1353186016895995</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1306017340493041</v>
+        <v>0.06039379505340035</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2230640812435286</v>
+        <v>0.05223494445438519</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1474602938215991</v>
+        <v>0.06039379505340035</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2237585949120454</v>
+        <v>0.05223494445438519</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2341660496926181</v>
+        <v>0.206546936851035</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2226461991677169</v>
+        <v>0.1365150764540515</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3224254662545818</v>
+        <v>0.2802332889266975</v>
       </c>
       <c r="O205" t="n">
-        <v>0.222571239885754</v>
+        <v>0.1362921168096685</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1287748820154348</v>
+        <v>0.05965626237824385</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2246573961095538</v>
+        <v>0.05223467592592117</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1475417733925447</v>
+        <v>0.05965626237824385</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2253568705899885</v>
+        <v>0.05223467592592117</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2339492628087729</v>
+        <v>0.2069475676786721</v>
       </c>
       <c r="M206" t="n">
-        <v>0.224236529161772</v>
+        <v>0.137490184143009</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3210136763225037</v>
+        <v>0.2782617673650738</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2241610344563665</v>
+        <v>0.1372656319297376</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1289382599850634</v>
+        <v>0.05894914901957625</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2262507109755791</v>
+        <v>0.05223440739745715</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1469131063153393</v>
+        <v>0.05894914901957625</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2269551462679317</v>
+        <v>0.05223440739745715</v>
       </c>
       <c r="L207" t="n">
-        <v>0.235316406149723</v>
+        <v>0.2062532902676559</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2258268591558271</v>
+        <v>0.1384652918319665</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3203798368717525</v>
+        <v>0.2776083317584903</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2257508290269791</v>
+        <v>0.1382391470498066</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1430917531787168</v>
+        <v>0.05827361378730854</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2278440258416043</v>
+        <v>0.05223413886899314</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1467741727601789</v>
+        <v>0.05827361378730854</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2285534219458749</v>
+        <v>0.05223413886899314</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2347672915191012</v>
+        <v>0.2064657406995327</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2274171891498822</v>
+        <v>0.139440399520924</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3231236898219405</v>
+        <v>0.2782778781119442</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2273406235975916</v>
+        <v>0.1392126621698757</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1432352468169221</v>
+        <v>0.05763081549129147</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2294373407076295</v>
+        <v>0.05223387034052912</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1473248528972599</v>
+        <v>0.05763081549129147</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2301516976238181</v>
+        <v>0.05223387034052912</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2342017307205396</v>
+        <v>0.2063865550558487</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2290075191439373</v>
+        <v>0.1404155072098815</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3234449770926798</v>
+        <v>0.2753753024304322</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2289304181682041</v>
+        <v>0.1401861772899448</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1423686261202062</v>
+        <v>0.05702191294143326</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2310306555736547</v>
+        <v>0.0522336018120651</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1472650268967782</v>
+        <v>0.05702191294143326</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2317499733017613</v>
+        <v>0.0522336018120651</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2360195355576706</v>
+        <v>0.20411736941815</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2305978491379924</v>
+        <v>0.1413906148988391</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3222434406035832</v>
+        <v>0.2748055007189514</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2305202127388166</v>
+        <v>0.1411596924100139</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1404917763090962</v>
+        <v>0.05644806494758749</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2326239704396799</v>
+        <v>0.05223333328360108</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1470945749289301</v>
+        <v>0.05644806494758749</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2333482489797045</v>
+        <v>0.05223333328360108</v>
       </c>
       <c r="L211" t="n">
-        <v>0.236220517834127</v>
+        <v>0.2034598198679831</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2321881791320476</v>
+        <v>0.1423657225877966</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3237188222742623</v>
+        <v>0.2748733689824986</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2321100073094292</v>
+        <v>0.1421332075300829</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.140604582604119</v>
+        <v>0.05591043031965938</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2342172853057051</v>
+        <v>0.05223306475513707</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1481133771639118</v>
+        <v>0.05591043031965938</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2349465246576476</v>
+        <v>0.05223306475513707</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2345044893535409</v>
+        <v>0.2032155424868938</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2337785091261027</v>
+        <v>0.1433408302767541</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3248708640243297</v>
+        <v>0.2755838032260707</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2336998018800417</v>
+        <v>0.143106722650152</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1357069302258015</v>
+        <v>0.05541016786750573</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2358106001717303</v>
+        <v>0.05223279622667305</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1477213137719192</v>
+        <v>0.05541016786750573</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2365448003355908</v>
+        <v>0.05223279622667305</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2359712619195449</v>
+        <v>0.2028861733564287</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2353688391201578</v>
+        <v>0.1443159379657116</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3223993077733979</v>
+        <v>0.2743416994546646</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2352895964506543</v>
+        <v>0.144080237770221</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.137798704394671</v>
+        <v>0.05494843640102844</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2374039150377555</v>
+        <v>0.05223252769820903</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1487182649231485</v>
+        <v>0.05494843640102844</v>
       </c>
       <c r="K214" t="n">
-        <v>0.238143076013534</v>
+        <v>0.05223252769820903</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2351206473357714</v>
+        <v>0.2038733485581338</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2369591691142129</v>
+        <v>0.1452910456546691</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3254038954410788</v>
+        <v>0.2723519536732774</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2368793910212668</v>
+        <v>0.1450537528902901</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1438797903312541</v>
+        <v>0.05494843640102841</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2389972299037807</v>
+        <v>0.05223252769820903</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1486041107877961</v>
+        <v>0.05494843640102841</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2397413516914772</v>
+        <v>0.05223252769820903</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2365524574058528</v>
+        <v>0.2025787041735554</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2385494991082681</v>
+        <v>0.1462661533436266</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3226843689469847</v>
+        <v>0.2732194618869058</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2384691855918793</v>
+        <v>0.1460272680103591</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1419500732560781</v>
+        <v>0.05341675632462155</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2405905447698059</v>
+        <v>0.0522244268905535</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1476787315360578</v>
+        <v>0.05341675632462155</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2413396273694203</v>
+        <v>0.0522244268905535</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2352665039334216</v>
+        <v>0.2013038762842397</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2401398291023232</v>
+        <v>0.1472412610325841</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3227404702107283</v>
+        <v>0.2734491201005468</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2400589801624919</v>
+        <v>0.1470007831304282</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1390094383896698</v>
+        <v>0.05190155779035301</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2421838596358311</v>
+        <v>0.05221632608289797</v>
       </c>
       <c r="J217" t="n">
-        <v>0.14804200733813</v>
+        <v>0.05190155779035301</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2429379030473636</v>
+        <v>0.05221632608289797</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2358625987221102</v>
+        <v>0.2010505009717328</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2417301590963783</v>
+        <v>0.1482163687215416</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3244719411519214</v>
+        <v>0.2713458243191974</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2416487747331043</v>
+        <v>0.1479742982504973</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1320577709525562</v>
+        <v>0.0504035045626177</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2437771745018563</v>
+        <v>0.05220822527524244</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1480938183642087</v>
+        <v>0.0504035045626177</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2445361787253067</v>
+        <v>0.05220822527524244</v>
       </c>
       <c r="L218" t="n">
-        <v>0.235240553575551</v>
+        <v>0.2024202143175811</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2433204890904334</v>
+        <v>0.1491914764104991</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3243785236901765</v>
+        <v>0.2702144705478544</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2432385693037169</v>
+        <v>0.1489478133705663</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1360949561652645</v>
+        <v>0.04892326040581389</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2453704893678815</v>
+        <v>0.0522001244675869</v>
       </c>
       <c r="J219" t="n">
-        <v>0.14783404478449</v>
+        <v>0.04892326040581389</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2461344544032499</v>
+        <v>0.0522001244675869</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2362001802973765</v>
+        <v>0.2025146524033306</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2449108190844885</v>
+        <v>0.1501665840994566</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3238599597451061</v>
+        <v>0.2721599547915149</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2448283638743294</v>
+        <v>0.1499213284906354</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1371208792483214</v>
+        <v>0.04746148908433868</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2469638042339067</v>
+        <v>0.05219202365993136</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1488625667691703</v>
+        <v>0.04746148908433868</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2477327300811931</v>
+        <v>0.05219202365993136</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2357412906912192</v>
+        <v>0.2004354513105278</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2465011490785436</v>
+        <v>0.1511416917884142</v>
       </c>
       <c r="N220" t="n">
-        <v>0.3234159912363218</v>
+        <v>0.2694871730551757</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2464181584449419</v>
+        <v>0.1508948436107044</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1371354254222541</v>
+        <v>0.04601885436259022</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2485571190999319</v>
+        <v>0.05218392285227583</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1476792644884453</v>
+        <v>0.04601885436259022</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2493310057591362</v>
+        <v>0.05218392285227583</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2371636965607113</v>
+        <v>0.2004777388640211</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2480914790725988</v>
+        <v>0.1521167994773717</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3259463600834367</v>
+        <v>0.2691766252809624</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2480079530155545</v>
+        <v>0.1518683587307735</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1401287217648426</v>
+        <v>0.04459602000496359</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2501504339659572</v>
+        <v>0.0521758220446203</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1485820140296811</v>
+        <v>0.04459602000496359</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2509292814370794</v>
+        <v>0.0521758220446203</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2373386459336336</v>
+        <v>0.2005223671344355</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2496818090666539</v>
+        <v>0.1530919071663292</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3262080161949537</v>
+        <v>0.268371693569229</v>
       </c>
       <c r="O222" t="n">
-        <v>0.249597747586167</v>
+        <v>0.1528418738508426</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1398703982600775</v>
+        <v>0.04319364977585692</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2517437488319823</v>
+        <v>0.05216772123696476</v>
       </c>
       <c r="J223" t="n">
-        <v>0.148059910843785</v>
+        <v>0.04319364977585692</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2525275571150226</v>
+        <v>0.05216772123696476</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2348701490538722</v>
+        <v>0.2002681222396867</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2512721390607091</v>
+        <v>0.1540670148552867</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3246544979262588</v>
+        <v>0.2701698814644922</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2511875421567796</v>
+        <v>0.1538153889709116</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1342898532308442</v>
+        <v>0.04181240743966834</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2533370636980075</v>
+        <v>0.05215962042930924</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1472976985578845</v>
+        <v>0.04181240743966834</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2541258327929658</v>
+        <v>0.05215962042930924</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2342768498033854</v>
+        <v>0.1989151878723436</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2528624690547641</v>
+        <v>0.1550421225442442</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3241821680235416</v>
+        <v>0.2693712710099357</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2527773367273921</v>
+        <v>0.1547889040909807</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1374228684183014</v>
+        <v>0.04045295676079298</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2549303785640328</v>
+        <v>0.0521515196216537</v>
       </c>
       <c r="J225" t="n">
-        <v>0.14703273332036</v>
+        <v>0.04045295676079298</v>
       </c>
       <c r="K225" t="n">
-        <v>0.255724108470909</v>
+        <v>0.0521515196216537</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2329174171543727</v>
+        <v>0.1988637477249754</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2544527990488192</v>
+        <v>0.1560172302332017</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3209714813398281</v>
+        <v>0.2678759442487438</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2543671312980046</v>
+        <v>0.1557624192110497</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1393052255636079</v>
+        <v>0.03911596150362902</v>
       </c>
       <c r="G226" t="n">
-        <v>0.256523693430058</v>
+        <v>0.05214341881399816</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1451023712795919</v>
+        <v>0.03911596150362902</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2573223841488522</v>
+        <v>0.05214341881399816</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2307505200790337</v>
+        <v>0.1998139854901512</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2560431290428744</v>
+        <v>0.1569923379221592</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3176028927281446</v>
+        <v>0.2690839832241002</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2559569258686171</v>
+        <v>0.1567359343311188</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1319727064079224</v>
+        <v>0.03780208543257353</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2581170082960831</v>
+        <v>0.05213531800634263</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1449439685839604</v>
+        <v>0.03780208543257353</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2589206598267954</v>
+        <v>0.05213531800634263</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2303348275495681</v>
+        <v>0.2003660848604398</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2576334590369295</v>
+        <v>0.1579674456111167</v>
       </c>
       <c r="N227" t="n">
-        <v>0.316456857041517</v>
+        <v>0.2691954699791889</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2575467204392297</v>
+        <v>0.1577094494511879</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1324610926924037</v>
+        <v>0.03651199231202452</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2597103231621083</v>
+        <v>0.0521272171986871</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1433948813818459</v>
+        <v>0.03651199231202452</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2605189355047385</v>
+        <v>0.0521272171986871</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2269290085381756</v>
+        <v>0.2001202295284106</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2592237890309846</v>
+        <v>0.1589425533000743</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3099138291329718</v>
+        <v>0.2674104865571939</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2591365150098421</v>
+        <v>0.1586829645712569</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1348061661582106</v>
+        <v>0.03524634590637736</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2613036380281336</v>
+        <v>0.05211911639103156</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1405924658216286</v>
+        <v>0.03524634590637736</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2621172111826817</v>
+        <v>0.05211911639103156</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2236917320170557</v>
+        <v>0.1980766031866323</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2608141190250397</v>
+        <v>0.1599176609890317</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3089542638555353</v>
+        <v>0.2675291150012992</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2607263095804547</v>
+        <v>0.159656479691326</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1290437085465017</v>
+        <v>0.03400580998003004</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2628969528941588</v>
+        <v>0.05211101558337603</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1384740780516889</v>
+        <v>0.03400580998003004</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2637154868606249</v>
+        <v>0.05211101558337603</v>
       </c>
       <c r="L230" t="n">
-        <v>0.220781666958408</v>
+        <v>0.1985353895276742</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2624044490190949</v>
+        <v>0.1608927686779892</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3037586160622332</v>
+        <v>0.2675514373546888</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2623161041510673</v>
+        <v>0.1606299948113951</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1312095015984359</v>
+        <v>0.03279104829738062</v>
       </c>
       <c r="G231" t="n">
-        <v>0.264490267760184</v>
+        <v>0.0521029147757205</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1368770742204073</v>
+        <v>0.03279104829738062</v>
       </c>
       <c r="K231" t="n">
-        <v>0.265313762538568</v>
+        <v>0.0521029147757205</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2174574823344324</v>
+        <v>0.1976967722441052</v>
       </c>
       <c r="M231" t="n">
-        <v>0.26399477901315</v>
+        <v>0.1618678763669468</v>
       </c>
       <c r="N231" t="n">
-        <v>0.2993073406060923</v>
+        <v>0.2680775356605464</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2639058987216797</v>
+        <v>0.1616035099314641</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.131339327055172</v>
+        <v>0.03160272462282439</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2660835826262092</v>
+        <v>0.05209481396806497</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1358388104761638</v>
+        <v>0.03160272462282439</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2669120382165113</v>
+        <v>0.05209481396806497</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2163778471173282</v>
+        <v>0.1991609350284944</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2655851090072051</v>
+        <v>0.1628429840559043</v>
       </c>
       <c r="N232" t="n">
-        <v>0.2947808923401385</v>
+        <v>0.267807491962056</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2654956932922923</v>
+        <v>0.1625770250515332</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1294689666578687</v>
+        <v>0.03044150272075939</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2676768974922344</v>
+        <v>0.05208671316040943</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1327966429673389</v>
+        <v>0.03044150272075939</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2685103138944545</v>
+        <v>0.05208671316040943</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2113014302792954</v>
+        <v>0.1973280615734109</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2671754390012602</v>
+        <v>0.1638180917448618</v>
       </c>
       <c r="N233" t="n">
-        <v>0.292359726117398</v>
+        <v>0.2685413883024017</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2670854878629048</v>
+        <v>0.1635505401716022</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1166342021476847</v>
+        <v>0.02930804635558278</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2692702123582596</v>
+        <v>0.05207861235275389</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1309879278423129</v>
+        <v>0.02930804635558278</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2701085895723976</v>
+        <v>0.05207861235275389</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2095869007925333</v>
+        <v>0.1975983355714238</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2687657689953153</v>
+        <v>0.1647931994338193</v>
       </c>
       <c r="N234" t="n">
-        <v>0.2865242967908969</v>
+        <v>0.2691793067247674</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2686752824335173</v>
+        <v>0.1645240552916713</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1248708152657789</v>
+        <v>0.02820301929169246</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2708635272242848</v>
+        <v>0.05207051154509836</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1303500212494662</v>
+        <v>0.02820301929169246</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2717068652503408</v>
+        <v>0.05207051154509836</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2054929276292418</v>
+        <v>0.1975719407151019</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2703560989893705</v>
+        <v>0.1657683071227768</v>
       </c>
       <c r="N235" t="n">
-        <v>0.2835550592136616</v>
+        <v>0.2688213292723372</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2702650770041299</v>
+        <v>0.1654975704117404</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1142145877533099</v>
+        <v>0.0271270852934839</v>
       </c>
       <c r="G236" t="n">
-        <v>0.27245684209031</v>
+        <v>0.05206241073744283</v>
       </c>
       <c r="J236" t="n">
-        <v>0.127620279337179</v>
+        <v>0.0271270852934839</v>
       </c>
       <c r="K236" t="n">
-        <v>0.273305140928284</v>
+        <v>0.05206241073744283</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2030781797616203</v>
+        <v>0.1966490606970145</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2719464289834256</v>
+        <v>0.1667434148117343</v>
       </c>
       <c r="N236" t="n">
-        <v>0.2793324682387182</v>
+        <v>0.2657675379882948</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2718548715747424</v>
+        <v>0.1664710855318094</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1116969371223752</v>
+        <v>0.02608090812535512</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2740501569563352</v>
+        <v>0.0520543099297873</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1259343354456838</v>
+        <v>0.02608090812535512</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2749034166062271</v>
+        <v>0.0520543099297873</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2017904214523267</v>
+        <v>0.1966298792097305</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2735367589774807</v>
+        <v>0.1677185225006918</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2774209828290759</v>
+        <v>0.2671180149158241</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2734446661453549</v>
+        <v>0.1674446006518785</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1132245631653024</v>
+        <v>0.02506515155170393</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2756434718223604</v>
+        <v>0.05204620912213177</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1255071653783892</v>
+        <v>0.02506515155170393</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2765016922841703</v>
+        <v>0.05204620912213177</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1975667550224983</v>
+        <v>0.1959145799458191</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2751270889715358</v>
+        <v>0.1686936301896493</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2728949749863117</v>
+        <v>0.2666728420981093</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2750344607159675</v>
+        <v>0.1684181157719475</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1087467536260607</v>
+        <v>0.02408047933692598</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2772367866883856</v>
+        <v>0.05203810831447623</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1232743453170947</v>
+        <v>0.02408047933692598</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2780999679621135</v>
+        <v>0.05203810831447623</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1954341527153334</v>
+        <v>0.1974033465978492</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2767174189655909</v>
+        <v>0.1696687378786069</v>
       </c>
       <c r="N239" t="n">
-        <v>0.2696567072603895</v>
+        <v>0.2666321015783343</v>
       </c>
       <c r="O239" t="n">
-        <v>0.27662425528658</v>
+        <v>0.1693916308920166</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1052634237363785</v>
+        <v>0.0231248448741309</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2788301015544108</v>
+        <v>0.05203000750682069</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1217357867636994</v>
+        <v>0.0231248448741309</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2796982436400567</v>
+        <v>0.05203000750682069</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1925924755418613</v>
+        <v>0.1954963628583899</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2783077489596461</v>
+        <v>0.1706438455675644</v>
       </c>
       <c r="N240" t="n">
-        <v>0.265505989050779</v>
+        <v>0.2678958753996831</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2782140498571925</v>
+        <v>0.1703651460120857</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1147744887279839</v>
+        <v>0.02218264969998622</v>
       </c>
       <c r="G241" t="n">
-        <v>0.280423416420436</v>
+        <v>0.05202190669916516</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1203914012201027</v>
+        <v>0.02218264969998622</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2812965193179999</v>
+        <v>0.05202190669916516</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1912415845131112</v>
+        <v>0.1951938124200103</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2798980789537012</v>
+        <v>0.1716189532565219</v>
       </c>
       <c r="N241" t="n">
-        <v>0.26124262975695</v>
+        <v>0.2660642456053393</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2798038444278051</v>
+        <v>0.1713386611321547</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1132798638326053</v>
+        <v>0.02125184720760147</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2820167312864612</v>
+        <v>0.05201380589150963</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1187411001882036</v>
+        <v>0.02125184720760147</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2828947949959431</v>
+        <v>0.05201380589150963</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1879813406401122</v>
+        <v>0.1955958789752794</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2814884089477563</v>
+        <v>0.1725940609454794</v>
       </c>
       <c r="N242" t="n">
-        <v>0.258666438778372</v>
+        <v>0.2661372942384872</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2813936389984176</v>
+        <v>0.1723121762522238</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.102779464281971</v>
+        <v>0.02033310116137242</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2836100461524865</v>
+        <v>0.0520057050838541</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1176847951699014</v>
+        <v>0.02033310116137242</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2844930706738862</v>
+        <v>0.0520057050838541</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1875116049338936</v>
+        <v>0.1948027462167662</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2830787389418114</v>
+        <v>0.1735691686344369</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2541772255145147</v>
+        <v>0.2652151033423106</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2829834335690301</v>
+        <v>0.1732856913722929</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1002732053078092</v>
+        <v>0.0194270753256969</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2852033610185116</v>
+        <v>0.05199760427619856</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1154223976670952</v>
+        <v>0.0194270753256969</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2860913463518294</v>
+        <v>0.05199760427619856</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1846322384054846</v>
+        <v>0.19521459783704</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2846690689358665</v>
+        <v>0.1745442763233944</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2513747993648475</v>
+        <v>0.2675977549599937</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2845732281396426</v>
+        <v>0.1742592064923619</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09876100214184833</v>
+        <v>0.01853443346497263</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2867966758845368</v>
+        <v>0.05198950346854303</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1133538191816843</v>
+        <v>0.01853443346497263</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2876896220297726</v>
+        <v>0.05198950346854303</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1803431020659145</v>
+        <v>0.1961316175286695</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2862593989299216</v>
+        <v>0.1755193840123519</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2503589697288404</v>
+        <v>0.2652853311347201</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2861630227102552</v>
+        <v>0.175232721612431</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09524277001581652</v>
+        <v>0.01765583934359549</v>
       </c>
       <c r="G246" t="n">
-        <v>0.288389990750562</v>
+        <v>0.05198140266088749</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1121789712155677</v>
+        <v>0.01765583934359549</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2892878977077158</v>
+        <v>0.05198140266088749</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1796440569262122</v>
+        <v>0.1960539889842238</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2878497289239768</v>
+        <v>0.1764944917013094</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2454295460059629</v>
+        <v>0.2675779139096739</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2877528172808677</v>
+        <v>0.1762062367325</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1057184241614421</v>
+        <v>0.01679195672596324</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2899833056165873</v>
+        <v>0.05197330185323196</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1111977652706449</v>
+        <v>0.01679195672596324</v>
       </c>
       <c r="K247" t="n">
-        <v>0.290886173385659</v>
+        <v>0.05197330185323196</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1772349639974072</v>
+        <v>0.1951818958962723</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2894400589180319</v>
+        <v>0.1774695993902669</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2412863375956846</v>
+        <v>0.2657755853280391</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2893426118514802</v>
+        <v>0.1771797518525691</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1001878798104534</v>
+        <v>0.015943449376473</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2915766204826125</v>
+        <v>0.05196520104557643</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1099101128488148</v>
+        <v>0.015943449376473</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2924844490636022</v>
+        <v>0.05196520104557643</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1747156842905287</v>
+        <v>0.1946155219573836</v>
       </c>
       <c r="M248" t="n">
-        <v>0.291030388912087</v>
+        <v>0.1784447070792244</v>
       </c>
       <c r="N248" t="n">
-        <v>0.237229153897475</v>
+        <v>0.2643784274329996</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2909324064220928</v>
+        <v>0.1781532669726381</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1026510521945787</v>
+        <v>0.01511098105952251</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2931699353486377</v>
+        <v>0.0519571002379209</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1075159254519767</v>
+        <v>0.01511098105952251</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2940827247415453</v>
+        <v>0.0519571002379209</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1718860788166058</v>
+        <v>0.1954550508601272</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2926207189061422</v>
+        <v>0.1794198147681819</v>
       </c>
       <c r="N249" t="n">
-        <v>0.233557804310804</v>
+        <v>0.2654865222677393</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2925222009927053</v>
+        <v>0.1791267820927072</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08910785654554618</v>
+        <v>0.01429521553950767</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2947632502146629</v>
+        <v>0.05194899943026536</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1058151145820298</v>
+        <v>0.01429521553950767</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2956810004194885</v>
+        <v>0.05194899943026536</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1686460085866677</v>
+        <v>0.1934006662970717</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2942110489001973</v>
+        <v>0.1803949224571395</v>
       </c>
       <c r="N250" t="n">
-        <v>0.232572098235141</v>
+        <v>0.2663999518754423</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2941119955633179</v>
+        <v>0.1801002972127763</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08755820809508416</v>
+        <v>0.01349681658082623</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2963565650806881</v>
+        <v>0.05194089862260982</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1044075917408733</v>
+        <v>0.01349681658082623</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2972792760974317</v>
+        <v>0.05194089862260982</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1657953346117437</v>
+        <v>0.1944525519607864</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2958013788942524</v>
+        <v>0.181370030146097</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2269718450699557</v>
+        <v>0.2650187982992925</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2957017901339303</v>
+        <v>0.1810738123328453</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09200202207492109</v>
+        <v>0.01271644794787585</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2979498799467133</v>
+        <v>0.05193279781495429</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1020932684304064</v>
+        <v>0.01271644794787585</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2988775517753749</v>
+        <v>0.05193279781495429</v>
       </c>
       <c r="L252" t="n">
-        <v>0.162533917902863</v>
+        <v>0.1947108915438404</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2973917088883075</v>
+        <v>0.1823451378350545</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2235568542147179</v>
+        <v>0.2649431435824736</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2972915847045429</v>
+        <v>0.1820473274529144</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.08943921371678504</v>
+        <v>0.01195477340505255</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2995431948127384</v>
+        <v>0.05192469700729876</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1015720561525282</v>
+        <v>0.01195477340505255</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3004758274533181</v>
+        <v>0.05192469700729876</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1606616194710547</v>
+        <v>0.1950758687388026</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2989820388823626</v>
+        <v>0.183320245524012</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2211269350688971</v>
+        <v>0.26537306976817</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2988813792751554</v>
+        <v>0.1830208425729835</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.09386969825240438</v>
+        <v>0.01121245671675403</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3011365096787637</v>
+        <v>0.05191659619964323</v>
       </c>
       <c r="J254" t="n">
-        <v>0.09984386640913802</v>
+        <v>0.01121245671675403</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3020741031312612</v>
+        <v>0.05191659619964323</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1573783003273481</v>
+        <v>0.1929476672382421</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3005723688764178</v>
+        <v>0.1842953532129695</v>
       </c>
       <c r="N254" t="n">
-        <v>0.217581897031963</v>
+        <v>0.2638086588995654</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3004711738457679</v>
+        <v>0.1839943576930525</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.09229339091350736</v>
+        <v>0.0104901616473774</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3027298245447889</v>
+        <v>0.05190849539198769</v>
       </c>
       <c r="J255" t="n">
-        <v>0.09720861070213498</v>
+        <v>0.0104901616473774</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3036723788092044</v>
+        <v>0.05190849539198769</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1562838214827725</v>
+        <v>0.193326470734728</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3021626988704729</v>
+        <v>0.185270460901927</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2128215495033851</v>
+        <v>0.2638499930198435</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3020609684163804</v>
+        <v>0.1849678728131216</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.08171020693182229</v>
+        <v>0.009788551961320308</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3043231394108141</v>
+        <v>0.05190039458433216</v>
       </c>
       <c r="J256" t="n">
-        <v>0.09546620053341824</v>
+        <v>0.009788551961320308</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3052706544871476</v>
+        <v>0.05190039458433216</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1525780439483568</v>
+        <v>0.1934124629208292</v>
       </c>
       <c r="M256" t="n">
-        <v>0.303753028864528</v>
+        <v>0.1862455685908845</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2120457018826332</v>
+        <v>0.2661971541721886</v>
       </c>
       <c r="O256" t="n">
-        <v>0.303650762986993</v>
+        <v>0.1859413879331906</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.08012006153907747</v>
+        <v>0.009108291422978837</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3059164542768393</v>
+        <v>0.05189229377667662</v>
       </c>
       <c r="J257" t="n">
-        <v>0.09451654740488709</v>
+        <v>0.009108291422978837</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3068689301650908</v>
+        <v>0.05189229377667662</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1509608287351306</v>
+        <v>0.193605827489115</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3053433588585831</v>
+        <v>0.187220676279842</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2079541635691768</v>
+        <v>0.2656502243997848</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3052405575576055</v>
+        <v>0.1869149030532597</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.08552286996700123</v>
+        <v>0.008450043796750628</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3075097691428645</v>
+        <v>0.05188419296902109</v>
       </c>
       <c r="J258" t="n">
-        <v>0.09215956281844061</v>
+        <v>0.008450043796750628</v>
       </c>
       <c r="K258" t="n">
-        <v>0.308467205843034</v>
+        <v>0.05188419296902109</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1475320368541229</v>
+        <v>0.1937067481321542</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3069336888526382</v>
+        <v>0.1881957839687995</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2038467439624854</v>
+        <v>0.2636092857458158</v>
       </c>
       <c r="O258" t="n">
-        <v>0.306830352128218</v>
+        <v>0.1878884181733288</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.08691854744732172</v>
+        <v>0.00781447284703328</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3091030840088897</v>
+        <v>0.05187609216136556</v>
       </c>
       <c r="J259" t="n">
-        <v>0.09159515827597804</v>
+        <v>0.00781447284703328</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3100654815209771</v>
+        <v>0.05187609216136556</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1448915293163628</v>
+        <v>0.193415408542516</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3085240188466933</v>
+        <v>0.1891708916577571</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1988232524620289</v>
+        <v>0.2649744202534654</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3084201466988306</v>
+        <v>0.1888619332933978</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.08430700921176729</v>
+        <v>0.007202242338222989</v>
       </c>
       <c r="G260" t="n">
-        <v>0.310696398874915</v>
+        <v>0.05186799135371003</v>
       </c>
       <c r="J260" t="n">
-        <v>0.09002324527939863</v>
+        <v>0.007202242338222989</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3116637571989203</v>
+        <v>0.05186799135371003</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1419391671328798</v>
+        <v>0.1923319924127694</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3101143488407485</v>
+        <v>0.1901459993467146</v>
       </c>
       <c r="N260" t="n">
-        <v>0.195183498467277</v>
+        <v>0.2647457099659177</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3100099412694431</v>
+        <v>0.1898354484134669</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.07268817049206625</v>
+        <v>0.006614016034717354</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3122897137409401</v>
+        <v>0.05185989054605449</v>
       </c>
       <c r="J261" t="n">
-        <v>0.08824373533060147</v>
+        <v>0.006614016034717354</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3132620328768635</v>
+        <v>0.05185989054605449</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1394748113147029</v>
+        <v>0.1923566834354835</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3117046788348036</v>
+        <v>0.1911211070356721</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1909272913776991</v>
+        <v>0.2641232369263565</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3115997358400556</v>
+        <v>0.1908089635335359</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.07906194651994689</v>
+        <v>0.006050457700913517</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3138830286069653</v>
+        <v>0.05185178973839896</v>
       </c>
       <c r="J262" t="n">
-        <v>0.08695653993148582</v>
+        <v>0.006050457700913517</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3148603085548067</v>
+        <v>0.05185178973839896</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1370983228728612</v>
+        <v>0.1937896653032273</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3132950088288587</v>
+        <v>0.1920962147246296</v>
       </c>
       <c r="N262" t="n">
-        <v>0.189454440592765</v>
+        <v>0.2650070831779663</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3131895304106682</v>
+        <v>0.191782478653605</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.07042825252713741</v>
+        <v>0.00551223110120895</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3154763434729905</v>
+        <v>0.05184368893074343</v>
       </c>
       <c r="J263" t="n">
-        <v>0.08516157058395081</v>
+        <v>0.00551223110120895</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3164585842327499</v>
+        <v>0.05184368893074343</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1344095628183842</v>
+        <v>0.1940311217085698</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3148853388229139</v>
+        <v>0.1930713224135871</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1842647555119441</v>
+        <v>0.2648973307639306</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3147793249812807</v>
+        <v>0.1927559937736741</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.07878700374536621</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3170696583390157</v>
+        <v>0.05183558812308789</v>
       </c>
       <c r="J264" t="n">
-        <v>0.08325873878989566</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.318056859910693</v>
+        <v>0.05183558812308789</v>
       </c>
       <c r="L264" t="n">
-        <v>0.131708392162301</v>
+        <v>0.1938812363440801</v>
       </c>
       <c r="M264" t="n">
-        <v>0.316475668816969</v>
+        <v>0.1940464301025446</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1810580455347063</v>
+        <v>0.2647940617274334</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3163691195518932</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1937295088937431</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05182243022835105</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05182243022835105</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.0063932896668491</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05182269875681506</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.0063932896668491</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05182269875681506</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.007778515225851157</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05182296728527908</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.007778515225851157</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05182296728527908</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.009155579301710834</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0518232358137431</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.009155579301710834</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.0518232358137431</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.010524384519253</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05182350434220712</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.010524384519253</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05182350434220712</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01188483350318302</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05182377287067114</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01188483350318302</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05182377287067114</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01323682887832506</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05182404139913516</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01323682887832506</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05182404139913516</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01458027326938519</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05182430992759917</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01458027326938519</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05182430992759917</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01591506930118682</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05182457845606319</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01591506930118682</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05182457845606319</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01724111959843681</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0518248469845272</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01724111959843681</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.0518248469845272</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01855832678595781</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05182511551299122</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.01855832678595781</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05182511551299122</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01986659348845743</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05182538404145524</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01986659348845743</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05182538404145524</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02116582233075755</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05182565256991926</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02116582233075755</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05182565256991926</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02245591593756656</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05182592109838327</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02245591593756656</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05182592109838327</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02373677693370554</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05182618962684729</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02373677693370554</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05182618962684729</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0250083079438837</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0518264581553113</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.0250083079438837</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.0518264581553113</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0262704115929213</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05182672668377532</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.0262704115929213</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05182672668377532</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.02752299050552838</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05182699521223934</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.02752299050552838</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05182699521223934</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02876594730649738</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05182726374070336</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02876594730649738</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05182726374070336</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02999918462062008</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05182753226916738</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.02999918462062008</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05182753226916738</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.03122260507260767</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05182780079763139</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.03122260507260767</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05182780079763139</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.03243611128727834</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05182806932609541</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.03243611128727834</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05182806932609541</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.03363960588934421</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05182833785455943</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.03363960588934421</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05182833785455943</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.03483299150362267</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05182860638302345</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.03483299150362267</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05182860638302345</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.03601617075482665</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05182887491148746</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.03601617075482665</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05182887491148746</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.03718944388331576</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05182914343995148</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.03718944388331576</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05182914343995148</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.03835509920706286</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05182941196841549</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.03835509920706286</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05182941196841549</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.0395134369664268</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05182968049687951</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.0395134369664268</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05182968049687951</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.04066435978612208</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05182994902534353</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.04066435978612208</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05182994902534353</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.04180777029096373</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05183021755380755</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.04180777029096373</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05183021755380755</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.04294357110566695</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05183048608227157</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.04294357110566695</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05183048608227157</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.04407166485504606</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05183075461073559</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.04407166485504606</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05183075461073559</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.04519195416381695</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0518310231391996</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.04519195416381695</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.0518310231391996</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.04630434165676921</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05183129166766361</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.04630434165676921</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05183129166766361</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.04740872995869162</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05183156019612763</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.04740872995869162</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05183156019612763</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.04850502169430122</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05183182872459165</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.04850502169430122</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05183182872459165</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.04959311948841051</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05183209725305567</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.04959311948841051</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05183209725305567</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.05067292596573715</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05183236578151968</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.05067292596573715</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05183236578151968</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.05174434375109306</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0518326343099837</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.05174434375109306</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.0518326343099837</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.05280727546919654</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05183290283844771</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.05280727546919654</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05183290283844771</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.05386162374485882</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05183317136691173</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.05386162374485882</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05183317136691173</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.05490729120279893</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05183343989537575</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.05490729120279893</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05183343989537575</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.0559441804678273</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05183370842383977</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.0559441804678273</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05183370842383977</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0569721941646638</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05183397695230379</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.0569721941646638</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05183397695230379</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.05799123491811804</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05183424548076781</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.05799123491811804</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05183424548076781</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.05900120535291066</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05183451400923182</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.05900120535291066</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05183451400923182</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.06000200809385052</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05183478253769584</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.06000200809385052</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05183478253769584</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.06099354576565903</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05183505106615986</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.06099354576565903</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05183505106615986</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.06197572099314429</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05183531959462388</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.06197572099314429</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05183531959462388</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.06294843640102844</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05183558812308789</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.06294843640102844</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05183558812308789</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.06294843640102844</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05182243022835105</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.06294843640102844</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05182243022835105</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.06422285216576688</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05183106809293462</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.06422285216576688</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05183106809293462</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.06548663698050643</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05183970595751818</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.06548663698050643</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05183970595751818</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.06673955929557711</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05184834382210175</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.06673955929557711</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05184834382210175</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.06798138756130655</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05185698168668532</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.06798138756130655</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05185698168668532</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.06921189022802222</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05186561955126889</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.06921189022802222</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05186561955126889</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.07043083574605426</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05187425741585246</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.07043083574605426</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05187425741585246</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.07163799256573021</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05188289528043603</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.07163799256573021</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05188289528043603</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.07283312913737762</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05189153314501959</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.07283312913737762</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05189153314501959</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0740160139113266</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05190017100960316</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.0740160139113266</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05190017100960316</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.07518641533790467</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05190880887418673</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.07518641533790467</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05190880887418673</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.07634410186743944</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05191744673877029</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.07634410186743944</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05191744673877029</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.07748884195026094</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05192608460335386</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.07748884195026094</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05192608460335386</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.07862040403669594</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05193472246793743</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.07862040403669594</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05193472246793743</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.07973855657707439</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.051943360332521</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.07973855657707439</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.051943360332521</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.08084306802172396</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05195199819710457</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.08084306802172396</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05195199819710457</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.0819337068209723</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05196063606168813</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.0819337068209723</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05196063606168813</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.08301024142514925</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0519692739262717</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.08301024142514925</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.0519692739262717</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.08407244028458245</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05197791179085527</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.08407244028458245</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05197791179085527</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0851200718495997</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05198654965543884</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.0851200718495997</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05198654965543884</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.08615290457053069</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05199518752002241</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.08615290457053069</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05199518752002241</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.08717070689770319</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05200382538460598</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.08717070689770319</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05200382538460598</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.08817324728144489</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05201246324918954</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.08817324728144489</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05201246324918954</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.08916029417208553</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05202110111377311</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.08916029417208553</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05202110111377311</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.09013161601995288</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05202973897835668</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.09013161601995288</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05202973897835668</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.09108792676986703</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05203837684294024</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.09108792676986703</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05203837684294024</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.09203466783911192</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05204701470752381</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.09203466783911192</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05204701470752381</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.09297255317250762</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05205565257210738</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.09297255317250762</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05205565257210738</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.09390135122038203</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05206429043669095</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.09390135122038203</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05206429043669095</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.09482083043306473</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05207292830127452</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.09482083043306473</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05207292830127452</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.09573075926088344</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05208156616585809</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.09573075926088344</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05208156616585809</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.09663090615416604</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05209020403044165</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.09663090615416604</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05209020403044165</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.09752103956324208</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05209884189502522</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.09752103956324208</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05209884189502522</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.09840092793843939</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05210747975960879</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.09840092793843939</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05210747975960879</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.09927033973008577</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05211611762419235</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.09927033973008577</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05211611762419235</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1001290433885108</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05212475548877592</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1001290433885108</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05212475548877592</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1009768073640423</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05213339335335949</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1009768073640423</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05213339335335949</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.101813400107008</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05214203121794306</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.101813400107008</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05214203121794306</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1026385900677376</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05215066908252663</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1026385900677376</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05215066908252663</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1034521456965582</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05215930694711019</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1034521456965582</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05215930694711019</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1042538354437995</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05216794481169376</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1042538354437995</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05216794481169376</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1050434277597892</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05217658267627733</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1050434277597892</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05217658267627733</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1058206910948552</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0521852205408609</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1058206910948552</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.0521852205408609</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1065853938993269</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05219385840544447</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1065853938993269</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05219385840544447</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1073373046235323</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05220249627002804</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1073373046235323</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05220249627002804</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1080761917177993</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0522111341346116</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1080761917177993</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.0522111341346116</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1088018236324571</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05221977199919517</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1088018236324571</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05221977199919517</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1095139688178339</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05222840986377874</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1095139688178339</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05222840986377874</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1102123957242573</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0522370477283623</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1102123957242573</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0522370477283623</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1108968728020569</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05224568559294587</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1108968728020569</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05224568559294587</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1108968728020569</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05224568559294587</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1108968728020569</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05224568559294587</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1090769254524896</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05542611194160497</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1090769254524896</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05542611194160497</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1074780419721114</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05860653829026406</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1074780419721114</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05860653829026406</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1060863734577985</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06178696463892316</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1060863734577985</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06178696463892316</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1048880710064268</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06496739098758227</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1048880710064268</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06496739098758227</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1038692857148723</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06814781733624135</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1038692857148723</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06814781733624135</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.103016168680011</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07132824368490044</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.103016168680011</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07132824368490044</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1023148709987191</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07450867003355954</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1023148709987191</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07450867003355954</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1017515437678724</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07768909638221864</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1017515437678724</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07768909638221864</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1013123380843471</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08086952273087773</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1013123380843471</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08086952273087773</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1009834050450191</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08404994907953683</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1009834050450191</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08404994907953683</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1007508957467646</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08723037542819594</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1007508957467646</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08723037542819594</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1006009612864594</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09041080177685504</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1006009612864594</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09041080177685504</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1005197527609797</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09359122812551413</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1005197527609797</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09359122812551413</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1004934212672014</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09677165447417321</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1004934212672014</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09677165447417321</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1008224386421506</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0999520808228323</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1008224386421506</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.0999520808228323</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.101807089078524</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1031325071714914</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.101807089078524</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1031325071714914</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.1032357466637123</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1063129335201505</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.1032357466637123</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1063129335201505</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1048936930939343</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1094933598688096</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1048936930939343</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1094933598688096</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1065662100654085</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1126737862174687</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1065662100654085</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1126737862174687</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1080385792743536</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1158542125661278</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1080385792743536</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1158542125661278</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1090960824169883</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1190346389147869</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1090960824169883</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1190346389147869</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1095240011895311</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.122215065263446</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1095240011895311</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.122215065263446</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1093333656164992</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1253954916121051</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1093333656164992</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1253954916121051</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1087418296232059</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1285759179607642</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1087418296232059</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1285759179607642</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1077867059594367</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1317563443094233</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1077867059594367</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1317563443094233</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1065048106037159</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1349367706580824</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1065048106037159</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1349367706580824</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1049329595345677</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1381171970067415</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1049329595345677</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1381171970067415</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1031079687305165</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1412976233554006</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1031079687305165</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1412976233554006</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1010666541700864</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1444780497040596</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1010666541700864</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1444780497040596</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09884583183180183</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1476584760527188</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.09884583183180183</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1476584760527188</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09648231769418707</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.09648231769418707</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.09401292773576632</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.154019328750037</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.09401292773576632</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.154019328750037</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0914744779350639</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.157199755098696</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.0914744779350639</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.157199755098696</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.08867960577954963</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1603801814473551</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.08867960577954963</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1603801814473551</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0838660670029263</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1635606077960143</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.0838660670029263</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1635606077960143</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0784900420656527</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1667410341446733</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.0784900420656527</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1667410341446733</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.07485794834612582</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1699214604933324</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.07485794834612582</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1699214604933324</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.07441048217815187</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1731018868419915</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.07441048217815187</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1731018868419915</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.07443752327856558</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1762823131906506</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.07443752327856558</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1762823131906506</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.07449185301695686</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1794627395393097</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.07449185301695686</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1794627395393097</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07457533091253614</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1826431658879688</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.07457533091253614</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1826431658879688</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.07468981648451374</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1858235922366279</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.07468981648451374</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1858235922366279</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.07483716925210009</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.189004018585287</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.07483716925210009</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.189004018585287</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.07501924873450551</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1921844449339461</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.07501924873450551</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1921844449339461</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0752379144509404</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1953648712826052</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.0752379144509404</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1953648712826052</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07564111800956751</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1985452976312643</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.07564111800956751</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1985452976312643</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07754573180870562</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2017257239799234</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.07754573180870562</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2017257239799234</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.08021821998665628</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2049061503285825</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.08021821998665628</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2049061503285825</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.08235117329006879</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2080865766772416</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.08235117329006879</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2080865766772416</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.08388006490702275</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2112670030259007</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.08388006490702275</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2112670030259007</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.08525891375899537</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2144474293745597</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.08525891375899537</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2144474293745597</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.08652941552209147</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2176278557232188</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.08652941552209147</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2176278557232188</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.08773326587241591</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2208082820718779</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.08773326587241591</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2208082820718779</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0889121604860736</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.223988708420537</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.0889121604860736</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.223988708420537</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09009207030029372</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2271691347691961</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.09009207030029372</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2271691347691961</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.09114414745824688</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2303495611178552</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.09114414745824688</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2303495611178552</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09214167364002003</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2335299874665143</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.09214167364002003</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2335299874665143</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09322605805772503</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2367104138151734</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.09322605805772503</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2367104138151734</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09453870992347362</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2398908401638325</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.09453870992347362</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2398908401638325</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09631125248938659</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2430712665124916</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.09631125248938659</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2430712665124916</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09864885223508015</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2462516928611507</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.09864885223508015</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2462516928611507</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.101474944650821</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2494321192098098</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.101474944650821</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2494321192098098</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1047127888607363</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2526125455584689</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1047127888607363</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2526125455584689</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1082856439889534</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.255792971907128</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1082856439889534</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.255792971907128</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1121167691595995</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2589733982557871</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1121167691595995</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2589733982557871</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1161294234968018</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2621538246044462</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1161294234968018</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2621538246044462</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1202468661246876</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2653342509531053</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1202468661246876</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2653342509531053</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1243923561673841</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2685146773017644</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1243923561673841</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2685146773017644</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1284891527490186</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2716951036504235</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1284891527490186</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2716951036504235</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1324605149937182</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2748755299990826</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1324605149937182</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2748755299990826</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1362297020256102</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2780559563477417</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1362297020256102</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2780559563477417</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1397199729688218</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2812363826964008</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1397199729688218</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2812363826964008</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1428545869474804</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2844168090450599</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.1428545869474804</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2844168090450599</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1455568030857131</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.287597235393719</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1455568030857131</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.287597235393719</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.147749880507647</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2907776617423781</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.147749880507647</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2907776617423781</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1493570783374096</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2939580880910371</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1493570783374096</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2939580880910371</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1505291637360758</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2971385144396962</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1505291637360758</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2971385144396962</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1503698104618357</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3003189407883554</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1503698104618357</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3003189407883554</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1465027675262117</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3034993671370144</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.1465027675262117</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3034993671370144</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1385265180677027</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3066797934856735</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1385265180677027</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3066797934856735</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1278572764028606</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3098602198343327</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1278572764028606</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3098602198343327</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1159112568482377</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3130406461829917</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1159112568482377</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3130406461829917</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1041046737203861</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3162210725316508</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1041046737203861</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3162210725316508</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.09385374133585779</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3194014988803099</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.09385374133585779</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3194014988803099</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.0865746740112051</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.322581925228969</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.0865746740112051</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.322581925228969</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.08265438550179806</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3257623515776281</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.08265438550179806</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3257623515776281</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.07917630967804891</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3289427779262872</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.07917630967804891</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3289427779262872</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.07585759062273924</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3321232042749463</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.07585759062273924</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3321232042749463</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.07271891672869869</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3353036306236054</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.07271891672869869</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3353036306236054</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.06978097638875673</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3384840569722645</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.06978097638875673</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3384840569722645</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.06706445799574291</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3416644833209236</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.06706445799574291</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3416644833209236</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.06459004994248678</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3448449096695827</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.06459004994248678</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3448449096695827</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.06237844062181781</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3480253360182418</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.06237844062181781</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3480253360182418</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.06045031842656563</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3512057623669009</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.06045031842656563</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3512057623669009</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.05882637174955972</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.35438618871556</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.05882637174955972</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.35438618871556</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.05752728898362965</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3575666150642191</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.05752728898362965</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3575666150642191</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.05657375852160491</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3607470414128782</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.05657375852160491</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3607470414128782</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.05598646875631509</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3639274677615372</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.05598646875631509</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3639274677615372</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.05578610808058969</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3671078941101963</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.05578610808058969</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3671078941101963</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
